--- a/JupyterNotebooks/AvgHW/BrassA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
+    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,22 +653,22 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9998183764456288</v>
+      </c>
+      <c r="D3">
+        <v>1.000069835274624</v>
+      </c>
+      <c r="E3">
+        <v>1.000103686949003</v>
+      </c>
+      <c r="F3">
+        <v>0.9999399776179124</v>
+      </c>
+      <c r="G3">
         <v>1.00018622104045</v>
       </c>
-      <c r="D3">
-        <v>0.9997206703794828</v>
-      </c>
-      <c r="E3">
-        <v>1.000069835274624</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>1.00018622104045</v>
-      </c>
-      <c r="G3">
-        <v>0.9999399776179124</v>
-      </c>
-      <c r="H3">
-        <v>1.000103686949003</v>
       </c>
       <c r="I3">
         <v>1.00018622104045</v>
@@ -785,13 +677,13 @@
         <v>0.9997206703794828</v>
       </c>
       <c r="K3">
+        <v>1.000069835274624</v>
+      </c>
+      <c r="L3">
         <v>0.9999441329595927</v>
       </c>
-      <c r="L3">
-        <v>1.000069835274624</v>
-      </c>
       <c r="M3">
-        <v>0.9998183764456288</v>
+        <v>0.9997206703794828</v>
       </c>
       <c r="N3">
         <v>1.00018622104045</v>
@@ -824,7 +716,7 @@
         <v>0.9999815919926647</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9996493779968117</v>
+      </c>
+      <c r="D4">
+        <v>1.000134814174518</v>
+      </c>
+      <c r="E4">
+        <v>1.000200164915291</v>
+      </c>
+      <c r="F4">
+        <v>0.9998841283746424</v>
+      </c>
+      <c r="G4">
         <v>1.000359498003283</v>
       </c>
-      <c r="D4">
-        <v>0.9994607565535594</v>
-      </c>
-      <c r="E4">
-        <v>1.000134814174518</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.000359498003283</v>
-      </c>
-      <c r="G4">
-        <v>0.9998841283746424</v>
-      </c>
-      <c r="H4">
-        <v>1.000200164915291</v>
       </c>
       <c r="I4">
         <v>1.000359498003283</v>
       </c>
       <c r="J4">
-        <v>0.9994607565535594</v>
+        <v>0.9994607565535595</v>
       </c>
       <c r="K4">
-        <v>0.9998921495204365</v>
+        <v>1.000134814174518</v>
       </c>
       <c r="L4">
-        <v>1.000134814174518</v>
+        <v>0.9998921495204363</v>
       </c>
       <c r="M4">
-        <v>0.9996493779968117</v>
+        <v>0.9994607565535595</v>
       </c>
       <c r="N4">
         <v>1.000359498003283</v>
@@ -871,7 +763,7 @@
         <v>1.000134814174518</v>
       </c>
       <c r="P4">
-        <v>0.9997977853640388</v>
+        <v>0.999797785364039</v>
       </c>
       <c r="Q4">
         <v>1.00000947127458</v>
@@ -895,7 +787,7 @@
         <v>0.9999644629641324</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,22 +795,22 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9993280749996378</v>
+      </c>
+      <c r="D5">
+        <v>1.000258353237742</v>
+      </c>
+      <c r="E5">
+        <v>1.000383586565909</v>
+      </c>
+      <c r="F5">
+        <v>0.9997779441156519</v>
+      </c>
+      <c r="G5">
         <v>1.000688933590425</v>
       </c>
-      <c r="D5">
-        <v>0.9989666110868041</v>
-      </c>
-      <c r="E5">
-        <v>1.000258353237742</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.000688933590425</v>
-      </c>
-      <c r="G5">
-        <v>0.9997779441156519</v>
-      </c>
-      <c r="H5">
-        <v>1.000383586565909</v>
       </c>
       <c r="I5">
         <v>1.000688933590425</v>
@@ -927,13 +819,13 @@
         <v>0.9989666110868041</v>
       </c>
       <c r="K5">
+        <v>1.000258353237742</v>
+      </c>
+      <c r="L5">
         <v>0.9997933172878115</v>
       </c>
-      <c r="L5">
-        <v>1.000258353237742</v>
-      </c>
       <c r="M5">
-        <v>0.999328074999638</v>
+        <v>0.9989666110868041</v>
       </c>
       <c r="N5">
         <v>1.000688933590425</v>
@@ -966,7 +858,7 @@
         <v>0.9999318967652153</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,40 +866,40 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00101044372596</v>
+        <v>0.9990145084144348</v>
       </c>
       <c r="D6">
-        <v>0.9984843420347594</v>
+        <v>1.000378920903862</v>
       </c>
       <c r="E6">
-        <v>1.000378920903862</v>
+        <v>1.000562608597629</v>
       </c>
       <c r="F6">
-        <v>1.00101044372596</v>
+        <v>0.9996743213466616</v>
       </c>
       <c r="G6">
-        <v>0.9996743213466617</v>
+        <v>1.001010443725961</v>
       </c>
       <c r="H6">
-        <v>1.000562608597629</v>
+        <v>1.001010443725961</v>
       </c>
       <c r="I6">
-        <v>1.00101044372596</v>
+        <v>1.001010443725961</v>
       </c>
       <c r="J6">
         <v>0.9984843420347594</v>
       </c>
       <c r="K6">
+        <v>1.000378920903862</v>
+      </c>
+      <c r="L6">
         <v>0.9996968649303112</v>
       </c>
-      <c r="L6">
-        <v>1.000378920903862</v>
-      </c>
       <c r="M6">
-        <v>0.9990145084144348</v>
+        <v>0.9984843420347594</v>
       </c>
       <c r="N6">
-        <v>1.00101044372596</v>
+        <v>1.001010443725961</v>
       </c>
       <c r="O6">
         <v>1.000378920903862</v>
@@ -1028,7 +920,7 @@
         <v>0.9999579022215274</v>
       </c>
       <c r="U6">
-        <v>0.999887007002811</v>
+        <v>0.9998870070028109</v>
       </c>
       <c r="V6">
         <v>1.000111694347441</v>
@@ -1037,7 +929,7 @@
         <v>0.9999001163571851</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999860852673446</v>
+      </c>
+      <c r="D7">
+        <v>1.000005351909787</v>
+      </c>
+      <c r="E7">
+        <v>1.000007944634106</v>
+      </c>
+      <c r="F7">
+        <v>0.9999954010083598</v>
+      </c>
+      <c r="G7">
         <v>1.000014265945412</v>
       </c>
-      <c r="D7">
-        <v>0.9999786021814197</v>
-      </c>
-      <c r="E7">
-        <v>1.000005351909787</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.000014265945412</v>
-      </c>
-      <c r="G7">
-        <v>0.9999954010083598</v>
-      </c>
-      <c r="H7">
-        <v>1.000007944634106</v>
       </c>
       <c r="I7">
         <v>1.000014265945412</v>
       </c>
       <c r="J7">
-        <v>0.9999786021814197</v>
+        <v>0.9999786021814195</v>
       </c>
       <c r="K7">
+        <v>1.000005351909787</v>
+      </c>
+      <c r="L7">
         <v>0.9999957197616611</v>
       </c>
-      <c r="L7">
-        <v>1.000005351909787</v>
-      </c>
       <c r="M7">
-        <v>0.9999860852673446</v>
+        <v>0.9999786021814195</v>
       </c>
       <c r="N7">
         <v>1.000014265945412</v>
@@ -1108,7 +1000,7 @@
         <v>0.9999985903272347</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,22 +1008,22 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9999596784514081</v>
+      </c>
+      <c r="D8">
+        <v>1.00001550506394</v>
+      </c>
+      <c r="E8">
+        <v>1.000023019982162</v>
+      </c>
+      <c r="F8">
+        <v>0.9999866742014225</v>
+      </c>
+      <c r="G8">
         <v>1.00004134161171</v>
       </c>
-      <c r="D8">
-        <v>0.9999379887479776</v>
-      </c>
-      <c r="E8">
-        <v>1.00001550506394</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
         <v>1.00004134161171</v>
-      </c>
-      <c r="G8">
-        <v>0.9999866742014225</v>
-      </c>
-      <c r="H8">
-        <v>1.000023019982162</v>
       </c>
       <c r="I8">
         <v>1.00004134161171</v>
@@ -1140,13 +1032,13 @@
         <v>0.9999379887479776</v>
       </c>
       <c r="K8">
+        <v>1.00001550506394</v>
+      </c>
+      <c r="L8">
         <v>0.9999875969549745</v>
       </c>
-      <c r="L8">
-        <v>1.00001550506394</v>
-      </c>
       <c r="M8">
-        <v>0.9999596784514079</v>
+        <v>0.9999379887479776</v>
       </c>
       <c r="N8">
         <v>1.00004134161171</v>
@@ -1179,7 +1071,7 @@
         <v>0.9999959137596919</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,22 +1079,22 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9999443624628505</v>
+      </c>
+      <c r="D9">
+        <v>1.000021393674654</v>
+      </c>
+      <c r="E9">
+        <v>1.00003176330892</v>
+      </c>
+      <c r="F9">
+        <v>0.9999816128061668</v>
+      </c>
+      <c r="G9">
         <v>1.00005704510713</v>
       </c>
-      <c r="D9">
-        <v>0.9999144335559406</v>
-      </c>
-      <c r="E9">
-        <v>1.000021393674654</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>1.00005704510713</v>
-      </c>
-      <c r="G9">
-        <v>0.9999816128061668</v>
-      </c>
-      <c r="H9">
-        <v>1.00003176330892</v>
       </c>
       <c r="I9">
         <v>1.00005704510713</v>
@@ -1211,13 +1103,13 @@
         <v>0.9999144335559406</v>
       </c>
       <c r="K9">
+        <v>1.000021393674654</v>
+      </c>
+      <c r="L9">
         <v>0.9999828858321052</v>
       </c>
-      <c r="L9">
-        <v>1.000021393674654</v>
-      </c>
       <c r="M9">
-        <v>0.9999443624628505</v>
+        <v>0.9999144335559406</v>
       </c>
       <c r="N9">
         <v>1.00005704510713</v>
@@ -1250,7 +1142,7 @@
         <v>0.9999943613028027</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,22 +1150,22 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9998797486270298</v>
+      </c>
+      <c r="D10">
+        <v>1.000046236957362</v>
+      </c>
+      <c r="E10">
+        <v>1.0000686506547</v>
+      </c>
+      <c r="F10">
+        <v>0.9999602587619641</v>
+      </c>
+      <c r="G10">
         <v>1.000123294818351</v>
       </c>
-      <c r="D10">
-        <v>0.9998150587437212</v>
-      </c>
-      <c r="E10">
-        <v>1.000046236957362</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>1.000123294818351</v>
-      </c>
-      <c r="G10">
-        <v>0.9999602587619639</v>
-      </c>
-      <c r="H10">
-        <v>1.0000686506547</v>
       </c>
       <c r="I10">
         <v>1.000123294818351</v>
@@ -1282,13 +1174,13 @@
         <v>0.9998150587437212</v>
       </c>
       <c r="K10">
-        <v>0.9999630100193617</v>
+        <v>1.000046236957362</v>
       </c>
       <c r="L10">
-        <v>1.000046236957362</v>
+        <v>0.9999630100193616</v>
       </c>
       <c r="M10">
-        <v>0.9998797486270298</v>
+        <v>0.9998150587437212</v>
       </c>
       <c r="N10">
         <v>1.000123294818351</v>
@@ -1297,22 +1189,22 @@
         <v>1.000046236957362</v>
       </c>
       <c r="P10">
-        <v>0.9999306478505414</v>
+        <v>0.9999306478505416</v>
       </c>
       <c r="Q10">
         <v>1.000003247859663</v>
       </c>
       <c r="R10">
-        <v>0.9999948635064779</v>
+        <v>0.9999948635064783</v>
       </c>
       <c r="S10">
-        <v>0.9999405181543489</v>
+        <v>0.9999405181543491</v>
       </c>
       <c r="T10">
-        <v>0.9999948635064779</v>
+        <v>0.999994863506478</v>
       </c>
       <c r="U10">
-        <v>0.9999862123203495</v>
+        <v>0.9999862123203496</v>
       </c>
       <c r="V10">
         <v>1.00001362881995</v>
@@ -1321,7 +1213,7 @@
         <v>0.9999878119424814</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,22 +1221,22 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9997986236941824</v>
+      </c>
+      <c r="D11">
+        <v>1.000077427925099</v>
+      </c>
+      <c r="E11">
+        <v>1.000114963345125</v>
+      </c>
+      <c r="F11">
+        <v>0.9999334497574484</v>
+      </c>
+      <c r="G11">
         <v>1.000206471215795</v>
       </c>
-      <c r="D11">
-        <v>0.9996902920547757</v>
-      </c>
-      <c r="E11">
-        <v>1.000077427925099</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.000206471215795</v>
-      </c>
-      <c r="G11">
-        <v>0.9999334497574484</v>
-      </c>
-      <c r="H11">
-        <v>1.000114963345125</v>
       </c>
       <c r="I11">
         <v>1.000206471215795</v>
@@ -1353,13 +1245,13 @@
         <v>0.9996902920547757</v>
       </c>
       <c r="K11">
-        <v>0.9999380566850899</v>
+        <v>1.000077427925099</v>
       </c>
       <c r="L11">
-        <v>1.000077427925099</v>
+        <v>0.9999380566850902</v>
       </c>
       <c r="M11">
-        <v>0.9997986236941824</v>
+        <v>0.9996902920547757</v>
       </c>
       <c r="N11">
         <v>1.000206471215795</v>
@@ -1392,7 +1284,7 @@
         <v>0.9999795890753266</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,22 +1292,22 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.002847092345366</v>
+      </c>
+      <c r="D12">
+        <v>0.9989053112400395</v>
+      </c>
+      <c r="E12">
+        <v>0.9983746458611054</v>
+      </c>
+      <c r="F12">
+        <v>1.000940888441988</v>
+      </c>
+      <c r="G12">
         <v>0.9970808306423465</v>
       </c>
-      <c r="D12">
-        <v>1.004378756962693</v>
-      </c>
-      <c r="E12">
-        <v>0.9989053112400395</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>0.9970808306423465</v>
-      </c>
-      <c r="G12">
-        <v>1.000940888441988</v>
-      </c>
-      <c r="H12">
-        <v>0.9983746458611055</v>
       </c>
       <c r="I12">
         <v>0.9970808306423465</v>
@@ -1424,13 +1316,13 @@
         <v>1.004378756962693</v>
       </c>
       <c r="K12">
+        <v>0.9989053112400395</v>
+      </c>
+      <c r="L12">
         <v>1.000875756168799</v>
       </c>
-      <c r="L12">
-        <v>0.9989053112400395</v>
-      </c>
       <c r="M12">
-        <v>1.002847092345366</v>
+        <v>1.004378756962693</v>
       </c>
       <c r="N12">
         <v>0.9970808306423465</v>
@@ -1439,7 +1331,7 @@
         <v>0.9989053112400395</v>
       </c>
       <c r="P12">
-        <v>1.001642034101366</v>
+        <v>1.001642034101367</v>
       </c>
       <c r="Q12">
         <v>0.9999230998410136</v>
@@ -1463,7 +1355,7 @@
         <v>1.000288574112797</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,22 +1363,22 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.000738264898229</v>
+      </c>
+      <c r="D13">
+        <v>0.9997161448516948</v>
+      </c>
+      <c r="E13">
+        <v>0.9995785398723016</v>
+      </c>
+      <c r="F13">
+        <v>1.00024397552549</v>
+      </c>
+      <c r="G13">
         <v>0.9992430463620008</v>
       </c>
-      <c r="D13">
-        <v>1.001135432739273</v>
-      </c>
-      <c r="E13">
-        <v>0.9997161448516948</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.9992430463620008</v>
-      </c>
-      <c r="G13">
-        <v>1.00024397552549</v>
-      </c>
-      <c r="H13">
-        <v>0.9995785398723016</v>
       </c>
       <c r="I13">
         <v>0.9992430463620008</v>
@@ -1495,13 +1387,13 @@
         <v>1.001135432739273</v>
       </c>
       <c r="K13">
+        <v>0.9997161448516948</v>
+      </c>
+      <c r="L13">
         <v>1.000227084232532</v>
       </c>
-      <c r="L13">
-        <v>0.9997161448516948</v>
-      </c>
       <c r="M13">
-        <v>1.00073826489823</v>
+        <v>1.001135432739273</v>
       </c>
       <c r="N13">
         <v>0.9992430463620008</v>
@@ -1534,7 +1426,7 @@
         <v>1.000074829166652</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,22 +1434,22 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.008907501679288</v>
+      </c>
+      <c r="D14">
+        <v>0.9965751229547051</v>
+      </c>
+      <c r="E14">
+        <v>0.9949148629930721</v>
+      </c>
+      <c r="F14">
+        <v>1.002943705244637</v>
+      </c>
+      <c r="G14">
         <v>0.9908669918749206</v>
       </c>
-      <c r="D14">
-        <v>1.013699514431958</v>
-      </c>
-      <c r="E14">
-        <v>0.9965751229547051</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.9908669918749206</v>
-      </c>
-      <c r="G14">
-        <v>1.002943705244637</v>
-      </c>
-      <c r="H14">
-        <v>0.9949148629930721</v>
       </c>
       <c r="I14">
         <v>0.9908669918749206</v>
@@ -1566,13 +1458,13 @@
         <v>1.013699514431958</v>
       </c>
       <c r="K14">
+        <v>0.9965751229547051</v>
+      </c>
+      <c r="L14">
         <v>1.002739911460916</v>
       </c>
-      <c r="L14">
-        <v>0.9965751229547051</v>
-      </c>
       <c r="M14">
-        <v>1.008907501679288</v>
+        <v>1.013699514431958</v>
       </c>
       <c r="N14">
         <v>0.9908669918749206</v>
@@ -1605,7 +1497,7 @@
         <v>1.000902841699275</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,22 +1505,22 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.002377958398027</v>
+      </c>
+      <c r="D15">
+        <v>0.9990856931637707</v>
+      </c>
+      <c r="E15">
+        <v>0.9986424677754205</v>
+      </c>
+      <c r="F15">
+        <v>1.000785853887772</v>
+      </c>
+      <c r="G15">
         <v>0.9975618342489865</v>
       </c>
-      <c r="D15">
-        <v>1.003657238162348</v>
-      </c>
-      <c r="E15">
-        <v>0.9990856931637707</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.9975618342489865</v>
-      </c>
-      <c r="G15">
-        <v>1.000785853887772</v>
-      </c>
-      <c r="H15">
-        <v>0.9986424677754205</v>
       </c>
       <c r="I15">
         <v>0.9975618342489865</v>
@@ -1637,13 +1529,13 @@
         <v>1.003657238162348</v>
       </c>
       <c r="K15">
+        <v>0.9990856931637707</v>
+      </c>
+      <c r="L15">
         <v>1.000731446857422</v>
       </c>
-      <c r="L15">
-        <v>0.9990856931637707</v>
-      </c>
       <c r="M15">
-        <v>1.002377958398027</v>
+        <v>1.003657238162348</v>
       </c>
       <c r="N15">
         <v>0.9975618342489865</v>
@@ -1676,7 +1568,7 @@
         <v>1.00024102320719</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000769273352</v>
+        <v>0.9964567574532642</v>
       </c>
       <c r="D16">
-        <v>0.9999988471821395</v>
+        <v>1.001362359466488</v>
       </c>
       <c r="E16">
-        <v>1.000000290764242</v>
+        <v>1.002022775451493</v>
       </c>
       <c r="F16">
-        <v>1.000000769273352</v>
+        <v>0.9988290507069698</v>
       </c>
       <c r="G16">
-        <v>0.9999997512126493</v>
+        <v>1.003632947440224</v>
       </c>
       <c r="H16">
-        <v>1.000000429841278</v>
+        <v>1.003632947440224</v>
       </c>
       <c r="I16">
-        <v>1.000000769273352</v>
+        <v>1.003632947440224</v>
       </c>
       <c r="J16">
-        <v>0.9999988471821395</v>
+        <v>0.9945505894903902</v>
       </c>
       <c r="K16">
-        <v>0.9999997687220961</v>
+        <v>1.001362359466488</v>
       </c>
       <c r="L16">
-        <v>1.000000290764242</v>
+        <v>0.9989101129452606</v>
       </c>
       <c r="M16">
-        <v>0.9999992487896084</v>
+        <v>0.9945505894903902</v>
       </c>
       <c r="N16">
-        <v>1.000000769273352</v>
+        <v>1.003632947440224</v>
       </c>
       <c r="O16">
-        <v>1.000000290764242</v>
+        <v>1.001362359466488</v>
       </c>
       <c r="P16">
-        <v>0.9999995689731906</v>
+        <v>0.997956474478439</v>
       </c>
       <c r="Q16">
-        <v>1.000000020988446</v>
+        <v>1.000095705086729</v>
       </c>
       <c r="R16">
-        <v>0.9999999690732445</v>
+        <v>0.9998486321323673</v>
       </c>
       <c r="S16">
-        <v>0.9999996297196768</v>
+        <v>0.9982473332212827</v>
       </c>
       <c r="T16">
-        <v>0.9999999690732445</v>
+        <v>0.9998486321323673</v>
       </c>
       <c r="U16">
-        <v>0.9999999146080957</v>
+        <v>0.9995937367760179</v>
       </c>
       <c r="V16">
-        <v>1.000000085541147</v>
+        <v>1.000401578908859</v>
       </c>
       <c r="W16">
-        <v>0.9999999245687009</v>
+        <v>0.9996408690525722</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016285906907</v>
+        <v>0.9970984149786815</v>
       </c>
       <c r="D17">
-        <v>0.9999755724252005</v>
+        <v>1.001115644986362</v>
       </c>
       <c r="E17">
-        <v>1.000006109571291</v>
+        <v>1.001656464990274</v>
       </c>
       <c r="F17">
-        <v>1.000016285906907</v>
+        <v>0.9990411017612055</v>
       </c>
       <c r="G17">
-        <v>0.9999947501442399</v>
+        <v>1.002975044572392</v>
       </c>
       <c r="H17">
-        <v>1.000009069035878</v>
+        <v>1.002975044572392</v>
       </c>
       <c r="I17">
-        <v>1.000016285906907</v>
+        <v>1.002975044572392</v>
       </c>
       <c r="J17">
-        <v>0.9999755724252005</v>
+        <v>0.995537441132596</v>
       </c>
       <c r="K17">
-        <v>0.9999951135520365</v>
+        <v>1.001115644986362</v>
       </c>
       <c r="L17">
-        <v>1.000006109571291</v>
+        <v>0.9991074847652841</v>
       </c>
       <c r="M17">
-        <v>0.9999841155573962</v>
+        <v>0.995537441132596</v>
       </c>
       <c r="N17">
-        <v>1.000016285906907</v>
+        <v>1.002975044572392</v>
       </c>
       <c r="O17">
-        <v>1.000006109571291</v>
+        <v>1.001115644986362</v>
       </c>
       <c r="P17">
-        <v>0.9999908409982456</v>
+        <v>0.998326543059479</v>
       </c>
       <c r="Q17">
-        <v>1.000000429857765</v>
+        <v>1.000078373373784</v>
       </c>
       <c r="R17">
-        <v>0.9999993226344662</v>
+        <v>0.9998760435637836</v>
       </c>
       <c r="S17">
-        <v>0.9999921440469105</v>
+        <v>0.9985647292933878</v>
       </c>
       <c r="T17">
-        <v>0.9999993226344661</v>
+        <v>0.9998760435637836</v>
       </c>
       <c r="U17">
-        <v>0.9999981795119095</v>
+        <v>0.9996673081131391</v>
       </c>
       <c r="V17">
-        <v>1.000001800790909</v>
+        <v>1.00032885540499</v>
       </c>
       <c r="W17">
-        <v>0.99999839072053</v>
+        <v>0.9997059052716448</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057337936286</v>
+        <v>0.9983846398443655</v>
       </c>
       <c r="D18">
-        <v>0.9999139986916815</v>
+        <v>1.000621099997822</v>
       </c>
       <c r="E18">
-        <v>1.000021501952415</v>
+        <v>1.000922182608805</v>
       </c>
       <c r="F18">
-        <v>1.000057337936286</v>
+        <v>0.9994661663116394</v>
       </c>
       <c r="G18">
-        <v>0.9999815162149448</v>
+        <v>1.001656254026681</v>
       </c>
       <c r="H18">
-        <v>1.00003192741872</v>
+        <v>1.001656254026681</v>
       </c>
       <c r="I18">
-        <v>1.000057337936286</v>
+        <v>1.001656254026681</v>
       </c>
       <c r="J18">
-        <v>0.9999139986916815</v>
+        <v>0.9975156192234912</v>
       </c>
       <c r="K18">
-        <v>0.9999827969982155</v>
+        <v>1.000621099997822</v>
       </c>
       <c r="L18">
-        <v>1.000021501952415</v>
+        <v>0.9995031233186622</v>
       </c>
       <c r="M18">
-        <v>0.9999440805489908</v>
+        <v>0.9975156192234912</v>
       </c>
       <c r="N18">
-        <v>1.000057337936286</v>
+        <v>1.001656254026681</v>
       </c>
       <c r="O18">
-        <v>1.000021501952415</v>
+        <v>1.000621099997822</v>
       </c>
       <c r="P18">
-        <v>0.9999677503220483</v>
+        <v>0.9990683596106564</v>
       </c>
       <c r="Q18">
-        <v>1.00000150908368</v>
+        <v>1.000043633154731</v>
       </c>
       <c r="R18">
-        <v>0.9999976128601274</v>
+        <v>0.9999309910826645</v>
       </c>
       <c r="S18">
-        <v>0.9999723389530137</v>
+        <v>0.9992009618443175</v>
       </c>
       <c r="T18">
-        <v>0.9999976128601276</v>
+        <v>0.9999309910826647</v>
       </c>
       <c r="U18">
-        <v>0.9999935886988318</v>
+        <v>0.9998147848899084</v>
       </c>
       <c r="V18">
-        <v>1.000006338546322</v>
+        <v>1.000183078717263</v>
       </c>
       <c r="W18">
-        <v>0.9999943327142086</v>
+        <v>0.999836273166161</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9981997280611948</v>
+      </c>
+      <c r="D19">
+        <v>1.000692193086517</v>
+      </c>
+      <c r="E19">
+        <v>1.001027748161077</v>
+      </c>
+      <c r="F19">
+        <v>0.9994050561136434</v>
+      </c>
+      <c r="G19">
+        <v>1.001845851303686</v>
+      </c>
+      <c r="H19">
+        <v>1.001845851303686</v>
+      </c>
+      <c r="I19">
+        <v>1.001845851303686</v>
+      </c>
+      <c r="J19">
+        <v>0.9972312293604932</v>
+      </c>
+      <c r="K19">
+        <v>1.000692193086517</v>
+      </c>
+      <c r="L19">
+        <v>0.9994462427310798</v>
+      </c>
+      <c r="M19">
+        <v>0.9972312293604932</v>
+      </c>
+      <c r="N19">
+        <v>1.001845851303686</v>
+      </c>
+      <c r="O19">
+        <v>1.000692193086517</v>
+      </c>
+      <c r="P19">
+        <v>0.9989617112235052</v>
+      </c>
+      <c r="Q19">
+        <v>1.00004862460008</v>
+      </c>
+      <c r="R19">
+        <v>0.9999230912502322</v>
+      </c>
+      <c r="S19">
+        <v>0.9991094928535512</v>
+      </c>
+      <c r="T19">
+        <v>0.9999230912502322</v>
+      </c>
+      <c r="U19">
+        <v>0.999793582466085</v>
+      </c>
+      <c r="V19">
+        <v>1.000204036233605</v>
+      </c>
+      <c r="W19">
+        <v>0.999817530238026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999992487896084</v>
+      </c>
+      <c r="D20">
+        <v>1.000000290764242</v>
+      </c>
+      <c r="E20">
+        <v>1.000000429841278</v>
+      </c>
+      <c r="F20">
+        <v>0.9999997512126493</v>
+      </c>
+      <c r="G20">
+        <v>1.000000769273352</v>
+      </c>
+      <c r="H20">
+        <v>1.000000769273352</v>
+      </c>
+      <c r="I20">
+        <v>1.000000769273352</v>
+      </c>
+      <c r="J20">
+        <v>0.9999988471821393</v>
+      </c>
+      <c r="K20">
+        <v>1.000000290764242</v>
+      </c>
+      <c r="L20">
+        <v>0.9999997687220961</v>
+      </c>
+      <c r="M20">
+        <v>0.9999988471821393</v>
+      </c>
+      <c r="N20">
+        <v>1.000000769273352</v>
+      </c>
+      <c r="O20">
+        <v>1.000000290764242</v>
+      </c>
+      <c r="P20">
+        <v>0.9999995689731905</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000020988446</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999690732443</v>
+      </c>
+      <c r="S20">
+        <v>0.9999996297196768</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999690732443</v>
+      </c>
+      <c r="U20">
+        <v>0.9999999146080956</v>
+      </c>
+      <c r="V20">
+        <v>1.000000085541147</v>
+      </c>
+      <c r="W20">
+        <v>0.999999924568701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999841155573962</v>
+      </c>
+      <c r="D21">
+        <v>1.000006109571291</v>
+      </c>
+      <c r="E21">
+        <v>1.000009069035878</v>
+      </c>
+      <c r="F21">
+        <v>0.9999947501442398</v>
+      </c>
+      <c r="G21">
+        <v>1.000016285906907</v>
+      </c>
+      <c r="H21">
+        <v>1.000016285906907</v>
+      </c>
+      <c r="I21">
+        <v>1.000016285906907</v>
+      </c>
+      <c r="J21">
+        <v>0.9999755724252004</v>
+      </c>
+      <c r="K21">
+        <v>1.000006109571291</v>
+      </c>
+      <c r="L21">
+        <v>0.9999951135520365</v>
+      </c>
+      <c r="M21">
+        <v>0.9999755724252004</v>
+      </c>
+      <c r="N21">
+        <v>1.000016285906907</v>
+      </c>
+      <c r="O21">
+        <v>1.000006109571291</v>
+      </c>
+      <c r="P21">
+        <v>0.9999908409982456</v>
+      </c>
+      <c r="Q21">
+        <v>1.000000429857765</v>
+      </c>
+      <c r="R21">
+        <v>0.9999993226344662</v>
+      </c>
+      <c r="S21">
+        <v>0.9999921440469103</v>
+      </c>
+      <c r="T21">
+        <v>0.9999993226344662</v>
+      </c>
+      <c r="U21">
+        <v>0.9999981795119096</v>
+      </c>
+      <c r="V21">
+        <v>1.000001800790909</v>
+      </c>
+      <c r="W21">
+        <v>0.9999983907205301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999440805489908</v>
+      </c>
+      <c r="D22">
+        <v>1.000021501952415</v>
+      </c>
+      <c r="E22">
+        <v>1.00003192741872</v>
+      </c>
+      <c r="F22">
+        <v>0.9999815162149448</v>
+      </c>
+      <c r="G22">
+        <v>1.000057337936286</v>
+      </c>
+      <c r="H22">
+        <v>1.000057337936286</v>
+      </c>
+      <c r="I22">
+        <v>1.000057337936286</v>
+      </c>
+      <c r="J22">
+        <v>0.9999139986916815</v>
+      </c>
+      <c r="K22">
+        <v>1.000021501952415</v>
+      </c>
+      <c r="L22">
+        <v>0.9999827969982155</v>
+      </c>
+      <c r="M22">
+        <v>0.9999139986916815</v>
+      </c>
+      <c r="N22">
+        <v>1.000057337936286</v>
+      </c>
+      <c r="O22">
+        <v>1.000021501952415</v>
+      </c>
+      <c r="P22">
+        <v>0.9999677503220483</v>
+      </c>
+      <c r="Q22">
+        <v>1.00000150908368</v>
+      </c>
+      <c r="R22">
+        <v>0.9999976128601274</v>
+      </c>
+      <c r="S22">
+        <v>0.9999723389530137</v>
+      </c>
+      <c r="T22">
+        <v>0.9999976128601276</v>
+      </c>
+      <c r="U22">
+        <v>0.9999935886988318</v>
+      </c>
+      <c r="V22">
+        <v>1.000006338546322</v>
+      </c>
+      <c r="W22">
+        <v>0.9999943327142086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9998689914530273</v>
+      </c>
+      <c r="D23">
+        <v>1.00005037065178</v>
+      </c>
+      <c r="E23">
+        <v>1.000074784843175</v>
+      </c>
+      <c r="F23">
+        <v>0.9999567049042736</v>
+      </c>
+      <c r="G23">
         <v>1.000134321740851</v>
       </c>
-      <c r="D19">
+      <c r="H23">
+        <v>1.000134321740851</v>
+      </c>
+      <c r="I23">
+        <v>1.000134321740851</v>
+      </c>
+      <c r="J23">
         <v>0.9997985254124184</v>
       </c>
-      <c r="E19">
+      <c r="K23">
         <v>1.00005037065178</v>
       </c>
-      <c r="F19">
+      <c r="L23">
+        <v>0.999959697060284</v>
+      </c>
+      <c r="M23">
+        <v>0.9997985254124184</v>
+      </c>
+      <c r="N23">
         <v>1.000134321740851</v>
       </c>
-      <c r="G19">
-        <v>0.9999567049042736</v>
-      </c>
-      <c r="H19">
-        <v>1.000074784843175</v>
-      </c>
-      <c r="I19">
-        <v>1.000134321740851</v>
-      </c>
-      <c r="J19">
-        <v>0.9997985254124184</v>
-      </c>
-      <c r="K19">
-        <v>0.999959697060284</v>
-      </c>
-      <c r="L19">
+      <c r="O23">
         <v>1.00005037065178</v>
       </c>
-      <c r="M19">
-        <v>0.9998689914530273</v>
-      </c>
-      <c r="N19">
-        <v>1.000134321740851</v>
-      </c>
-      <c r="O19">
-        <v>1.00005037065178</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999924448032099</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000003537778027</v>
       </c>
-      <c r="R19">
-        <v>0.9999944059350163</v>
-      </c>
-      <c r="S19">
+      <c r="R23">
+        <v>0.9999944059350164</v>
+      </c>
+      <c r="S23">
         <v>0.9999352003228239</v>
       </c>
-      <c r="T19">
-        <v>0.9999944059350163</v>
-      </c>
-      <c r="U19">
-        <v>0.9999849806773307</v>
-      </c>
-      <c r="V19">
+      <c r="T23">
+        <v>0.9999944059350164</v>
+      </c>
+      <c r="U23">
+        <v>0.9999849806773308</v>
+      </c>
+      <c r="V23">
         <v>1.000014848890035</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999867208396986</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BrassA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[5, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9998183764456288</v>
+        <v>0.9979725641930818</v>
       </c>
       <c r="D3">
-        <v>1.000069835274624</v>
+        <v>1.000779537838619</v>
       </c>
       <c r="E3">
-        <v>1.000103686949003</v>
+        <v>1.001157430561959</v>
       </c>
       <c r="F3">
-        <v>0.9999399776179124</v>
+        <v>0.9993299852521608</v>
       </c>
       <c r="G3">
-        <v>1.00018622104045</v>
+        <v>1.002078764481271</v>
       </c>
       <c r="H3">
-        <v>1.00018622104045</v>
+        <v>1.002078764481271</v>
       </c>
       <c r="I3">
-        <v>1.00018622104045</v>
+        <v>1.002078764481271</v>
       </c>
       <c r="J3">
-        <v>0.9997206703794828</v>
+        <v>0.9968818577017274</v>
       </c>
       <c r="K3">
-        <v>1.000069835274624</v>
+        <v>1.000779537838619</v>
       </c>
       <c r="L3">
-        <v>0.9999441329595927</v>
+        <v>0.9993763708933716</v>
       </c>
       <c r="M3">
-        <v>0.9997206703794828</v>
+        <v>0.9968818577017274</v>
       </c>
       <c r="N3">
-        <v>1.00018622104045</v>
+        <v>1.002078764481271</v>
       </c>
       <c r="O3">
-        <v>1.000069835274624</v>
+        <v>1.000779537838619</v>
       </c>
       <c r="P3">
-        <v>0.9998952528270536</v>
+        <v>0.9988306977701731</v>
       </c>
       <c r="Q3">
-        <v>1.000004906446268</v>
+        <v>1.00005476154539</v>
       </c>
       <c r="R3">
-        <v>0.9999922422315189</v>
+        <v>0.9999133866738724</v>
       </c>
       <c r="S3">
-        <v>0.9999101610906732</v>
+        <v>0.9989971269308356</v>
       </c>
       <c r="T3">
-        <v>0.9999922422315189</v>
+        <v>0.9999133866738724</v>
       </c>
       <c r="U3">
-        <v>0.9999791760781173</v>
+        <v>0.9997675363184445</v>
       </c>
       <c r="V3">
-        <v>1.000020585070584</v>
+        <v>1.00022978195101</v>
       </c>
       <c r="W3">
-        <v>0.9999815919926647</v>
+        <v>0.9997945060951012</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9996493779968117</v>
+        <v>0.9981960088520389</v>
       </c>
       <c r="D4">
-        <v>1.000134814174518</v>
+        <v>1.000693624716736</v>
       </c>
       <c r="E4">
-        <v>1.000200164915291</v>
+        <v>1.001029869414836</v>
       </c>
       <c r="F4">
-        <v>0.9998841283746424</v>
+        <v>0.9994038278717872</v>
       </c>
       <c r="G4">
-        <v>1.000359498003283</v>
+        <v>1.00184966236302</v>
       </c>
       <c r="H4">
-        <v>1.000359498003283</v>
+        <v>1.00184966236302</v>
       </c>
       <c r="I4">
-        <v>1.000359498003283</v>
+        <v>1.00184966236302</v>
       </c>
       <c r="J4">
-        <v>0.9994607565535595</v>
+        <v>0.9972255099422324</v>
       </c>
       <c r="K4">
-        <v>1.000134814174518</v>
+        <v>1.000693624716736</v>
       </c>
       <c r="L4">
-        <v>0.9998921495204363</v>
+        <v>0.9994451014368274</v>
       </c>
       <c r="M4">
-        <v>0.9994607565535595</v>
+        <v>0.9972255099422324</v>
       </c>
       <c r="N4">
-        <v>1.000359498003283</v>
+        <v>1.00184966236302</v>
       </c>
       <c r="O4">
-        <v>1.000134814174518</v>
+        <v>1.000693624716736</v>
       </c>
       <c r="P4">
-        <v>0.999797785364039</v>
+        <v>0.9989595673294842</v>
       </c>
       <c r="Q4">
-        <v>1.00000947127458</v>
+        <v>1.000048726294262</v>
       </c>
       <c r="R4">
-        <v>0.9999850229104537</v>
+        <v>0.9999229323406628</v>
       </c>
       <c r="S4">
-        <v>0.9998265663675734</v>
+        <v>0.9991076541769185</v>
       </c>
       <c r="T4">
-        <v>0.9999850229104537</v>
+        <v>0.9999229323406628</v>
       </c>
       <c r="U4">
-        <v>0.9999597992765008</v>
+        <v>0.9997931562234439</v>
       </c>
       <c r="V4">
-        <v>1.000039739021857</v>
+        <v>1.000204457451359</v>
       </c>
       <c r="W4">
-        <v>0.9999644629641324</v>
+        <v>0.9998171536642768</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9993280749996378</v>
+        <v>0.9975500876280319</v>
       </c>
       <c r="D5">
-        <v>1.000258353237742</v>
+        <v>1.000941980646898</v>
       </c>
       <c r="E5">
-        <v>1.000383586565909</v>
+        <v>1.001398615202156</v>
       </c>
       <c r="F5">
-        <v>0.9997779441156519</v>
+        <v>0.9991903674932605</v>
       </c>
       <c r="G5">
-        <v>1.000688933590425</v>
+        <v>1.002511936549864</v>
       </c>
       <c r="H5">
-        <v>1.000688933590425</v>
+        <v>1.002511936549864</v>
       </c>
       <c r="I5">
-        <v>1.000688933590425</v>
+        <v>1.002511936549864</v>
       </c>
       <c r="J5">
-        <v>0.9989666110868041</v>
+        <v>0.9962321012398925</v>
       </c>
       <c r="K5">
-        <v>1.000258353237742</v>
+        <v>1.000941980646898</v>
       </c>
       <c r="L5">
-        <v>0.9997933172878115</v>
+        <v>0.9992464184636108</v>
       </c>
       <c r="M5">
-        <v>0.9989666110868041</v>
+        <v>0.9962321012398925</v>
       </c>
       <c r="N5">
-        <v>1.000688933590425</v>
+        <v>1.002511936549864</v>
       </c>
       <c r="O5">
-        <v>1.000258353237742</v>
+        <v>1.000941980646898</v>
       </c>
       <c r="P5">
-        <v>0.9996124821622729</v>
+        <v>0.9985870409433953</v>
       </c>
       <c r="Q5">
-        <v>1.000018148676697</v>
+        <v>1.000066174070079</v>
       </c>
       <c r="R5">
-        <v>0.9999712993049904</v>
+        <v>0.9998953394788851</v>
       </c>
       <c r="S5">
-        <v>0.9996676361467326</v>
+        <v>0.9987881497933504</v>
       </c>
       <c r="T5">
-        <v>0.9999712993049904</v>
+        <v>0.9998953394788851</v>
       </c>
       <c r="U5">
-        <v>0.9999229605076557</v>
+        <v>0.9997190964824789</v>
       </c>
       <c r="V5">
-        <v>1.00007615512421</v>
+        <v>1.000277664495956</v>
       </c>
       <c r="W5">
-        <v>0.9999318967652153</v>
+        <v>0.9997516859838266</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9990145084144348</v>
+        <v>0.9971578509090901</v>
       </c>
       <c r="D6">
-        <v>1.000378920903862</v>
+        <v>1.001092791477272</v>
       </c>
       <c r="E6">
-        <v>1.000562608597629</v>
+        <v>1.001622542954546</v>
       </c>
       <c r="F6">
-        <v>0.9996743213466616</v>
+        <v>0.9990607464772734</v>
       </c>
       <c r="G6">
-        <v>1.001010443725961</v>
+        <v>1.00291410840909</v>
       </c>
       <c r="H6">
-        <v>1.001010443725961</v>
+        <v>1.00291410840909</v>
       </c>
       <c r="I6">
-        <v>1.001010443725961</v>
+        <v>1.00291410840909</v>
       </c>
       <c r="J6">
-        <v>0.9984843420347594</v>
+        <v>0.9956288475568187</v>
       </c>
       <c r="K6">
-        <v>1.000378920903862</v>
+        <v>1.001092791477272</v>
       </c>
       <c r="L6">
-        <v>0.9996968649303112</v>
+        <v>0.9991257635795441</v>
       </c>
       <c r="M6">
-        <v>0.9984843420347594</v>
+        <v>0.9956288475568187</v>
       </c>
       <c r="N6">
-        <v>1.001010443725961</v>
+        <v>1.00291410840909</v>
       </c>
       <c r="O6">
-        <v>1.000378920903862</v>
+        <v>1.001092791477272</v>
       </c>
       <c r="P6">
-        <v>0.9994316314693108</v>
+        <v>0.9983608195170451</v>
       </c>
       <c r="Q6">
-        <v>1.000026621125262</v>
+        <v>1.000076768977272</v>
       </c>
       <c r="R6">
-        <v>0.9999579022215274</v>
+        <v>0.9998785824810602</v>
       </c>
       <c r="S6">
-        <v>0.9995125280950944</v>
+        <v>0.9985941285037878</v>
       </c>
       <c r="T6">
-        <v>0.9999579022215274</v>
+        <v>0.9998785824810602</v>
       </c>
       <c r="U6">
-        <v>0.9998870070028109</v>
+        <v>0.9996741234801135</v>
       </c>
       <c r="V6">
-        <v>1.000111694347441</v>
+        <v>1.000322120465909</v>
       </c>
       <c r="W6">
-        <v>0.9999001163571851</v>
+        <v>0.9997119303551132</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999860852673446</v>
+        <v>0.9888219325662861</v>
       </c>
       <c r="D7">
-        <v>1.000005351909787</v>
+        <v>1.004297896260105</v>
       </c>
       <c r="E7">
-        <v>1.000007944634106</v>
+        <v>1.006381375507444</v>
       </c>
       <c r="F7">
-        <v>0.9999954010083598</v>
+        <v>0.9963059403611176</v>
       </c>
       <c r="G7">
-        <v>1.000014265945412</v>
+        <v>1.01146106270455</v>
       </c>
       <c r="H7">
-        <v>1.000014265945412</v>
+        <v>1.01146106270455</v>
       </c>
       <c r="I7">
-        <v>1.000014265945412</v>
+        <v>1.01146106270455</v>
       </c>
       <c r="J7">
-        <v>0.9999786021814195</v>
+        <v>0.9828084139113812</v>
       </c>
       <c r="K7">
-        <v>1.000005351909787</v>
+        <v>1.004297896260105</v>
       </c>
       <c r="L7">
-        <v>0.9999957197616611</v>
+        <v>0.9965616823715466</v>
       </c>
       <c r="M7">
-        <v>0.9999786021814195</v>
+        <v>0.9828084139113812</v>
       </c>
       <c r="N7">
-        <v>1.000014265945412</v>
+        <v>1.01146106270455</v>
       </c>
       <c r="O7">
-        <v>1.000005351909787</v>
+        <v>1.004297896260105</v>
       </c>
       <c r="P7">
-        <v>0.9999919770456034</v>
+        <v>0.993553155085743</v>
       </c>
       <c r="Q7">
-        <v>1.000000376459073</v>
+        <v>1.000301918310611</v>
       </c>
       <c r="R7">
-        <v>0.999999406678873</v>
+        <v>0.9995224576253454</v>
       </c>
       <c r="S7">
-        <v>0.9999931183665222</v>
+        <v>0.9944707501775346</v>
       </c>
       <c r="T7">
-        <v>0.999999406678873</v>
+        <v>0.9995224576253454</v>
       </c>
       <c r="U7">
-        <v>0.9999984052612447</v>
+        <v>0.9987183283092884</v>
       </c>
       <c r="V7">
-        <v>1.000001577398078</v>
+        <v>1.001266875188341</v>
       </c>
       <c r="W7">
-        <v>0.9999985903272347</v>
+        <v>0.9988670249928169</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999596784514081</v>
+        <v>0.9888219340638643</v>
       </c>
       <c r="D8">
-        <v>1.00001550506394</v>
+        <v>1.004297895656907</v>
       </c>
       <c r="E8">
-        <v>1.000023019982162</v>
+        <v>1.00638137480451</v>
       </c>
       <c r="F8">
-        <v>0.9999866742014225</v>
+        <v>0.9963059408538191</v>
       </c>
       <c r="G8">
-        <v>1.00004134161171</v>
+        <v>1.011461061223646</v>
       </c>
       <c r="H8">
-        <v>1.00004134161171</v>
+        <v>1.011461061223646</v>
       </c>
       <c r="I8">
-        <v>1.00004134161171</v>
+        <v>1.011461061223646</v>
       </c>
       <c r="J8">
-        <v>0.9999379887479776</v>
+        <v>0.9828084162066943</v>
       </c>
       <c r="K8">
-        <v>1.00001550506394</v>
+        <v>1.004297895656907</v>
       </c>
       <c r="L8">
-        <v>0.9999875969549745</v>
+        <v>0.9965616828357537</v>
       </c>
       <c r="M8">
-        <v>0.9999379887479776</v>
+        <v>0.9828084162066943</v>
       </c>
       <c r="N8">
-        <v>1.00004134161171</v>
+        <v>1.011461061223646</v>
       </c>
       <c r="O8">
-        <v>1.00001550506394</v>
+        <v>1.004297895656907</v>
       </c>
       <c r="P8">
-        <v>0.9999767469059587</v>
+        <v>0.9935531559318007</v>
       </c>
       <c r="Q8">
-        <v>1.000001089632681</v>
+        <v>1.000301918255363</v>
       </c>
       <c r="R8">
-        <v>0.9999982784745426</v>
+        <v>0.9995224576957492</v>
       </c>
       <c r="S8">
-        <v>0.9999800560044466</v>
+        <v>0.9944707509058069</v>
       </c>
       <c r="T8">
-        <v>0.9999982784745426</v>
+        <v>0.9995224576957492</v>
       </c>
       <c r="U8">
-        <v>0.9999953774062625</v>
+        <v>0.9987183284852668</v>
       </c>
       <c r="V8">
-        <v>1.000004570247352</v>
+        <v>1.001266875032943</v>
       </c>
       <c r="W8">
-        <v>0.9999959137596919</v>
+        <v>0.9988670251627628</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999443624628505</v>
+        <v>0.9888219347076923</v>
       </c>
       <c r="D9">
-        <v>1.000021393674654</v>
+        <v>1.004297895441807</v>
       </c>
       <c r="E9">
-        <v>1.00003176330892</v>
+        <v>1.006381374579714</v>
       </c>
       <c r="F9">
-        <v>0.9999816128061668</v>
+        <v>0.9963059410650371</v>
       </c>
       <c r="G9">
-        <v>1.00005704510713</v>
+        <v>1.011461060701319</v>
       </c>
       <c r="H9">
-        <v>1.00005704510713</v>
+        <v>1.011461060701319</v>
       </c>
       <c r="I9">
-        <v>1.00005704510713</v>
+        <v>1.011461060701319</v>
       </c>
       <c r="J9">
-        <v>0.9999144335559406</v>
+        <v>0.9828084172018826</v>
       </c>
       <c r="K9">
-        <v>1.000021393674654</v>
+        <v>1.004297895441807</v>
       </c>
       <c r="L9">
-        <v>0.9999828858321052</v>
+        <v>0.9965616830327452</v>
       </c>
       <c r="M9">
-        <v>0.9999144335559406</v>
+        <v>0.9828084172018826</v>
       </c>
       <c r="N9">
-        <v>1.00005704510713</v>
+        <v>1.011461060701319</v>
       </c>
       <c r="O9">
-        <v>1.000021393674654</v>
+        <v>1.004297895441807</v>
       </c>
       <c r="P9">
-        <v>0.9999679136152975</v>
+        <v>0.9935531563218447</v>
       </c>
       <c r="Q9">
-        <v>1.000001503240411</v>
+        <v>1.000301918253422</v>
       </c>
       <c r="R9">
-        <v>0.9999976241125751</v>
+        <v>0.9995224577816693</v>
       </c>
       <c r="S9">
-        <v>0.9999724800122539</v>
+        <v>0.9944707512362422</v>
       </c>
       <c r="T9">
-        <v>0.9999976241125751</v>
+        <v>0.9995224577816693</v>
       </c>
       <c r="U9">
-        <v>0.999993621285973</v>
+        <v>0.9987183286025112</v>
       </c>
       <c r="V9">
-        <v>1.000006306050204</v>
+        <v>1.001266875022273</v>
       </c>
       <c r="W9">
-        <v>0.9999943613028027</v>
+        <v>0.9988670252715004</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9998797486270298</v>
+        <v>0.9888219420569282</v>
       </c>
       <c r="D10">
-        <v>1.000046236957362</v>
+        <v>1.004297892536457</v>
       </c>
       <c r="E10">
-        <v>1.0000686506547</v>
+        <v>1.006381370958025</v>
       </c>
       <c r="F10">
-        <v>0.9999602587619641</v>
+        <v>0.9963059435142435</v>
       </c>
       <c r="G10">
-        <v>1.000123294818351</v>
+        <v>1.011461053231532</v>
       </c>
       <c r="H10">
-        <v>1.000123294818351</v>
+        <v>1.011461053231532</v>
       </c>
       <c r="I10">
-        <v>1.000123294818351</v>
+        <v>1.011461053231532</v>
       </c>
       <c r="J10">
-        <v>0.9998150587437212</v>
+        <v>0.9828084284596551</v>
       </c>
       <c r="K10">
-        <v>1.000046236957362</v>
+        <v>1.004297892536457</v>
       </c>
       <c r="L10">
-        <v>0.9999630100193616</v>
+        <v>0.9965616852657726</v>
       </c>
       <c r="M10">
-        <v>0.9998150587437212</v>
+        <v>0.9828084284596551</v>
       </c>
       <c r="N10">
-        <v>1.000123294818351</v>
+        <v>1.011461053231532</v>
       </c>
       <c r="O10">
-        <v>1.000046236957362</v>
+        <v>1.004297892536457</v>
       </c>
       <c r="P10">
-        <v>0.9999306478505416</v>
+        <v>0.9935531604980559</v>
       </c>
       <c r="Q10">
-        <v>1.000003247859663</v>
+        <v>1.00030191802535</v>
       </c>
       <c r="R10">
-        <v>0.9999948635064783</v>
+        <v>0.9995224580758814</v>
       </c>
       <c r="S10">
-        <v>0.9999405181543491</v>
+        <v>0.9944707548367852</v>
       </c>
       <c r="T10">
-        <v>0.999994863506478</v>
+        <v>0.9995224580758814</v>
       </c>
       <c r="U10">
-        <v>0.9999862123203496</v>
+        <v>0.9987183294354719</v>
       </c>
       <c r="V10">
-        <v>1.00001362881995</v>
+        <v>1.001266874194684</v>
       </c>
       <c r="W10">
-        <v>0.9999878119424814</v>
+        <v>0.9988670260698838</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9997986236941824</v>
+        <v>0.9997617785796874</v>
       </c>
       <c r="D11">
-        <v>1.000077427925099</v>
+        <v>1.000091596767163</v>
       </c>
       <c r="E11">
-        <v>1.000114963345125</v>
+        <v>1.000135996936881</v>
       </c>
       <c r="F11">
-        <v>0.9999334497574484</v>
+        <v>0.9999212728810909</v>
       </c>
       <c r="G11">
-        <v>1.000206471215795</v>
+        <v>1.000244251350679</v>
       </c>
       <c r="H11">
-        <v>1.000206471215795</v>
+        <v>1.000244251350679</v>
       </c>
       <c r="I11">
-        <v>1.000206471215795</v>
+        <v>1.000244251350679</v>
       </c>
       <c r="J11">
-        <v>0.9996902920547757</v>
+        <v>0.9996336241031709</v>
       </c>
       <c r="K11">
-        <v>1.000077427925099</v>
+        <v>1.000091596767163</v>
       </c>
       <c r="L11">
-        <v>0.9999380566850902</v>
+        <v>0.9999267240127453</v>
       </c>
       <c r="M11">
-        <v>0.9996902920547757</v>
+        <v>0.9996336241031709</v>
       </c>
       <c r="N11">
-        <v>1.000206471215795</v>
+        <v>1.000244251350679</v>
       </c>
       <c r="O11">
-        <v>1.000077427925099</v>
+        <v>1.000091596767163</v>
       </c>
       <c r="P11">
-        <v>0.9998838599899371</v>
+        <v>0.9998626104351668</v>
       </c>
       <c r="Q11">
-        <v>1.000005438841273</v>
+        <v>1.000006434824127</v>
       </c>
       <c r="R11">
-        <v>0.999991397065223</v>
+        <v>0.9999898240736708</v>
       </c>
       <c r="S11">
-        <v>0.9999003899124409</v>
+        <v>0.9998821645838082</v>
       </c>
       <c r="T11">
-        <v>0.999991397065223</v>
+        <v>0.9999898240736708</v>
       </c>
       <c r="U11">
-        <v>0.9999769102382794</v>
+        <v>0.9999726862755258</v>
       </c>
       <c r="V11">
-        <v>1.000022822433782</v>
+        <v>1.000026999290556</v>
       </c>
       <c r="W11">
-        <v>0.9999795890753266</v>
+        <v>0.9999758551748225</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.002847092345366</v>
+        <v>0.9998552135757928</v>
       </c>
       <c r="D12">
-        <v>0.9989053112400395</v>
+        <v>1.000055671434679</v>
       </c>
       <c r="E12">
-        <v>0.9983746458611054</v>
+        <v>1.000082657095251</v>
       </c>
       <c r="F12">
-        <v>1.000940888441988</v>
+        <v>0.9999521513222843</v>
       </c>
       <c r="G12">
-        <v>0.9970808306423465</v>
+        <v>1.000148451111055</v>
       </c>
       <c r="H12">
-        <v>0.9970808306423465</v>
+        <v>1.000148451111055</v>
       </c>
       <c r="I12">
-        <v>0.9970808306423465</v>
+        <v>1.000148451111055</v>
       </c>
       <c r="J12">
-        <v>1.004378756962693</v>
+        <v>0.9997773248004916</v>
       </c>
       <c r="K12">
-        <v>0.9989053112400395</v>
+        <v>1.000055671434679</v>
       </c>
       <c r="L12">
-        <v>1.000875756168799</v>
+        <v>0.9999554641934418</v>
       </c>
       <c r="M12">
-        <v>1.004378756962693</v>
+        <v>0.9997773248004916</v>
       </c>
       <c r="N12">
-        <v>0.9970808306423465</v>
+        <v>1.000148451111055</v>
       </c>
       <c r="O12">
-        <v>0.9989053112400395</v>
+        <v>1.000055671434679</v>
       </c>
       <c r="P12">
-        <v>1.001642034101367</v>
+        <v>0.9999164981175852</v>
       </c>
       <c r="Q12">
-        <v>0.9999230998410136</v>
+        <v>1.000003911378482</v>
       </c>
       <c r="R12">
-        <v>1.00012163294836</v>
+        <v>0.9999938157820752</v>
       </c>
       <c r="S12">
-        <v>1.001408318881573</v>
+        <v>0.9999283825191516</v>
       </c>
       <c r="T12">
-        <v>1.00012163294836</v>
+        <v>0.9999938157820752</v>
       </c>
       <c r="U12">
-        <v>1.000326446821767</v>
+        <v>0.9999833996671276</v>
       </c>
       <c r="V12">
-        <v>0.9996773235858827</v>
+        <v>1.000016409955913</v>
       </c>
       <c r="W12">
-        <v>1.000288574112797</v>
+        <v>0.9999853256209592</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000738264898229</v>
+        <v>0.9995164023092939</v>
       </c>
       <c r="D13">
-        <v>0.9997161448516948</v>
+        <v>1.00018594196147</v>
       </c>
       <c r="E13">
-        <v>0.9995785398723016</v>
+        <v>1.000276078480194</v>
       </c>
       <c r="F13">
-        <v>1.00024397552549</v>
+        <v>0.9998401834882046</v>
       </c>
       <c r="G13">
-        <v>0.9992430463620008</v>
+        <v>1.000495839602859</v>
       </c>
       <c r="H13">
-        <v>0.9992430463620008</v>
+        <v>1.000495839602859</v>
       </c>
       <c r="I13">
-        <v>0.9992430463620008</v>
+        <v>1.000495839602859</v>
       </c>
       <c r="J13">
-        <v>1.001135432739273</v>
+        <v>0.9992562420378465</v>
       </c>
       <c r="K13">
-        <v>0.9997161448516948</v>
+        <v>1.00018594196147</v>
       </c>
       <c r="L13">
-        <v>1.000227084232532</v>
+        <v>0.9998512463031861</v>
       </c>
       <c r="M13">
-        <v>1.001135432739273</v>
+        <v>0.9992562420378465</v>
       </c>
       <c r="N13">
-        <v>0.9992430463620008</v>
+        <v>1.000495839602859</v>
       </c>
       <c r="O13">
-        <v>0.9997161448516948</v>
+        <v>1.00018594196147</v>
       </c>
       <c r="P13">
-        <v>1.000425788795484</v>
+        <v>0.9997210919996584</v>
       </c>
       <c r="Q13">
-        <v>0.9999800601885922</v>
+        <v>1.000013062724837</v>
       </c>
       <c r="R13">
-        <v>1.000031541317656</v>
+        <v>0.9999793412007255</v>
       </c>
       <c r="S13">
-        <v>1.000365184372152</v>
+        <v>0.9997607891625071</v>
       </c>
       <c r="T13">
-        <v>1.000031541317656</v>
+        <v>0.9999793412007253</v>
       </c>
       <c r="U13">
-        <v>1.000084649869615</v>
+        <v>0.9999445517725951</v>
       </c>
       <c r="V13">
-        <v>0.9999163291680919</v>
+        <v>1.000054809338648</v>
       </c>
       <c r="W13">
-        <v>1.000074829166652</v>
+        <v>0.9999509845180655</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.008907501679288</v>
+        <v>0.9994910347607212</v>
       </c>
       <c r="D14">
-        <v>0.9965751229547051</v>
+        <v>1.000195698705277</v>
       </c>
       <c r="E14">
-        <v>0.9949148629930721</v>
+        <v>1.000290558250049</v>
       </c>
       <c r="F14">
-        <v>1.002943705244637</v>
+        <v>0.9998318000790457</v>
       </c>
       <c r="G14">
-        <v>0.9908669918749206</v>
+        <v>1.000521842492482</v>
       </c>
       <c r="H14">
-        <v>0.9908669918749206</v>
+        <v>1.000521842492482</v>
       </c>
       <c r="I14">
-        <v>0.9908669918749206</v>
+        <v>1.000521842492482</v>
       </c>
       <c r="J14">
-        <v>1.013699514431958</v>
+        <v>0.9992172361452738</v>
       </c>
       <c r="K14">
-        <v>0.9965751229547051</v>
+        <v>1.000195698705277</v>
       </c>
       <c r="L14">
-        <v>1.002739911460916</v>
+        <v>0.9998434424353588</v>
       </c>
       <c r="M14">
-        <v>1.013699514431958</v>
+        <v>0.9992172361452738</v>
       </c>
       <c r="N14">
-        <v>0.9908669918749206</v>
+        <v>1.000521842492482</v>
       </c>
       <c r="O14">
-        <v>0.9965751229547051</v>
+        <v>1.000195698705277</v>
       </c>
       <c r="P14">
-        <v>1.005137318693332</v>
+        <v>0.9997064674252756</v>
       </c>
       <c r="Q14">
-        <v>0.999759414099671</v>
+        <v>1.000013749392161</v>
       </c>
       <c r="R14">
-        <v>1.000380543087195</v>
+        <v>0.9999782591143443</v>
       </c>
       <c r="S14">
-        <v>1.004406114210433</v>
+        <v>0.9997482449765323</v>
       </c>
       <c r="T14">
-        <v>1.000380543087195</v>
+        <v>0.9999782591143443</v>
       </c>
       <c r="U14">
-        <v>1.001021333626555</v>
+        <v>0.9999416443555197</v>
       </c>
       <c r="V14">
-        <v>0.9989904652762283</v>
+        <v>1.000057683982912</v>
       </c>
       <c r="W14">
-        <v>1.000902841699275</v>
+        <v>0.9999484139466858</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002377958398027</v>
+        <v>0.9998183764456288</v>
       </c>
       <c r="D15">
-        <v>0.9990856931637707</v>
+        <v>1.000069835274624</v>
       </c>
       <c r="E15">
-        <v>0.9986424677754205</v>
+        <v>1.000103686949003</v>
       </c>
       <c r="F15">
-        <v>1.000785853887772</v>
+        <v>0.9999399776179124</v>
       </c>
       <c r="G15">
-        <v>0.9975618342489865</v>
+        <v>1.00018622104045</v>
       </c>
       <c r="H15">
-        <v>0.9975618342489865</v>
+        <v>1.00018622104045</v>
       </c>
       <c r="I15">
-        <v>0.9975618342489865</v>
+        <v>1.00018622104045</v>
       </c>
       <c r="J15">
-        <v>1.003657238162348</v>
+        <v>0.9997206703794828</v>
       </c>
       <c r="K15">
-        <v>0.9990856931637707</v>
+        <v>1.000069835274624</v>
       </c>
       <c r="L15">
-        <v>1.000731446857422</v>
+        <v>0.9999441329595927</v>
       </c>
       <c r="M15">
-        <v>1.003657238162348</v>
+        <v>0.9997206703794828</v>
       </c>
       <c r="N15">
-        <v>0.9975618342489865</v>
+        <v>1.00018622104045</v>
       </c>
       <c r="O15">
-        <v>0.9990856931637707</v>
+        <v>1.000069835274624</v>
       </c>
       <c r="P15">
-        <v>1.001371465663059</v>
+        <v>0.9998952528270536</v>
       </c>
       <c r="Q15">
-        <v>0.9999357735257715</v>
+        <v>1.000004906446268</v>
       </c>
       <c r="R15">
-        <v>1.000101588525035</v>
+        <v>0.9999922422315189</v>
       </c>
       <c r="S15">
-        <v>1.001176261737964</v>
+        <v>0.9999101610906732</v>
       </c>
       <c r="T15">
-        <v>1.000101588525035</v>
+        <v>0.9999922422315189</v>
       </c>
       <c r="U15">
-        <v>1.000272654865719</v>
+        <v>0.9999791760781173</v>
       </c>
       <c r="V15">
-        <v>0.9997304907423727</v>
+        <v>1.000020585070584</v>
       </c>
       <c r="W15">
-        <v>1.00024102320719</v>
+        <v>0.9999815919926647</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9964567574532642</v>
+        <v>0.9996493779968117</v>
       </c>
       <c r="D16">
-        <v>1.001362359466488</v>
+        <v>1.000134814174518</v>
       </c>
       <c r="E16">
-        <v>1.002022775451493</v>
+        <v>1.000200164915291</v>
       </c>
       <c r="F16">
-        <v>0.9988290507069698</v>
+        <v>0.9998841283746424</v>
       </c>
       <c r="G16">
-        <v>1.003632947440224</v>
+        <v>1.000359498003283</v>
       </c>
       <c r="H16">
-        <v>1.003632947440224</v>
+        <v>1.000359498003283</v>
       </c>
       <c r="I16">
-        <v>1.003632947440224</v>
+        <v>1.000359498003283</v>
       </c>
       <c r="J16">
-        <v>0.9945505894903902</v>
+        <v>0.9994607565535595</v>
       </c>
       <c r="K16">
-        <v>1.001362359466488</v>
+        <v>1.000134814174518</v>
       </c>
       <c r="L16">
-        <v>0.9989101129452606</v>
+        <v>0.9998921495204363</v>
       </c>
       <c r="M16">
-        <v>0.9945505894903902</v>
+        <v>0.9994607565535595</v>
       </c>
       <c r="N16">
-        <v>1.003632947440224</v>
+        <v>1.000359498003283</v>
       </c>
       <c r="O16">
-        <v>1.001362359466488</v>
+        <v>1.000134814174518</v>
       </c>
       <c r="P16">
-        <v>0.997956474478439</v>
+        <v>0.999797785364039</v>
       </c>
       <c r="Q16">
-        <v>1.000095705086729</v>
+        <v>1.00000947127458</v>
       </c>
       <c r="R16">
-        <v>0.9998486321323673</v>
+        <v>0.9999850229104537</v>
       </c>
       <c r="S16">
-        <v>0.9982473332212827</v>
+        <v>0.9998265663675734</v>
       </c>
       <c r="T16">
-        <v>0.9998486321323673</v>
+        <v>0.9999850229104537</v>
       </c>
       <c r="U16">
-        <v>0.9995937367760179</v>
+        <v>0.9999597992765008</v>
       </c>
       <c r="V16">
-        <v>1.000401578908859</v>
+        <v>1.000039739021857</v>
       </c>
       <c r="W16">
-        <v>0.9996408690525722</v>
+        <v>0.9999644629641324</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9970984149786815</v>
+        <v>0.9993280749996378</v>
       </c>
       <c r="D17">
-        <v>1.001115644986362</v>
+        <v>1.000258353237742</v>
       </c>
       <c r="E17">
-        <v>1.001656464990274</v>
+        <v>1.000383586565909</v>
       </c>
       <c r="F17">
-        <v>0.9990411017612055</v>
+        <v>0.9997779441156519</v>
       </c>
       <c r="G17">
-        <v>1.002975044572392</v>
+        <v>1.000688933590425</v>
       </c>
       <c r="H17">
-        <v>1.002975044572392</v>
+        <v>1.000688933590425</v>
       </c>
       <c r="I17">
-        <v>1.002975044572392</v>
+        <v>1.000688933590425</v>
       </c>
       <c r="J17">
-        <v>0.995537441132596</v>
+        <v>0.9989666110868041</v>
       </c>
       <c r="K17">
-        <v>1.001115644986362</v>
+        <v>1.000258353237742</v>
       </c>
       <c r="L17">
-        <v>0.9991074847652841</v>
+        <v>0.9997933172878115</v>
       </c>
       <c r="M17">
-        <v>0.995537441132596</v>
+        <v>0.9989666110868041</v>
       </c>
       <c r="N17">
-        <v>1.002975044572392</v>
+        <v>1.000688933590425</v>
       </c>
       <c r="O17">
-        <v>1.001115644986362</v>
+        <v>1.000258353237742</v>
       </c>
       <c r="P17">
-        <v>0.998326543059479</v>
+        <v>0.9996124821622729</v>
       </c>
       <c r="Q17">
-        <v>1.000078373373784</v>
+        <v>1.000018148676697</v>
       </c>
       <c r="R17">
-        <v>0.9998760435637836</v>
+        <v>0.9999712993049904</v>
       </c>
       <c r="S17">
-        <v>0.9985647292933878</v>
+        <v>0.9996676361467326</v>
       </c>
       <c r="T17">
-        <v>0.9998760435637836</v>
+        <v>0.9999712993049904</v>
       </c>
       <c r="U17">
-        <v>0.9996673081131391</v>
+        <v>0.9999229605076557</v>
       </c>
       <c r="V17">
-        <v>1.00032885540499</v>
+        <v>1.00007615512421</v>
       </c>
       <c r="W17">
-        <v>0.9997059052716448</v>
+        <v>0.9999318967652153</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9983846398443655</v>
+        <v>0.9990145084144348</v>
       </c>
       <c r="D18">
-        <v>1.000621099997822</v>
+        <v>1.000378920903862</v>
       </c>
       <c r="E18">
-        <v>1.000922182608805</v>
+        <v>1.000562608597629</v>
       </c>
       <c r="F18">
-        <v>0.9994661663116394</v>
+        <v>0.9996743213466616</v>
       </c>
       <c r="G18">
-        <v>1.001656254026681</v>
+        <v>1.001010443725961</v>
       </c>
       <c r="H18">
-        <v>1.001656254026681</v>
+        <v>1.001010443725961</v>
       </c>
       <c r="I18">
-        <v>1.001656254026681</v>
+        <v>1.001010443725961</v>
       </c>
       <c r="J18">
-        <v>0.9975156192234912</v>
+        <v>0.9984843420347594</v>
       </c>
       <c r="K18">
-        <v>1.000621099997822</v>
+        <v>1.000378920903862</v>
       </c>
       <c r="L18">
-        <v>0.9995031233186622</v>
+        <v>0.9996968649303112</v>
       </c>
       <c r="M18">
-        <v>0.9975156192234912</v>
+        <v>0.9984843420347594</v>
       </c>
       <c r="N18">
-        <v>1.001656254026681</v>
+        <v>1.001010443725961</v>
       </c>
       <c r="O18">
-        <v>1.000621099997822</v>
+        <v>1.000378920903862</v>
       </c>
       <c r="P18">
-        <v>0.9990683596106564</v>
+        <v>0.9994316314693108</v>
       </c>
       <c r="Q18">
-        <v>1.000043633154731</v>
+        <v>1.000026621125262</v>
       </c>
       <c r="R18">
-        <v>0.9999309910826645</v>
+        <v>0.9999579022215274</v>
       </c>
       <c r="S18">
-        <v>0.9992009618443175</v>
+        <v>0.9995125280950944</v>
       </c>
       <c r="T18">
-        <v>0.9999309910826647</v>
+        <v>0.9999579022215274</v>
       </c>
       <c r="U18">
-        <v>0.9998147848899084</v>
+        <v>0.9998870070028109</v>
       </c>
       <c r="V18">
-        <v>1.000183078717263</v>
+        <v>1.000111694347441</v>
       </c>
       <c r="W18">
-        <v>0.999836273166161</v>
+        <v>0.9999001163571851</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9981997280611948</v>
+        <v>0.9999860852673446</v>
       </c>
       <c r="D19">
-        <v>1.000692193086517</v>
+        <v>1.000005351909787</v>
       </c>
       <c r="E19">
-        <v>1.001027748161077</v>
+        <v>1.000007944634106</v>
       </c>
       <c r="F19">
-        <v>0.9994050561136434</v>
+        <v>0.9999954010083598</v>
       </c>
       <c r="G19">
-        <v>1.001845851303686</v>
+        <v>1.000014265945412</v>
       </c>
       <c r="H19">
-        <v>1.001845851303686</v>
+        <v>1.000014265945412</v>
       </c>
       <c r="I19">
-        <v>1.001845851303686</v>
+        <v>1.000014265945412</v>
       </c>
       <c r="J19">
-        <v>0.9972312293604932</v>
+        <v>0.9999786021814195</v>
       </c>
       <c r="K19">
-        <v>1.000692193086517</v>
+        <v>1.000005351909787</v>
       </c>
       <c r="L19">
-        <v>0.9994462427310798</v>
+        <v>0.9999957197616611</v>
       </c>
       <c r="M19">
-        <v>0.9972312293604932</v>
+        <v>0.9999786021814195</v>
       </c>
       <c r="N19">
-        <v>1.001845851303686</v>
+        <v>1.000014265945412</v>
       </c>
       <c r="O19">
-        <v>1.000692193086517</v>
+        <v>1.000005351909787</v>
       </c>
       <c r="P19">
-        <v>0.9989617112235052</v>
+        <v>0.9999919770456034</v>
       </c>
       <c r="Q19">
-        <v>1.00004862460008</v>
+        <v>1.000000376459073</v>
       </c>
       <c r="R19">
-        <v>0.9999230912502322</v>
+        <v>0.999999406678873</v>
       </c>
       <c r="S19">
-        <v>0.9991094928535512</v>
+        <v>0.9999931183665222</v>
       </c>
       <c r="T19">
-        <v>0.9999230912502322</v>
+        <v>0.999999406678873</v>
       </c>
       <c r="U19">
-        <v>0.999793582466085</v>
+        <v>0.9999984052612447</v>
       </c>
       <c r="V19">
-        <v>1.000204036233605</v>
+        <v>1.000001577398078</v>
       </c>
       <c r="W19">
-        <v>0.999817530238026</v>
+        <v>0.9999985903272347</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999992487896084</v>
+        <v>0.9999596784514081</v>
       </c>
       <c r="D20">
-        <v>1.000000290764242</v>
+        <v>1.00001550506394</v>
       </c>
       <c r="E20">
-        <v>1.000000429841278</v>
+        <v>1.000023019982162</v>
       </c>
       <c r="F20">
-        <v>0.9999997512126493</v>
+        <v>0.9999866742014225</v>
       </c>
       <c r="G20">
-        <v>1.000000769273352</v>
+        <v>1.00004134161171</v>
       </c>
       <c r="H20">
-        <v>1.000000769273352</v>
+        <v>1.00004134161171</v>
       </c>
       <c r="I20">
-        <v>1.000000769273352</v>
+        <v>1.00004134161171</v>
       </c>
       <c r="J20">
-        <v>0.9999988471821393</v>
+        <v>0.9999379887479776</v>
       </c>
       <c r="K20">
-        <v>1.000000290764242</v>
+        <v>1.00001550506394</v>
       </c>
       <c r="L20">
-        <v>0.9999997687220961</v>
+        <v>0.9999875969549745</v>
       </c>
       <c r="M20">
-        <v>0.9999988471821393</v>
+        <v>0.9999379887479776</v>
       </c>
       <c r="N20">
-        <v>1.000000769273352</v>
+        <v>1.00004134161171</v>
       </c>
       <c r="O20">
-        <v>1.000000290764242</v>
+        <v>1.00001550506394</v>
       </c>
       <c r="P20">
-        <v>0.9999995689731905</v>
+        <v>0.9999767469059587</v>
       </c>
       <c r="Q20">
-        <v>1.000000020988446</v>
+        <v>1.000001089632681</v>
       </c>
       <c r="R20">
-        <v>0.9999999690732443</v>
+        <v>0.9999982784745426</v>
       </c>
       <c r="S20">
-        <v>0.9999996297196768</v>
+        <v>0.9999800560044466</v>
       </c>
       <c r="T20">
-        <v>0.9999999690732443</v>
+        <v>0.9999982784745426</v>
       </c>
       <c r="U20">
-        <v>0.9999999146080956</v>
+        <v>0.9999953774062625</v>
       </c>
       <c r="V20">
-        <v>1.000000085541147</v>
+        <v>1.000004570247352</v>
       </c>
       <c r="W20">
-        <v>0.999999924568701</v>
+        <v>0.9999959137596919</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999841155573962</v>
+        <v>0.9999443624628505</v>
       </c>
       <c r="D21">
-        <v>1.000006109571291</v>
+        <v>1.000021393674654</v>
       </c>
       <c r="E21">
-        <v>1.000009069035878</v>
+        <v>1.00003176330892</v>
       </c>
       <c r="F21">
-        <v>0.9999947501442398</v>
+        <v>0.9999816128061668</v>
       </c>
       <c r="G21">
-        <v>1.000016285906907</v>
+        <v>1.00005704510713</v>
       </c>
       <c r="H21">
-        <v>1.000016285906907</v>
+        <v>1.00005704510713</v>
       </c>
       <c r="I21">
-        <v>1.000016285906907</v>
+        <v>1.00005704510713</v>
       </c>
       <c r="J21">
-        <v>0.9999755724252004</v>
+        <v>0.9999144335559406</v>
       </c>
       <c r="K21">
-        <v>1.000006109571291</v>
+        <v>1.000021393674654</v>
       </c>
       <c r="L21">
-        <v>0.9999951135520365</v>
+        <v>0.9999828858321052</v>
       </c>
       <c r="M21">
-        <v>0.9999755724252004</v>
+        <v>0.9999144335559406</v>
       </c>
       <c r="N21">
-        <v>1.000016285906907</v>
+        <v>1.00005704510713</v>
       </c>
       <c r="O21">
-        <v>1.000006109571291</v>
+        <v>1.000021393674654</v>
       </c>
       <c r="P21">
-        <v>0.9999908409982456</v>
+        <v>0.9999679136152975</v>
       </c>
       <c r="Q21">
-        <v>1.000000429857765</v>
+        <v>1.000001503240411</v>
       </c>
       <c r="R21">
-        <v>0.9999993226344662</v>
+        <v>0.9999976241125751</v>
       </c>
       <c r="S21">
-        <v>0.9999921440469103</v>
+        <v>0.9999724800122539</v>
       </c>
       <c r="T21">
-        <v>0.9999993226344662</v>
+        <v>0.9999976241125751</v>
       </c>
       <c r="U21">
-        <v>0.9999981795119096</v>
+        <v>0.999993621285973</v>
       </c>
       <c r="V21">
-        <v>1.000001800790909</v>
+        <v>1.000006306050204</v>
       </c>
       <c r="W21">
-        <v>0.9999983907205301</v>
+        <v>0.9999943613028027</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999440805489908</v>
+        <v>0.9998797486270298</v>
       </c>
       <c r="D22">
-        <v>1.000021501952415</v>
+        <v>1.000046236957362</v>
       </c>
       <c r="E22">
-        <v>1.00003192741872</v>
+        <v>1.0000686506547</v>
       </c>
       <c r="F22">
-        <v>0.9999815162149448</v>
+        <v>0.9999602587619641</v>
       </c>
       <c r="G22">
-        <v>1.000057337936286</v>
+        <v>1.000123294818351</v>
       </c>
       <c r="H22">
-        <v>1.000057337936286</v>
+        <v>1.000123294818351</v>
       </c>
       <c r="I22">
-        <v>1.000057337936286</v>
+        <v>1.000123294818351</v>
       </c>
       <c r="J22">
-        <v>0.9999139986916815</v>
+        <v>0.9998150587437212</v>
       </c>
       <c r="K22">
-        <v>1.000021501952415</v>
+        <v>1.000046236957362</v>
       </c>
       <c r="L22">
-        <v>0.9999827969982155</v>
+        <v>0.9999630100193616</v>
       </c>
       <c r="M22">
-        <v>0.9999139986916815</v>
+        <v>0.9998150587437212</v>
       </c>
       <c r="N22">
-        <v>1.000057337936286</v>
+        <v>1.000123294818351</v>
       </c>
       <c r="O22">
-        <v>1.000021501952415</v>
+        <v>1.000046236957362</v>
       </c>
       <c r="P22">
-        <v>0.9999677503220483</v>
+        <v>0.9999306478505416</v>
       </c>
       <c r="Q22">
-        <v>1.00000150908368</v>
+        <v>1.000003247859663</v>
       </c>
       <c r="R22">
-        <v>0.9999976128601274</v>
+        <v>0.9999948635064783</v>
       </c>
       <c r="S22">
-        <v>0.9999723389530137</v>
+        <v>0.9999405181543491</v>
       </c>
       <c r="T22">
-        <v>0.9999976128601276</v>
+        <v>0.999994863506478</v>
       </c>
       <c r="U22">
-        <v>0.9999935886988318</v>
+        <v>0.9999862123203496</v>
       </c>
       <c r="V22">
-        <v>1.000006338546322</v>
+        <v>1.00001362881995</v>
       </c>
       <c r="W22">
-        <v>0.9999943327142086</v>
+        <v>0.9999878119424814</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9997986236941824</v>
+      </c>
+      <c r="D23">
+        <v>1.000077427925099</v>
+      </c>
+      <c r="E23">
+        <v>1.000114963345125</v>
+      </c>
+      <c r="F23">
+        <v>0.9999334497574484</v>
+      </c>
+      <c r="G23">
+        <v>1.000206471215795</v>
+      </c>
+      <c r="H23">
+        <v>1.000206471215795</v>
+      </c>
+      <c r="I23">
+        <v>1.000206471215795</v>
+      </c>
+      <c r="J23">
+        <v>0.9996902920547757</v>
+      </c>
+      <c r="K23">
+        <v>1.000077427925099</v>
+      </c>
+      <c r="L23">
+        <v>0.9999380566850902</v>
+      </c>
+      <c r="M23">
+        <v>0.9996902920547757</v>
+      </c>
+      <c r="N23">
+        <v>1.000206471215795</v>
+      </c>
+      <c r="O23">
+        <v>1.000077427925099</v>
+      </c>
+      <c r="P23">
+        <v>0.9998838599899371</v>
+      </c>
+      <c r="Q23">
+        <v>1.000005438841273</v>
+      </c>
+      <c r="R23">
+        <v>0.999991397065223</v>
+      </c>
+      <c r="S23">
+        <v>0.9999003899124409</v>
+      </c>
+      <c r="T23">
+        <v>0.999991397065223</v>
+      </c>
+      <c r="U23">
+        <v>0.9999769102382794</v>
+      </c>
+      <c r="V23">
+        <v>1.000022822433782</v>
+      </c>
+      <c r="W23">
+        <v>0.9999795890753266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.002847092345366</v>
+      </c>
+      <c r="D24">
+        <v>0.9989053112400395</v>
+      </c>
+      <c r="E24">
+        <v>0.9983746458611054</v>
+      </c>
+      <c r="F24">
+        <v>1.000940888441988</v>
+      </c>
+      <c r="G24">
+        <v>0.9970808306423465</v>
+      </c>
+      <c r="H24">
+        <v>0.9970808306423465</v>
+      </c>
+      <c r="I24">
+        <v>0.9970808306423465</v>
+      </c>
+      <c r="J24">
+        <v>1.004378756962693</v>
+      </c>
+      <c r="K24">
+        <v>0.9989053112400395</v>
+      </c>
+      <c r="L24">
+        <v>1.000875756168799</v>
+      </c>
+      <c r="M24">
+        <v>1.004378756962693</v>
+      </c>
+      <c r="N24">
+        <v>0.9970808306423465</v>
+      </c>
+      <c r="O24">
+        <v>0.9989053112400395</v>
+      </c>
+      <c r="P24">
+        <v>1.001642034101367</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999230998410136</v>
+      </c>
+      <c r="R24">
+        <v>1.00012163294836</v>
+      </c>
+      <c r="S24">
+        <v>1.001408318881573</v>
+      </c>
+      <c r="T24">
+        <v>1.00012163294836</v>
+      </c>
+      <c r="U24">
+        <v>1.000326446821767</v>
+      </c>
+      <c r="V24">
+        <v>0.9996773235858827</v>
+      </c>
+      <c r="W24">
+        <v>1.000288574112797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000738264898229</v>
+      </c>
+      <c r="D25">
+        <v>0.9997161448516948</v>
+      </c>
+      <c r="E25">
+        <v>0.9995785398723016</v>
+      </c>
+      <c r="F25">
+        <v>1.00024397552549</v>
+      </c>
+      <c r="G25">
+        <v>0.9992430463620008</v>
+      </c>
+      <c r="H25">
+        <v>0.9992430463620008</v>
+      </c>
+      <c r="I25">
+        <v>0.9992430463620008</v>
+      </c>
+      <c r="J25">
+        <v>1.001135432739273</v>
+      </c>
+      <c r="K25">
+        <v>0.9997161448516948</v>
+      </c>
+      <c r="L25">
+        <v>1.000227084232532</v>
+      </c>
+      <c r="M25">
+        <v>1.001135432739273</v>
+      </c>
+      <c r="N25">
+        <v>0.9992430463620008</v>
+      </c>
+      <c r="O25">
+        <v>0.9997161448516948</v>
+      </c>
+      <c r="P25">
+        <v>1.000425788795484</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999800601885922</v>
+      </c>
+      <c r="R25">
+        <v>1.000031541317656</v>
+      </c>
+      <c r="S25">
+        <v>1.000365184372152</v>
+      </c>
+      <c r="T25">
+        <v>1.000031541317656</v>
+      </c>
+      <c r="U25">
+        <v>1.000084649869615</v>
+      </c>
+      <c r="V25">
+        <v>0.9999163291680919</v>
+      </c>
+      <c r="W25">
+        <v>1.000074829166652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.008907501679288</v>
+      </c>
+      <c r="D26">
+        <v>0.9965751229547051</v>
+      </c>
+      <c r="E26">
+        <v>0.9949148629930721</v>
+      </c>
+      <c r="F26">
+        <v>1.002943705244637</v>
+      </c>
+      <c r="G26">
+        <v>0.9908669918749206</v>
+      </c>
+      <c r="H26">
+        <v>0.9908669918749206</v>
+      </c>
+      <c r="I26">
+        <v>0.9908669918749206</v>
+      </c>
+      <c r="J26">
+        <v>1.013699514431958</v>
+      </c>
+      <c r="K26">
+        <v>0.9965751229547051</v>
+      </c>
+      <c r="L26">
+        <v>1.002739911460916</v>
+      </c>
+      <c r="M26">
+        <v>1.013699514431958</v>
+      </c>
+      <c r="N26">
+        <v>0.9908669918749206</v>
+      </c>
+      <c r="O26">
+        <v>0.9965751229547051</v>
+      </c>
+      <c r="P26">
+        <v>1.005137318693332</v>
+      </c>
+      <c r="Q26">
+        <v>0.999759414099671</v>
+      </c>
+      <c r="R26">
+        <v>1.000380543087195</v>
+      </c>
+      <c r="S26">
+        <v>1.004406114210433</v>
+      </c>
+      <c r="T26">
+        <v>1.000380543087195</v>
+      </c>
+      <c r="U26">
+        <v>1.001021333626555</v>
+      </c>
+      <c r="V26">
+        <v>0.9989904652762283</v>
+      </c>
+      <c r="W26">
+        <v>1.000902841699275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.002377958398027</v>
+      </c>
+      <c r="D27">
+        <v>0.9990856931637707</v>
+      </c>
+      <c r="E27">
+        <v>0.9986424677754205</v>
+      </c>
+      <c r="F27">
+        <v>1.000785853887772</v>
+      </c>
+      <c r="G27">
+        <v>0.9975618342489865</v>
+      </c>
+      <c r="H27">
+        <v>0.9975618342489865</v>
+      </c>
+      <c r="I27">
+        <v>0.9975618342489865</v>
+      </c>
+      <c r="J27">
+        <v>1.003657238162348</v>
+      </c>
+      <c r="K27">
+        <v>0.9990856931637707</v>
+      </c>
+      <c r="L27">
+        <v>1.000731446857422</v>
+      </c>
+      <c r="M27">
+        <v>1.003657238162348</v>
+      </c>
+      <c r="N27">
+        <v>0.9975618342489865</v>
+      </c>
+      <c r="O27">
+        <v>0.9990856931637707</v>
+      </c>
+      <c r="P27">
+        <v>1.001371465663059</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999357735257715</v>
+      </c>
+      <c r="R27">
+        <v>1.000101588525035</v>
+      </c>
+      <c r="S27">
+        <v>1.001176261737964</v>
+      </c>
+      <c r="T27">
+        <v>1.000101588525035</v>
+      </c>
+      <c r="U27">
+        <v>1.000272654865719</v>
+      </c>
+      <c r="V27">
+        <v>0.9997304907423727</v>
+      </c>
+      <c r="W27">
+        <v>1.00024102320719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9964567574532642</v>
+      </c>
+      <c r="D28">
+        <v>1.001362359466488</v>
+      </c>
+      <c r="E28">
+        <v>1.002022775451493</v>
+      </c>
+      <c r="F28">
+        <v>0.9988290507069698</v>
+      </c>
+      <c r="G28">
+        <v>1.003632947440224</v>
+      </c>
+      <c r="H28">
+        <v>1.003632947440224</v>
+      </c>
+      <c r="I28">
+        <v>1.003632947440224</v>
+      </c>
+      <c r="J28">
+        <v>0.9945505894903902</v>
+      </c>
+      <c r="K28">
+        <v>1.001362359466488</v>
+      </c>
+      <c r="L28">
+        <v>0.9989101129452606</v>
+      </c>
+      <c r="M28">
+        <v>0.9945505894903902</v>
+      </c>
+      <c r="N28">
+        <v>1.003632947440224</v>
+      </c>
+      <c r="O28">
+        <v>1.001362359466488</v>
+      </c>
+      <c r="P28">
+        <v>0.997956474478439</v>
+      </c>
+      <c r="Q28">
+        <v>1.000095705086729</v>
+      </c>
+      <c r="R28">
+        <v>0.9998486321323673</v>
+      </c>
+      <c r="S28">
+        <v>0.9982473332212827</v>
+      </c>
+      <c r="T28">
+        <v>0.9998486321323673</v>
+      </c>
+      <c r="U28">
+        <v>0.9995937367760179</v>
+      </c>
+      <c r="V28">
+        <v>1.000401578908859</v>
+      </c>
+      <c r="W28">
+        <v>0.9996408690525722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9970984149786815</v>
+      </c>
+      <c r="D29">
+        <v>1.001115644986362</v>
+      </c>
+      <c r="E29">
+        <v>1.001656464990274</v>
+      </c>
+      <c r="F29">
+        <v>0.9990411017612055</v>
+      </c>
+      <c r="G29">
+        <v>1.002975044572392</v>
+      </c>
+      <c r="H29">
+        <v>1.002975044572392</v>
+      </c>
+      <c r="I29">
+        <v>1.002975044572392</v>
+      </c>
+      <c r="J29">
+        <v>0.995537441132596</v>
+      </c>
+      <c r="K29">
+        <v>1.001115644986362</v>
+      </c>
+      <c r="L29">
+        <v>0.9991074847652841</v>
+      </c>
+      <c r="M29">
+        <v>0.995537441132596</v>
+      </c>
+      <c r="N29">
+        <v>1.002975044572392</v>
+      </c>
+      <c r="O29">
+        <v>1.001115644986362</v>
+      </c>
+      <c r="P29">
+        <v>0.998326543059479</v>
+      </c>
+      <c r="Q29">
+        <v>1.000078373373784</v>
+      </c>
+      <c r="R29">
+        <v>0.9998760435637836</v>
+      </c>
+      <c r="S29">
+        <v>0.9985647292933878</v>
+      </c>
+      <c r="T29">
+        <v>0.9998760435637836</v>
+      </c>
+      <c r="U29">
+        <v>0.9996673081131391</v>
+      </c>
+      <c r="V29">
+        <v>1.00032885540499</v>
+      </c>
+      <c r="W29">
+        <v>0.9997059052716448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9983846398443655</v>
+      </c>
+      <c r="D30">
+        <v>1.000621099997822</v>
+      </c>
+      <c r="E30">
+        <v>1.000922182608805</v>
+      </c>
+      <c r="F30">
+        <v>0.9994661663116394</v>
+      </c>
+      <c r="G30">
+        <v>1.001656254026681</v>
+      </c>
+      <c r="H30">
+        <v>1.001656254026681</v>
+      </c>
+      <c r="I30">
+        <v>1.001656254026681</v>
+      </c>
+      <c r="J30">
+        <v>0.9975156192234912</v>
+      </c>
+      <c r="K30">
+        <v>1.000621099997822</v>
+      </c>
+      <c r="L30">
+        <v>0.9995031233186622</v>
+      </c>
+      <c r="M30">
+        <v>0.9975156192234912</v>
+      </c>
+      <c r="N30">
+        <v>1.001656254026681</v>
+      </c>
+      <c r="O30">
+        <v>1.000621099997822</v>
+      </c>
+      <c r="P30">
+        <v>0.9990683596106564</v>
+      </c>
+      <c r="Q30">
+        <v>1.000043633154731</v>
+      </c>
+      <c r="R30">
+        <v>0.9999309910826645</v>
+      </c>
+      <c r="S30">
+        <v>0.9992009618443175</v>
+      </c>
+      <c r="T30">
+        <v>0.9999309910826647</v>
+      </c>
+      <c r="U30">
+        <v>0.9998147848899084</v>
+      </c>
+      <c r="V30">
+        <v>1.000183078717263</v>
+      </c>
+      <c r="W30">
+        <v>0.999836273166161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9981997280611948</v>
+      </c>
+      <c r="D31">
+        <v>1.000692193086517</v>
+      </c>
+      <c r="E31">
+        <v>1.001027748161077</v>
+      </c>
+      <c r="F31">
+        <v>0.9994050561136434</v>
+      </c>
+      <c r="G31">
+        <v>1.001845851303686</v>
+      </c>
+      <c r="H31">
+        <v>1.001845851303686</v>
+      </c>
+      <c r="I31">
+        <v>1.001845851303686</v>
+      </c>
+      <c r="J31">
+        <v>0.9972312293604932</v>
+      </c>
+      <c r="K31">
+        <v>1.000692193086517</v>
+      </c>
+      <c r="L31">
+        <v>0.9994462427310798</v>
+      </c>
+      <c r="M31">
+        <v>0.9972312293604932</v>
+      </c>
+      <c r="N31">
+        <v>1.001845851303686</v>
+      </c>
+      <c r="O31">
+        <v>1.000692193086517</v>
+      </c>
+      <c r="P31">
+        <v>0.9989617112235052</v>
+      </c>
+      <c r="Q31">
+        <v>1.00004862460008</v>
+      </c>
+      <c r="R31">
+        <v>0.9999230912502322</v>
+      </c>
+      <c r="S31">
+        <v>0.9991094928535512</v>
+      </c>
+      <c r="T31">
+        <v>0.9999230912502322</v>
+      </c>
+      <c r="U31">
+        <v>0.999793582466085</v>
+      </c>
+      <c r="V31">
+        <v>1.000204036233605</v>
+      </c>
+      <c r="W31">
+        <v>0.999817530238026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9957125267123289</v>
+      </c>
+      <c r="D32">
+        <v>1.001648512328767</v>
+      </c>
+      <c r="E32">
+        <v>1.002447643835616</v>
+      </c>
+      <c r="F32">
+        <v>0.9985831019178081</v>
+      </c>
+      <c r="G32">
+        <v>1.00439602</v>
+      </c>
+      <c r="H32">
+        <v>1.00439602</v>
+      </c>
+      <c r="I32">
+        <v>1.00439602</v>
+      </c>
+      <c r="J32">
+        <v>0.9934059826027396</v>
+      </c>
+      <c r="K32">
+        <v>1.001648512328767</v>
+      </c>
+      <c r="L32">
+        <v>0.9986811901369869</v>
+      </c>
+      <c r="M32">
+        <v>0.9934059826027396</v>
+      </c>
+      <c r="N32">
+        <v>1.00439602</v>
+      </c>
+      <c r="O32">
+        <v>1.001648512328767</v>
+      </c>
+      <c r="P32">
+        <v>0.9975272474657533</v>
+      </c>
+      <c r="Q32">
+        <v>1.000115807123288</v>
+      </c>
+      <c r="R32">
+        <v>0.9998168383105023</v>
+      </c>
+      <c r="S32">
+        <v>0.9978791989497715</v>
+      </c>
+      <c r="T32">
+        <v>0.9998168383105023</v>
+      </c>
+      <c r="U32">
+        <v>0.9995084042123287</v>
+      </c>
+      <c r="V32">
+        <v>1.000485927369863</v>
+      </c>
+      <c r="W32">
+        <v>0.9995654362328767</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9949505052631576</v>
+      </c>
+      <c r="D33">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="E33">
+        <v>1.002882672105263</v>
+      </c>
+      <c r="F33">
+        <v>0.9983312736842104</v>
+      </c>
+      <c r="G33">
+        <v>1.005177319473684</v>
+      </c>
+      <c r="H33">
+        <v>1.005177319473684</v>
+      </c>
+      <c r="I33">
+        <v>1.005177319473684</v>
+      </c>
+      <c r="J33">
+        <v>0.9922340194736842</v>
+      </c>
+      <c r="K33">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="L33">
+        <v>0.9984468078947368</v>
+      </c>
+      <c r="M33">
+        <v>0.9922340194736842</v>
+      </c>
+      <c r="N33">
+        <v>1.005177319473684</v>
+      </c>
+      <c r="O33">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="P33">
+        <v>0.9970877607894737</v>
+      </c>
+      <c r="Q33">
+        <v>1.000136387894737</v>
+      </c>
+      <c r="R33">
+        <v>0.9997842803508771</v>
+      </c>
+      <c r="S33">
+        <v>0.9975022650877192</v>
+      </c>
+      <c r="T33">
+        <v>0.9997842803508771</v>
+      </c>
+      <c r="U33">
+        <v>0.9994210286842103</v>
+      </c>
+      <c r="V33">
+        <v>1.000572286842105</v>
+      </c>
+      <c r="W33">
+        <v>0.9994882002631578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9888219489473685</v>
+      </c>
+      <c r="D34">
+        <v>1.004297889473684</v>
+      </c>
+      <c r="E34">
+        <v>1.006381368421053</v>
+      </c>
+      <c r="F34">
+        <v>0.9963059457894737</v>
+      </c>
+      <c r="G34">
+        <v>1.011461047368421</v>
+      </c>
+      <c r="H34">
+        <v>1.011461047368421</v>
+      </c>
+      <c r="I34">
+        <v>1.011461047368421</v>
+      </c>
+      <c r="J34">
+        <v>0.9828084389473684</v>
+      </c>
+      <c r="K34">
+        <v>1.004297889473684</v>
+      </c>
+      <c r="L34">
+        <v>0.9965616873684211</v>
+      </c>
+      <c r="M34">
+        <v>0.9828084389473684</v>
+      </c>
+      <c r="N34">
+        <v>1.011461047368421</v>
+      </c>
+      <c r="O34">
+        <v>1.004297889473684</v>
+      </c>
+      <c r="P34">
+        <v>0.9935531642105261</v>
+      </c>
+      <c r="Q34">
+        <v>1.000301917631579</v>
+      </c>
+      <c r="R34">
+        <v>0.9995224585964912</v>
+      </c>
+      <c r="S34">
+        <v>0.9944707580701753</v>
+      </c>
+      <c r="T34">
+        <v>0.9995224585964912</v>
+      </c>
+      <c r="U34">
+        <v>0.9987183303947369</v>
+      </c>
+      <c r="V34">
+        <v>1.001266873789474</v>
+      </c>
+      <c r="W34">
+        <v>0.9988670269736841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9936248108916614</v>
+      </c>
+      <c r="D35">
+        <v>1.002451221859198</v>
+      </c>
+      <c r="E35">
+        <v>1.003639502389538</v>
+      </c>
+      <c r="F35">
+        <v>0.9978931665942066</v>
+      </c>
+      <c r="G35">
+        <v>1.006536606711286</v>
+      </c>
+      <c r="H35">
+        <v>1.006536606711286</v>
+      </c>
+      <c r="I35">
+        <v>1.006536606711286</v>
+      </c>
+      <c r="J35">
+        <v>0.9901951214359264</v>
+      </c>
+      <c r="K35">
+        <v>1.002451221859198</v>
+      </c>
+      <c r="L35">
+        <v>0.9980390230441432</v>
+      </c>
+      <c r="M35">
+        <v>0.9901951214359264</v>
+      </c>
+      <c r="N35">
+        <v>1.006536606711286</v>
+      </c>
+      <c r="O35">
+        <v>1.002451221859198</v>
+      </c>
+      <c r="P35">
+        <v>0.996323171647562</v>
+      </c>
+      <c r="Q35">
+        <v>1.000172194226702</v>
+      </c>
+      <c r="R35">
+        <v>0.9997276500021366</v>
+      </c>
+      <c r="S35">
+        <v>0.9968465032964436</v>
+      </c>
+      <c r="T35">
+        <v>0.9997276500021366</v>
+      </c>
+      <c r="U35">
+        <v>0.999269029150154</v>
+      </c>
+      <c r="V35">
+        <v>1.00072254466238</v>
+      </c>
+      <c r="W35">
+        <v>0.9993538343481446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999992487896084</v>
+      </c>
+      <c r="D36">
+        <v>1.000000290764242</v>
+      </c>
+      <c r="E36">
+        <v>1.000000429841278</v>
+      </c>
+      <c r="F36">
+        <v>0.9999997512126493</v>
+      </c>
+      <c r="G36">
+        <v>1.000000769273352</v>
+      </c>
+      <c r="H36">
+        <v>1.000000769273352</v>
+      </c>
+      <c r="I36">
+        <v>1.000000769273352</v>
+      </c>
+      <c r="J36">
+        <v>0.9999988471821393</v>
+      </c>
+      <c r="K36">
+        <v>1.000000290764242</v>
+      </c>
+      <c r="L36">
+        <v>0.9999997687220961</v>
+      </c>
+      <c r="M36">
+        <v>0.9999988471821393</v>
+      </c>
+      <c r="N36">
+        <v>1.000000769273352</v>
+      </c>
+      <c r="O36">
+        <v>1.000000290764242</v>
+      </c>
+      <c r="P36">
+        <v>0.9999995689731905</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000020988446</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999690732443</v>
+      </c>
+      <c r="S36">
+        <v>0.9999996297196768</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999690732443</v>
+      </c>
+      <c r="U36">
+        <v>0.9999999146080956</v>
+      </c>
+      <c r="V36">
+        <v>1.000000085541147</v>
+      </c>
+      <c r="W36">
+        <v>0.999999924568701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999841155573962</v>
+      </c>
+      <c r="D37">
+        <v>1.000006109571291</v>
+      </c>
+      <c r="E37">
+        <v>1.000009069035878</v>
+      </c>
+      <c r="F37">
+        <v>0.9999947501442398</v>
+      </c>
+      <c r="G37">
+        <v>1.000016285906907</v>
+      </c>
+      <c r="H37">
+        <v>1.000016285906907</v>
+      </c>
+      <c r="I37">
+        <v>1.000016285906907</v>
+      </c>
+      <c r="J37">
+        <v>0.9999755724252004</v>
+      </c>
+      <c r="K37">
+        <v>1.000006109571291</v>
+      </c>
+      <c r="L37">
+        <v>0.9999951135520365</v>
+      </c>
+      <c r="M37">
+        <v>0.9999755724252004</v>
+      </c>
+      <c r="N37">
+        <v>1.000016285906907</v>
+      </c>
+      <c r="O37">
+        <v>1.000006109571291</v>
+      </c>
+      <c r="P37">
+        <v>0.9999908409982456</v>
+      </c>
+      <c r="Q37">
+        <v>1.000000429857765</v>
+      </c>
+      <c r="R37">
+        <v>0.9999993226344662</v>
+      </c>
+      <c r="S37">
+        <v>0.9999921440469103</v>
+      </c>
+      <c r="T37">
+        <v>0.9999993226344662</v>
+      </c>
+      <c r="U37">
+        <v>0.9999981795119096</v>
+      </c>
+      <c r="V37">
+        <v>1.000001800790909</v>
+      </c>
+      <c r="W37">
+        <v>0.9999983907205301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999440805489908</v>
+      </c>
+      <c r="D38">
+        <v>1.000021501952415</v>
+      </c>
+      <c r="E38">
+        <v>1.00003192741872</v>
+      </c>
+      <c r="F38">
+        <v>0.9999815162149448</v>
+      </c>
+      <c r="G38">
+        <v>1.000057337936286</v>
+      </c>
+      <c r="H38">
+        <v>1.000057337936286</v>
+      </c>
+      <c r="I38">
+        <v>1.000057337936286</v>
+      </c>
+      <c r="J38">
+        <v>0.9999139986916815</v>
+      </c>
+      <c r="K38">
+        <v>1.000021501952415</v>
+      </c>
+      <c r="L38">
+        <v>0.9999827969982155</v>
+      </c>
+      <c r="M38">
+        <v>0.9999139986916815</v>
+      </c>
+      <c r="N38">
+        <v>1.000057337936286</v>
+      </c>
+      <c r="O38">
+        <v>1.000021501952415</v>
+      </c>
+      <c r="P38">
+        <v>0.9999677503220483</v>
+      </c>
+      <c r="Q38">
+        <v>1.00000150908368</v>
+      </c>
+      <c r="R38">
+        <v>0.9999976128601274</v>
+      </c>
+      <c r="S38">
+        <v>0.9999723389530137</v>
+      </c>
+      <c r="T38">
+        <v>0.9999976128601276</v>
+      </c>
+      <c r="U38">
+        <v>0.9999935886988318</v>
+      </c>
+      <c r="V38">
+        <v>1.000006338546322</v>
+      </c>
+      <c r="W38">
+        <v>0.9999943327142086</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9998689914530273</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.00005037065178</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000074784843175</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9999567049042736</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000134321740851</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000134321740851</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000134321740851</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9997985254124184</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.00005037065178</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.999959697060284</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9997985254124184</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000134321740851</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.00005037065178</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999924448032099</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000003537778027</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999944059350164</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999352003228239</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999944059350164</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999849806773308</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000014848890035</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999867208396986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9959573376025371</v>
+      </c>
+      <c r="D40">
+        <v>1.001554381646935</v>
+      </c>
+      <c r="E40">
+        <v>1.002307886161784</v>
+      </c>
+      <c r="F40">
+        <v>0.9986640049994977</v>
+      </c>
+      <c r="G40">
+        <v>1.004145007382098</v>
+      </c>
+      <c r="H40">
+        <v>1.004145007382098</v>
+      </c>
+      <c r="I40">
+        <v>1.004145007382098</v>
+      </c>
+      <c r="J40">
+        <v>0.9937824897804316</v>
+      </c>
+      <c r="K40">
+        <v>1.001554381646935</v>
+      </c>
+      <c r="L40">
+        <v>0.9987564971856369</v>
+      </c>
+      <c r="M40">
+        <v>0.9937824897804316</v>
+      </c>
+      <c r="N40">
+        <v>1.004145007382098</v>
+      </c>
+      <c r="O40">
+        <v>1.001554381646935</v>
+      </c>
+      <c r="P40">
+        <v>0.9976684357136831</v>
+      </c>
+      <c r="Q40">
+        <v>1.000109193323216</v>
+      </c>
+      <c r="R40">
+        <v>0.9998272929364881</v>
+      </c>
+      <c r="S40">
+        <v>0.998000292142288</v>
+      </c>
+      <c r="T40">
+        <v>0.9998272929364882</v>
+      </c>
+      <c r="U40">
+        <v>0.9995364709522405</v>
+      </c>
+      <c r="V40">
+        <v>1.000458178238212</v>
+      </c>
+      <c r="W40">
+        <v>0.9995902483007318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.00003886830925</v>
+      </c>
+      <c r="D41">
+        <v>0.9999850569545994</v>
+      </c>
+      <c r="E41">
+        <v>0.9999778115727835</v>
+      </c>
+      <c r="F41">
+        <v>1.000012843757953</v>
+      </c>
+      <c r="G41">
+        <v>0.9999601471276373</v>
+      </c>
+      <c r="H41">
+        <v>0.9999601471276373</v>
+      </c>
+      <c r="I41">
+        <v>0.9999601471276373</v>
+      </c>
+      <c r="J41">
+        <v>1.000059780203598</v>
+      </c>
+      <c r="K41">
+        <v>0.9999850569545994</v>
+      </c>
+      <c r="L41">
+        <v>1.000011954930074</v>
+      </c>
+      <c r="M41">
+        <v>1.000059780203598</v>
+      </c>
+      <c r="N41">
+        <v>0.9999601471276373</v>
+      </c>
+      <c r="O41">
+        <v>0.9999850569545994</v>
+      </c>
+      <c r="P41">
+        <v>1.000022418579098</v>
+      </c>
+      <c r="Q41">
+        <v>0.9999989503562763</v>
+      </c>
+      <c r="R41">
+        <v>1.000001661428611</v>
+      </c>
+      <c r="S41">
+        <v>1.00001922697205</v>
+      </c>
+      <c r="T41">
+        <v>1.000001661428611</v>
+      </c>
+      <c r="U41">
+        <v>1.000004457010947</v>
+      </c>
+      <c r="V41">
+        <v>0.9999955950342849</v>
+      </c>
+      <c r="W41">
+        <v>1.000003939976312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.995955392466406</v>
+      </c>
+      <c r="D42">
+        <v>1.001555127395255</v>
+      </c>
+      <c r="E42">
+        <v>1.002308997660871</v>
+      </c>
+      <c r="F42">
+        <v>0.9986633613950003</v>
+      </c>
+      <c r="G42">
+        <v>1.004147004570497</v>
+      </c>
+      <c r="H42">
+        <v>1.004147004570497</v>
+      </c>
+      <c r="I42">
+        <v>1.004147004570497</v>
+      </c>
+      <c r="J42">
+        <v>0.9937794970719178</v>
+      </c>
+      <c r="K42">
+        <v>1.001555127395255</v>
+      </c>
+      <c r="L42">
+        <v>0.9987558990505333</v>
+      </c>
+      <c r="M42">
+        <v>0.9937794970719178</v>
+      </c>
+      <c r="N42">
+        <v>1.004147004570497</v>
+      </c>
+      <c r="O42">
+        <v>1.001555127395255</v>
+      </c>
+      <c r="P42">
+        <v>0.9976673122335866</v>
+      </c>
+      <c r="Q42">
+        <v>1.000109244395128</v>
+      </c>
+      <c r="R42">
+        <v>0.9998272096792236</v>
+      </c>
+      <c r="S42">
+        <v>0.9979993286207245</v>
+      </c>
+      <c r="T42">
+        <v>0.9998272096792236</v>
+      </c>
+      <c r="U42">
+        <v>0.9995362476081677</v>
+      </c>
+      <c r="V42">
+        <v>1.000458399000634</v>
+      </c>
+      <c r="W42">
+        <v>0.9995900508757171</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
+    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00018622104045</v>
+        <v>0.9999596784514081</v>
       </c>
       <c r="D3">
-        <v>0.9997206703794828</v>
+        <v>1.00001550506394</v>
       </c>
       <c r="E3">
-        <v>1.000069835274624</v>
+        <v>1.000023019982162</v>
       </c>
       <c r="F3">
-        <v>1.00018622104045</v>
+        <v>0.9999866742014225</v>
       </c>
       <c r="G3">
-        <v>0.9999399776179124</v>
+        <v>1.00004134161171</v>
       </c>
       <c r="H3">
-        <v>1.000103686949003</v>
+        <v>1.00004134161171</v>
       </c>
       <c r="I3">
-        <v>1.00018622104045</v>
+        <v>1.00004134161171</v>
       </c>
       <c r="J3">
-        <v>0.9997206703794828</v>
+        <v>0.9999379887479776</v>
       </c>
       <c r="K3">
-        <v>0.9999441329595927</v>
+        <v>1.00001550506394</v>
       </c>
       <c r="L3">
-        <v>1.000069835274624</v>
+        <v>0.9999875969549745</v>
       </c>
       <c r="M3">
-        <v>0.9998183764456288</v>
+        <v>0.9999379887479776</v>
       </c>
       <c r="N3">
-        <v>1.00018622104045</v>
+        <v>1.00004134161171</v>
       </c>
       <c r="O3">
-        <v>1.000069835274624</v>
+        <v>1.00001550506394</v>
       </c>
       <c r="P3">
-        <v>0.9998952528270536</v>
+        <v>0.9999767469059587</v>
       </c>
       <c r="Q3">
-        <v>1.000004906446268</v>
+        <v>1.000001089632681</v>
       </c>
       <c r="R3">
-        <v>0.9999922422315189</v>
+        <v>0.9999982784745426</v>
       </c>
       <c r="S3">
-        <v>0.9999101610906732</v>
+        <v>0.9999800560044466</v>
       </c>
       <c r="T3">
-        <v>0.9999922422315189</v>
+        <v>0.9999982784745426</v>
       </c>
       <c r="U3">
-        <v>0.9999791760781173</v>
+        <v>0.9999953774062625</v>
       </c>
       <c r="V3">
-        <v>1.000020585070584</v>
+        <v>1.000004570247352</v>
       </c>
       <c r="W3">
-        <v>0.9999815919926647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9999959137596919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000359498003283</v>
+        <v>0.9959573376025371</v>
       </c>
       <c r="D4">
-        <v>0.9994607565535594</v>
+        <v>1.001554381646935</v>
       </c>
       <c r="E4">
-        <v>1.000134814174518</v>
+        <v>1.002307886161784</v>
       </c>
       <c r="F4">
-        <v>1.000359498003283</v>
+        <v>0.9986640049994977</v>
       </c>
       <c r="G4">
-        <v>0.9998841283746424</v>
+        <v>1.004145007382098</v>
       </c>
       <c r="H4">
-        <v>1.000200164915291</v>
+        <v>1.004145007382098</v>
       </c>
       <c r="I4">
-        <v>1.000359498003283</v>
+        <v>1.004145007382098</v>
       </c>
       <c r="J4">
-        <v>0.9994607565535594</v>
+        <v>0.9937824897804316</v>
       </c>
       <c r="K4">
-        <v>0.9998921495204365</v>
+        <v>1.001554381646935</v>
       </c>
       <c r="L4">
-        <v>1.000134814174518</v>
+        <v>0.9987564971856369</v>
       </c>
       <c r="M4">
-        <v>0.9996493779968117</v>
+        <v>0.9937824897804316</v>
       </c>
       <c r="N4">
-        <v>1.000359498003283</v>
+        <v>1.004145007382098</v>
       </c>
       <c r="O4">
-        <v>1.000134814174518</v>
+        <v>1.001554381646935</v>
       </c>
       <c r="P4">
-        <v>0.9997977853640388</v>
+        <v>0.9976684357136831</v>
       </c>
       <c r="Q4">
-        <v>1.00000947127458</v>
+        <v>1.000109193323216</v>
       </c>
       <c r="R4">
-        <v>0.9999850229104537</v>
+        <v>0.9998272929364881</v>
       </c>
       <c r="S4">
-        <v>0.9998265663675734</v>
+        <v>0.998000292142288</v>
       </c>
       <c r="T4">
-        <v>0.9999850229104537</v>
+        <v>0.9998272929364882</v>
       </c>
       <c r="U4">
-        <v>0.9999597992765008</v>
+        <v>0.9995364709522405</v>
       </c>
       <c r="V4">
-        <v>1.000039739021857</v>
+        <v>1.000458178238212</v>
       </c>
       <c r="W4">
-        <v>0.9999644629641324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9995902483007318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000688933590425</v>
+        <v>0.9979725641930818</v>
       </c>
       <c r="D5">
-        <v>0.9989666110868041</v>
+        <v>1.000779537838619</v>
       </c>
       <c r="E5">
-        <v>1.000258353237742</v>
+        <v>1.001157430561959</v>
       </c>
       <c r="F5">
-        <v>1.000688933590425</v>
+        <v>0.9993299852521608</v>
       </c>
       <c r="G5">
-        <v>0.9997779441156519</v>
+        <v>1.002078764481271</v>
       </c>
       <c r="H5">
-        <v>1.000383586565909</v>
+        <v>1.002078764481271</v>
       </c>
       <c r="I5">
-        <v>1.000688933590425</v>
+        <v>1.002078764481271</v>
       </c>
       <c r="J5">
-        <v>0.9989666110868041</v>
+        <v>0.9968818577017274</v>
       </c>
       <c r="K5">
-        <v>0.9997933172878115</v>
+        <v>1.000779537838619</v>
       </c>
       <c r="L5">
-        <v>1.000258353237742</v>
+        <v>0.9993763708933716</v>
       </c>
       <c r="M5">
-        <v>0.999328074999638</v>
+        <v>0.9968818577017274</v>
       </c>
       <c r="N5">
-        <v>1.000688933590425</v>
+        <v>1.002078764481271</v>
       </c>
       <c r="O5">
-        <v>1.000258353237742</v>
+        <v>1.000779537838619</v>
       </c>
       <c r="P5">
-        <v>0.9996124821622729</v>
+        <v>0.9988306977701731</v>
       </c>
       <c r="Q5">
-        <v>1.000018148676697</v>
+        <v>1.00005476154539</v>
       </c>
       <c r="R5">
-        <v>0.9999712993049904</v>
+        <v>0.9999133866738724</v>
       </c>
       <c r="S5">
-        <v>0.9996676361467326</v>
+        <v>0.9989971269308356</v>
       </c>
       <c r="T5">
-        <v>0.9999712993049904</v>
+        <v>0.9999133866738724</v>
       </c>
       <c r="U5">
-        <v>0.9999229605076557</v>
+        <v>0.9997675363184445</v>
       </c>
       <c r="V5">
-        <v>1.00007615512421</v>
+        <v>1.00022978195101</v>
       </c>
       <c r="W5">
-        <v>0.9999318967652153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0.9997945060951012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00101044372596</v>
+        <v>0.9936248108916614</v>
       </c>
       <c r="D6">
-        <v>0.9984843420347594</v>
+        <v>1.002451221859198</v>
       </c>
       <c r="E6">
-        <v>1.000378920903862</v>
+        <v>1.003639502389538</v>
       </c>
       <c r="F6">
-        <v>1.00101044372596</v>
+        <v>0.9978931665942066</v>
       </c>
       <c r="G6">
-        <v>0.9996743213466617</v>
+        <v>1.006536606711286</v>
       </c>
       <c r="H6">
-        <v>1.000562608597629</v>
+        <v>1.006536606711286</v>
       </c>
       <c r="I6">
-        <v>1.00101044372596</v>
+        <v>1.006536606711286</v>
       </c>
       <c r="J6">
-        <v>0.9984843420347594</v>
+        <v>0.9901951214359264</v>
       </c>
       <c r="K6">
-        <v>0.9996968649303112</v>
+        <v>1.002451221859198</v>
       </c>
       <c r="L6">
-        <v>1.000378920903862</v>
+        <v>0.9980390230441432</v>
       </c>
       <c r="M6">
-        <v>0.9990145084144348</v>
+        <v>0.9901951214359264</v>
       </c>
       <c r="N6">
-        <v>1.00101044372596</v>
+        <v>1.006536606711286</v>
       </c>
       <c r="O6">
-        <v>1.000378920903862</v>
+        <v>1.002451221859198</v>
       </c>
       <c r="P6">
-        <v>0.9994316314693108</v>
+        <v>0.996323171647562</v>
       </c>
       <c r="Q6">
-        <v>1.000026621125262</v>
+        <v>1.000172194226702</v>
       </c>
       <c r="R6">
-        <v>0.9999579022215274</v>
+        <v>0.9997276500021366</v>
       </c>
       <c r="S6">
-        <v>0.9995125280950944</v>
+        <v>0.9968465032964436</v>
       </c>
       <c r="T6">
-        <v>0.9999579022215274</v>
+        <v>0.9997276500021366</v>
       </c>
       <c r="U6">
-        <v>0.999887007002811</v>
+        <v>0.999269029150154</v>
       </c>
       <c r="V6">
-        <v>1.000111694347441</v>
+        <v>1.00072254466238</v>
       </c>
       <c r="W6">
-        <v>0.9999001163571851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9993538343481446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000014265945412</v>
+        <v>0.9997617785796874</v>
       </c>
       <c r="D7">
-        <v>0.9999786021814197</v>
+        <v>1.000091596767163</v>
       </c>
       <c r="E7">
-        <v>1.000005351909787</v>
+        <v>1.000135996936881</v>
       </c>
       <c r="F7">
-        <v>1.000014265945412</v>
+        <v>0.9999212728810909</v>
       </c>
       <c r="G7">
-        <v>0.9999954010083598</v>
+        <v>1.000244251350679</v>
       </c>
       <c r="H7">
-        <v>1.000007944634106</v>
+        <v>1.000244251350679</v>
       </c>
       <c r="I7">
-        <v>1.000014265945412</v>
+        <v>1.000244251350679</v>
       </c>
       <c r="J7">
-        <v>0.9999786021814197</v>
+        <v>0.9996336241031709</v>
       </c>
       <c r="K7">
-        <v>0.9999957197616611</v>
+        <v>1.000091596767163</v>
       </c>
       <c r="L7">
-        <v>1.000005351909787</v>
+        <v>0.9999267240127453</v>
       </c>
       <c r="M7">
-        <v>0.9999860852673446</v>
+        <v>0.9996336241031709</v>
       </c>
       <c r="N7">
-        <v>1.000014265945412</v>
+        <v>1.000244251350679</v>
       </c>
       <c r="O7">
-        <v>1.000005351909787</v>
+        <v>1.000091596767163</v>
       </c>
       <c r="P7">
-        <v>0.9999919770456034</v>
+        <v>0.9998626104351668</v>
       </c>
       <c r="Q7">
-        <v>1.000000376459073</v>
+        <v>1.000006434824127</v>
       </c>
       <c r="R7">
-        <v>0.999999406678873</v>
+        <v>0.9999898240736708</v>
       </c>
       <c r="S7">
-        <v>0.9999931183665222</v>
+        <v>0.9998821645838082</v>
       </c>
       <c r="T7">
-        <v>0.999999406678873</v>
+        <v>0.9999898240736708</v>
       </c>
       <c r="U7">
-        <v>0.9999984052612447</v>
+        <v>0.9999726862755258</v>
       </c>
       <c r="V7">
-        <v>1.000001577398078</v>
+        <v>1.000026999290556</v>
       </c>
       <c r="W7">
-        <v>0.9999985903272347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999758551748225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00004134161171</v>
+        <v>0.9999841155573962</v>
       </c>
       <c r="D8">
-        <v>0.9999379887479776</v>
+        <v>1.000006109571291</v>
       </c>
       <c r="E8">
-        <v>1.00001550506394</v>
+        <v>1.000009069035878</v>
       </c>
       <c r="F8">
-        <v>1.00004134161171</v>
+        <v>0.9999947501442398</v>
       </c>
       <c r="G8">
-        <v>0.9999866742014225</v>
+        <v>1.000016285906907</v>
       </c>
       <c r="H8">
-        <v>1.000023019982162</v>
+        <v>1.000016285906907</v>
       </c>
       <c r="I8">
-        <v>1.00004134161171</v>
+        <v>1.000016285906907</v>
       </c>
       <c r="J8">
-        <v>0.9999379887479776</v>
+        <v>0.9999755724252004</v>
       </c>
       <c r="K8">
-        <v>0.9999875969549745</v>
+        <v>1.000006109571291</v>
       </c>
       <c r="L8">
-        <v>1.00001550506394</v>
+        <v>0.9999951135520365</v>
       </c>
       <c r="M8">
-        <v>0.9999596784514079</v>
+        <v>0.9999755724252004</v>
       </c>
       <c r="N8">
-        <v>1.00004134161171</v>
+        <v>1.000016285906907</v>
       </c>
       <c r="O8">
-        <v>1.00001550506394</v>
+        <v>1.000006109571291</v>
       </c>
       <c r="P8">
-        <v>0.9999767469059587</v>
+        <v>0.9999908409982456</v>
       </c>
       <c r="Q8">
-        <v>1.000001089632681</v>
+        <v>1.000000429857765</v>
       </c>
       <c r="R8">
-        <v>0.9999982784745426</v>
+        <v>0.9999993226344662</v>
       </c>
       <c r="S8">
-        <v>0.9999800560044466</v>
+        <v>0.9999921440469103</v>
       </c>
       <c r="T8">
-        <v>0.9999982784745426</v>
+        <v>0.9999993226344662</v>
       </c>
       <c r="U8">
-        <v>0.9999953774062625</v>
+        <v>0.9999981795119096</v>
       </c>
       <c r="V8">
-        <v>1.000004570247352</v>
+        <v>1.000001800790909</v>
       </c>
       <c r="W8">
-        <v>0.9999959137596919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.9999983907205301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00005704510713</v>
+        <v>0.9996493779968117</v>
       </c>
       <c r="D9">
-        <v>0.9999144335559406</v>
+        <v>1.000134814174518</v>
       </c>
       <c r="E9">
-        <v>1.000021393674654</v>
+        <v>1.000200164915291</v>
       </c>
       <c r="F9">
-        <v>1.00005704510713</v>
+        <v>0.9998841283746424</v>
       </c>
       <c r="G9">
-        <v>0.9999816128061668</v>
+        <v>1.000359498003283</v>
       </c>
       <c r="H9">
-        <v>1.00003176330892</v>
+        <v>1.000359498003283</v>
       </c>
       <c r="I9">
-        <v>1.00005704510713</v>
+        <v>1.000359498003283</v>
       </c>
       <c r="J9">
-        <v>0.9999144335559406</v>
+        <v>0.9994607565535595</v>
       </c>
       <c r="K9">
-        <v>0.9999828858321052</v>
+        <v>1.000134814174518</v>
       </c>
       <c r="L9">
-        <v>1.000021393674654</v>
+        <v>0.9998921495204363</v>
       </c>
       <c r="M9">
-        <v>0.9999443624628505</v>
+        <v>0.9994607565535595</v>
       </c>
       <c r="N9">
-        <v>1.00005704510713</v>
+        <v>1.000359498003283</v>
       </c>
       <c r="O9">
-        <v>1.000021393674654</v>
+        <v>1.000134814174518</v>
       </c>
       <c r="P9">
-        <v>0.9999679136152975</v>
+        <v>0.999797785364039</v>
       </c>
       <c r="Q9">
-        <v>1.000001503240411</v>
+        <v>1.00000947127458</v>
       </c>
       <c r="R9">
-        <v>0.9999976241125751</v>
+        <v>0.9999850229104537</v>
       </c>
       <c r="S9">
-        <v>0.9999724800122539</v>
+        <v>0.9998265663675734</v>
       </c>
       <c r="T9">
-        <v>0.9999976241125751</v>
+        <v>0.9999850229104537</v>
       </c>
       <c r="U9">
-        <v>0.999993621285973</v>
+        <v>0.9999597992765008</v>
       </c>
       <c r="V9">
-        <v>1.000006306050204</v>
+        <v>1.000039739021857</v>
       </c>
       <c r="W9">
-        <v>0.9999943613028027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0.9999644629641324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000123294818351</v>
+        <v>0.9935301192588505</v>
       </c>
       <c r="D10">
-        <v>0.9998150587437212</v>
+        <v>1.002487630152626</v>
       </c>
       <c r="E10">
-        <v>1.000046236957362</v>
+        <v>1.003693560238825</v>
       </c>
       <c r="F10">
-        <v>1.000123294818351</v>
+        <v>0.997861873707111</v>
       </c>
       <c r="G10">
-        <v>0.9999602587619639</v>
+        <v>1.006633695178676</v>
       </c>
       <c r="H10">
-        <v>1.0000686506547</v>
+        <v>1.006633695178676</v>
       </c>
       <c r="I10">
-        <v>1.000123294818351</v>
+        <v>1.006633695178676</v>
       </c>
       <c r="J10">
-        <v>0.9998150587437212</v>
+        <v>0.9900494887968512</v>
       </c>
       <c r="K10">
-        <v>0.9999630100193617</v>
+        <v>1.002487630152626</v>
       </c>
       <c r="L10">
-        <v>1.000046236957362</v>
+        <v>0.9980098966932309</v>
       </c>
       <c r="M10">
-        <v>0.9998797486270298</v>
+        <v>0.9900494887968512</v>
       </c>
       <c r="N10">
-        <v>1.000123294818351</v>
+        <v>1.006633695178676</v>
       </c>
       <c r="O10">
-        <v>1.000046236957362</v>
+        <v>1.002487630152626</v>
       </c>
       <c r="P10">
-        <v>0.9999306478505414</v>
+        <v>0.9962685594747387</v>
       </c>
       <c r="Q10">
-        <v>1.000003247859663</v>
+        <v>1.000174751929868</v>
       </c>
       <c r="R10">
-        <v>0.9999948635064779</v>
+        <v>0.9997236047093846</v>
       </c>
       <c r="S10">
-        <v>0.9999405181543489</v>
+        <v>0.9967996642188628</v>
       </c>
       <c r="T10">
-        <v>0.9999948635064779</v>
+        <v>0.9997236047093846</v>
       </c>
       <c r="U10">
-        <v>0.9999862123203495</v>
+        <v>0.9992581719588162</v>
       </c>
       <c r="V10">
-        <v>1.00001362881995</v>
+        <v>1.000733276602788</v>
       </c>
       <c r="W10">
-        <v>0.9999878119424814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>0.9993442367723497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000206471215795</v>
+        <v>0.9959571517713504</v>
       </c>
       <c r="D11">
-        <v>0.9996902920547757</v>
+        <v>1.001554451581279</v>
       </c>
       <c r="E11">
-        <v>1.000077427925099</v>
+        <v>1.002307992589235</v>
       </c>
       <c r="F11">
-        <v>1.000206471215795</v>
+        <v>0.9986639430196479</v>
       </c>
       <c r="G11">
-        <v>0.9999334497574484</v>
+        <v>1.004145199699735</v>
       </c>
       <c r="H11">
-        <v>1.000114963345125</v>
+        <v>1.004145199699735</v>
       </c>
       <c r="I11">
-        <v>1.000206471215795</v>
+        <v>1.004145199699735</v>
       </c>
       <c r="J11">
-        <v>0.9996902920547757</v>
+        <v>0.9937822030084729</v>
       </c>
       <c r="K11">
-        <v>0.9999380566850899</v>
+        <v>1.001554451581279</v>
       </c>
       <c r="L11">
-        <v>1.000077427925099</v>
+        <v>0.9987564394535601</v>
       </c>
       <c r="M11">
-        <v>0.9997986236941824</v>
+        <v>0.9937822030084729</v>
       </c>
       <c r="N11">
-        <v>1.000206471215795</v>
+        <v>1.004145199699735</v>
       </c>
       <c r="O11">
-        <v>1.000077427925099</v>
+        <v>1.001554451581279</v>
       </c>
       <c r="P11">
-        <v>0.9998838599899371</v>
+        <v>0.9976683272948759</v>
       </c>
       <c r="Q11">
-        <v>1.000005438841273</v>
+        <v>1.000109197300463</v>
       </c>
       <c r="R11">
-        <v>0.999991397065223</v>
+        <v>0.9998272847631622</v>
       </c>
       <c r="S11">
-        <v>0.9999003899124409</v>
+        <v>0.9980001992031332</v>
       </c>
       <c r="T11">
-        <v>0.999991397065223</v>
+        <v>0.9998272847631622</v>
       </c>
       <c r="U11">
-        <v>0.9999769102382794</v>
+        <v>0.9995364493272836</v>
       </c>
       <c r="V11">
-        <v>1.000022822433782</v>
+        <v>1.000458199401774</v>
       </c>
       <c r="W11">
-        <v>0.9999795890753266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>0.9995902290880698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9970808306423465</v>
+        <v>0.9979319386736822</v>
       </c>
       <c r="D12">
-        <v>1.004378756962693</v>
+        <v>1.000795157894735</v>
       </c>
       <c r="E12">
-        <v>0.9989053112400395</v>
+        <v>1.001180623094735</v>
       </c>
       <c r="F12">
-        <v>0.9970808306423465</v>
+        <v>0.999316560294738</v>
       </c>
       <c r="G12">
-        <v>1.000940888441988</v>
+        <v>1.002120418315791</v>
       </c>
       <c r="H12">
-        <v>0.9983746458611055</v>
+        <v>1.002120418315791</v>
       </c>
       <c r="I12">
-        <v>0.9970808306423465</v>
+        <v>1.002120418315791</v>
       </c>
       <c r="J12">
-        <v>1.004378756962693</v>
+        <v>0.996819377452632</v>
       </c>
       <c r="K12">
-        <v>1.000875756168799</v>
+        <v>1.000795157894735</v>
       </c>
       <c r="L12">
-        <v>0.9989053112400395</v>
+        <v>0.9993638750000002</v>
       </c>
       <c r="M12">
-        <v>1.002847092345366</v>
+        <v>0.996819377452632</v>
       </c>
       <c r="N12">
-        <v>0.9970808306423465</v>
+        <v>1.002120418315791</v>
       </c>
       <c r="O12">
-        <v>0.9989053112400395</v>
+        <v>1.000795157894735</v>
       </c>
       <c r="P12">
-        <v>1.001642034101366</v>
+        <v>0.9988072676736837</v>
       </c>
       <c r="Q12">
-        <v>0.9999230998410136</v>
+        <v>1.000055859094737</v>
       </c>
       <c r="R12">
-        <v>1.00012163294836</v>
+        <v>0.9999116512210526</v>
       </c>
       <c r="S12">
-        <v>1.001408318881573</v>
+        <v>0.9989770318807017</v>
       </c>
       <c r="T12">
-        <v>1.00012163294836</v>
+        <v>0.9999116512210526</v>
       </c>
       <c r="U12">
-        <v>1.000326446821767</v>
+        <v>0.999762878489474</v>
       </c>
       <c r="V12">
-        <v>0.9996773235858827</v>
+        <v>1.000234386454737</v>
       </c>
       <c r="W12">
-        <v>1.000288574112797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>0.999790388577631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9992430463620008</v>
+        <v>1.001272453161979</v>
       </c>
       <c r="D13">
-        <v>1.001135432739273</v>
+        <v>0.9995107518680331</v>
       </c>
       <c r="E13">
-        <v>0.9997161448516948</v>
+        <v>0.9992735780217908</v>
       </c>
       <c r="F13">
-        <v>0.9992430463620008</v>
+        <v>1.000420512858698</v>
       </c>
       <c r="G13">
-        <v>1.00024397552549</v>
+        <v>0.9986953297150269</v>
       </c>
       <c r="H13">
-        <v>0.9995785398723016</v>
+        <v>0.9986953297150269</v>
       </c>
       <c r="I13">
-        <v>0.9992430463620008</v>
+        <v>0.9986953297150269</v>
       </c>
       <c r="J13">
-        <v>1.001135432739273</v>
+        <v>1.001957006806803</v>
       </c>
       <c r="K13">
-        <v>1.000227084232532</v>
+        <v>0.9995107518680331</v>
       </c>
       <c r="L13">
-        <v>0.9997161448516948</v>
+        <v>1.000391400560306</v>
       </c>
       <c r="M13">
-        <v>1.00073826489823</v>
+        <v>1.001957006806803</v>
       </c>
       <c r="N13">
-        <v>0.9992430463620008</v>
+        <v>0.9986953297150269</v>
       </c>
       <c r="O13">
-        <v>0.9997161448516948</v>
+        <v>0.9995107518680331</v>
       </c>
       <c r="P13">
-        <v>1.000425788795484</v>
+        <v>1.000733879337418</v>
       </c>
       <c r="Q13">
-        <v>0.9999800601885922</v>
+        <v>0.9999656323633658</v>
       </c>
       <c r="R13">
-        <v>1.000031541317656</v>
+        <v>1.000054362796621</v>
       </c>
       <c r="S13">
-        <v>1.000365184372152</v>
+        <v>1.000629423844511</v>
       </c>
       <c r="T13">
-        <v>1.000031541317656</v>
+        <v>1.000054362796621</v>
       </c>
       <c r="U13">
-        <v>1.000084649869615</v>
+        <v>1.00014590031214</v>
       </c>
       <c r="V13">
-        <v>0.9999163291680919</v>
+        <v>0.9998557861927179</v>
       </c>
       <c r="W13">
-        <v>1.000074829166652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>1.000128973107584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9908669918749206</v>
+        <v>0.98882193</v>
       </c>
       <c r="D14">
-        <v>1.013699514431958</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="E14">
-        <v>0.9965751229547051</v>
+        <v>1.0063814</v>
       </c>
       <c r="F14">
-        <v>0.9908669918749206</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="G14">
-        <v>1.002943705244637</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="H14">
-        <v>0.9949148629930721</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="I14">
-        <v>0.9908669918749206</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="J14">
-        <v>1.013699514431958</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="K14">
-        <v>1.002739911460916</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="L14">
-        <v>0.9965751229547051</v>
+        <v>0.9965616799999996</v>
       </c>
       <c r="M14">
-        <v>1.008907501679288</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="N14">
-        <v>0.9908669918749206</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="O14">
-        <v>0.9965751229547051</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="P14">
-        <v>1.005137318693332</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="Q14">
-        <v>0.999759414099671</v>
+        <v>1.000301919999999</v>
       </c>
       <c r="R14">
-        <v>1.000380543087195</v>
+        <v>0.9995224699999992</v>
       </c>
       <c r="S14">
-        <v>1.004406114210433</v>
+        <v>0.9944707499999992</v>
       </c>
       <c r="T14">
-        <v>1.000380543087195</v>
+        <v>0.9995224699999992</v>
       </c>
       <c r="U14">
-        <v>1.001021333626555</v>
+        <v>0.9987183374999993</v>
       </c>
       <c r="V14">
-        <v>0.9989904652762283</v>
+        <v>1.001266889999999</v>
       </c>
       <c r="W14">
-        <v>1.000902841699275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0.9988670324999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9975618342489865</v>
+        <v>0.98882265</v>
       </c>
       <c r="D15">
-        <v>1.003657238162348</v>
+        <v>1.0042976</v>
       </c>
       <c r="E15">
-        <v>0.9990856931637707</v>
+        <v>1.006381</v>
       </c>
       <c r="F15">
-        <v>0.9975618342489865</v>
+        <v>0.9963061799999999</v>
       </c>
       <c r="G15">
-        <v>1.000785853887772</v>
+        <v>1.0114603</v>
       </c>
       <c r="H15">
-        <v>0.9986424677754205</v>
+        <v>1.0114603</v>
       </c>
       <c r="I15">
-        <v>0.9975618342489865</v>
+        <v>1.0114603</v>
       </c>
       <c r="J15">
-        <v>1.003657238162348</v>
+        <v>0.9828095100000001</v>
       </c>
       <c r="K15">
-        <v>1.000731446857422</v>
+        <v>1.0042976</v>
       </c>
       <c r="L15">
-        <v>0.9990856931637707</v>
+        <v>0.9965619</v>
       </c>
       <c r="M15">
-        <v>1.002377958398027</v>
+        <v>0.9828095100000001</v>
       </c>
       <c r="N15">
-        <v>0.9975618342489865</v>
+        <v>1.0114603</v>
       </c>
       <c r="O15">
-        <v>0.9990856931637707</v>
+        <v>1.0042976</v>
       </c>
       <c r="P15">
-        <v>1.001371465663059</v>
+        <v>0.993553555</v>
       </c>
       <c r="Q15">
-        <v>0.9999357735257715</v>
+        <v>1.00030189</v>
       </c>
       <c r="R15">
-        <v>1.000101588525035</v>
+        <v>0.9995224699999999</v>
       </c>
       <c r="S15">
-        <v>1.001176261737964</v>
+        <v>0.9944710966666666</v>
       </c>
       <c r="T15">
-        <v>1.000101588525035</v>
+        <v>0.9995224699999999</v>
       </c>
       <c r="U15">
-        <v>1.000272654865719</v>
+        <v>0.9987183974999999</v>
       </c>
       <c r="V15">
-        <v>0.9997304907423727</v>
+        <v>1.001266778</v>
       </c>
       <c r="W15">
-        <v>1.00024102320719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>0.9988670924999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000769273352</v>
+        <v>0.97019181</v>
       </c>
       <c r="D16">
-        <v>0.9999988471821395</v>
+        <v>1.0114611</v>
       </c>
       <c r="E16">
-        <v>1.000000290764242</v>
+        <v>1.017017</v>
       </c>
       <c r="F16">
-        <v>1.000000769273352</v>
+        <v>0.99014917</v>
       </c>
       <c r="G16">
-        <v>0.9999997512126493</v>
+        <v>1.0305628</v>
       </c>
       <c r="H16">
-        <v>1.000000429841278</v>
+        <v>1.0305628</v>
       </c>
       <c r="I16">
-        <v>1.000000769273352</v>
+        <v>1.0305628</v>
       </c>
       <c r="J16">
-        <v>0.9999988471821395</v>
+        <v>0.95415576</v>
       </c>
       <c r="K16">
-        <v>0.9999997687220961</v>
+        <v>1.0114611</v>
       </c>
       <c r="L16">
-        <v>1.000000290764242</v>
+        <v>0.9908311499999999</v>
       </c>
       <c r="M16">
-        <v>0.9999992487896084</v>
+        <v>0.95415576</v>
       </c>
       <c r="N16">
-        <v>1.000000769273352</v>
+        <v>1.0305628</v>
       </c>
       <c r="O16">
-        <v>1.000000290764242</v>
+        <v>1.0114611</v>
       </c>
       <c r="P16">
-        <v>0.9999995689731906</v>
+        <v>0.98280843</v>
       </c>
       <c r="Q16">
-        <v>1.000000020988446</v>
+        <v>1.000805135</v>
       </c>
       <c r="R16">
-        <v>0.9999999690732445</v>
+        <v>0.9987265533333334</v>
       </c>
       <c r="S16">
-        <v>0.9999996297196768</v>
+        <v>0.9852553433333333</v>
       </c>
       <c r="T16">
-        <v>0.9999999690732445</v>
+        <v>0.9987265533333334</v>
       </c>
       <c r="U16">
-        <v>0.9999999146080957</v>
+        <v>0.9965822075</v>
       </c>
       <c r="V16">
-        <v>1.000000085541147</v>
+        <v>1.003378326</v>
       </c>
       <c r="W16">
-        <v>0.9999999245687009</v>
+        <v>0.99697873625</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016285906907</v>
+        <v>0.99930177</v>
       </c>
       <c r="D17">
-        <v>0.9999755724252005</v>
+        <v>1.0002685</v>
       </c>
       <c r="E17">
-        <v>1.000006109571291</v>
+        <v>1.0003986</v>
       </c>
       <c r="F17">
-        <v>1.000016285906907</v>
+        <v>0.9997692500000001</v>
       </c>
       <c r="G17">
-        <v>0.9999947501442399</v>
+        <v>1.0007159</v>
       </c>
       <c r="H17">
-        <v>1.000009069035878</v>
+        <v>1.0007159</v>
       </c>
       <c r="I17">
-        <v>1.000016285906907</v>
+        <v>1.0007159</v>
       </c>
       <c r="J17">
-        <v>0.9999755724252005</v>
+        <v>0.99892615</v>
       </c>
       <c r="K17">
-        <v>0.9999951135520365</v>
+        <v>1.0002685</v>
       </c>
       <c r="L17">
-        <v>1.000006109571291</v>
+        <v>0.99978523</v>
       </c>
       <c r="M17">
-        <v>0.9999841155573962</v>
+        <v>0.99892615</v>
       </c>
       <c r="N17">
-        <v>1.000016285906907</v>
+        <v>1.0007159</v>
       </c>
       <c r="O17">
-        <v>1.000006109571291</v>
+        <v>1.0002685</v>
       </c>
       <c r="P17">
-        <v>0.9999908409982456</v>
+        <v>0.999597325</v>
       </c>
       <c r="Q17">
-        <v>1.000000429857765</v>
+        <v>1.000018875</v>
       </c>
       <c r="R17">
-        <v>0.9999993226344662</v>
+        <v>0.9999701833333333</v>
       </c>
       <c r="S17">
-        <v>0.9999921440469105</v>
+        <v>0.9996546333333334</v>
       </c>
       <c r="T17">
-        <v>0.9999993226344661</v>
+        <v>0.9999701833333333</v>
       </c>
       <c r="U17">
-        <v>0.9999981795119095</v>
+        <v>0.99991995</v>
       </c>
       <c r="V17">
-        <v>1.000001800790909</v>
+        <v>1.00007914</v>
       </c>
       <c r="W17">
-        <v>0.99999839072053</v>
+        <v>0.9999292375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057337936286</v>
+        <v>0.9957125267123289</v>
       </c>
       <c r="D18">
-        <v>0.9999139986916815</v>
+        <v>1.001648512328767</v>
       </c>
       <c r="E18">
-        <v>1.000021501952415</v>
+        <v>1.002447643835616</v>
       </c>
       <c r="F18">
-        <v>1.000057337936286</v>
+        <v>0.9985831019178081</v>
       </c>
       <c r="G18">
-        <v>0.9999815162149448</v>
+        <v>1.00439602</v>
       </c>
       <c r="H18">
-        <v>1.00003192741872</v>
+        <v>1.00439602</v>
       </c>
       <c r="I18">
-        <v>1.000057337936286</v>
+        <v>1.00439602</v>
       </c>
       <c r="J18">
-        <v>0.9999139986916815</v>
+        <v>0.9934059826027396</v>
       </c>
       <c r="K18">
-        <v>0.9999827969982155</v>
+        <v>1.001648512328767</v>
       </c>
       <c r="L18">
-        <v>1.000021501952415</v>
+        <v>0.9986811901369869</v>
       </c>
       <c r="M18">
-        <v>0.9999440805489908</v>
+        <v>0.9934059826027396</v>
       </c>
       <c r="N18">
-        <v>1.000057337936286</v>
+        <v>1.00439602</v>
       </c>
       <c r="O18">
-        <v>1.000021501952415</v>
+        <v>1.001648512328767</v>
       </c>
       <c r="P18">
-        <v>0.9999677503220483</v>
+        <v>0.9975272474657533</v>
       </c>
       <c r="Q18">
-        <v>1.00000150908368</v>
+        <v>1.000115807123288</v>
       </c>
       <c r="R18">
-        <v>0.9999976128601274</v>
+        <v>0.9998168383105023</v>
       </c>
       <c r="S18">
-        <v>0.9999723389530137</v>
+        <v>0.9978791989497715</v>
       </c>
       <c r="T18">
-        <v>0.9999976128601276</v>
+        <v>0.9998168383105023</v>
       </c>
       <c r="U18">
-        <v>0.9999935886988318</v>
+        <v>0.9995084042123287</v>
       </c>
       <c r="V18">
-        <v>1.000006338546322</v>
+        <v>1.000485927369863</v>
       </c>
       <c r="W18">
-        <v>0.9999943327142086</v>
+        <v>0.9995654362328767</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000134321740851</v>
+        <v>0.9949505052631576</v>
       </c>
       <c r="D19">
-        <v>0.9997985254124184</v>
+        <v>1.001941502105263</v>
       </c>
       <c r="E19">
-        <v>1.00005037065178</v>
+        <v>1.002882672105263</v>
       </c>
       <c r="F19">
-        <v>1.000134321740851</v>
+        <v>0.9983312736842104</v>
       </c>
       <c r="G19">
-        <v>0.9999567049042736</v>
+        <v>1.005177319473684</v>
       </c>
       <c r="H19">
-        <v>1.000074784843175</v>
+        <v>1.005177319473684</v>
       </c>
       <c r="I19">
-        <v>1.000134321740851</v>
+        <v>1.005177319473684</v>
       </c>
       <c r="J19">
-        <v>0.9997985254124184</v>
+        <v>0.9922340194736842</v>
       </c>
       <c r="K19">
-        <v>0.999959697060284</v>
+        <v>1.001941502105263</v>
       </c>
       <c r="L19">
-        <v>1.00005037065178</v>
+        <v>0.9984468078947368</v>
       </c>
       <c r="M19">
-        <v>0.9998689914530273</v>
+        <v>0.9922340194736842</v>
       </c>
       <c r="N19">
-        <v>1.000134321740851</v>
+        <v>1.005177319473684</v>
       </c>
       <c r="O19">
-        <v>1.00005037065178</v>
+        <v>1.001941502105263</v>
       </c>
       <c r="P19">
-        <v>0.999924448032099</v>
+        <v>0.9970877607894737</v>
       </c>
       <c r="Q19">
-        <v>1.000003537778027</v>
+        <v>1.000136387894737</v>
       </c>
       <c r="R19">
-        <v>0.9999944059350163</v>
+        <v>0.9997842803508771</v>
       </c>
       <c r="S19">
-        <v>0.9999352003228239</v>
+        <v>0.9975022650877192</v>
       </c>
       <c r="T19">
-        <v>0.9999944059350163</v>
+        <v>0.9997842803508771</v>
       </c>
       <c r="U19">
-        <v>0.9999849806773307</v>
+        <v>0.9994210286842103</v>
       </c>
       <c r="V19">
-        <v>1.000014848890035</v>
+        <v>1.000572286842105</v>
       </c>
       <c r="W19">
-        <v>0.9999867208396986</v>
+        <v>0.9994882002631578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9888219489473685</v>
+      </c>
+      <c r="D20">
+        <v>1.004297889473684</v>
+      </c>
+      <c r="E20">
+        <v>1.006381368421053</v>
+      </c>
+      <c r="F20">
+        <v>0.9963059457894737</v>
+      </c>
+      <c r="G20">
+        <v>1.011461047368421</v>
+      </c>
+      <c r="H20">
+        <v>1.011461047368421</v>
+      </c>
+      <c r="I20">
+        <v>1.011461047368421</v>
+      </c>
+      <c r="J20">
+        <v>0.9828084389473684</v>
+      </c>
+      <c r="K20">
+        <v>1.004297889473684</v>
+      </c>
+      <c r="L20">
+        <v>0.9965616873684211</v>
+      </c>
+      <c r="M20">
+        <v>0.9828084389473684</v>
+      </c>
+      <c r="N20">
+        <v>1.011461047368421</v>
+      </c>
+      <c r="O20">
+        <v>1.004297889473684</v>
+      </c>
+      <c r="P20">
+        <v>0.9935531642105261</v>
+      </c>
+      <c r="Q20">
+        <v>1.000301917631579</v>
+      </c>
+      <c r="R20">
+        <v>0.9995224585964912</v>
+      </c>
+      <c r="S20">
+        <v>0.9944707580701753</v>
+      </c>
+      <c r="T20">
+        <v>0.9995224585964912</v>
+      </c>
+      <c r="U20">
+        <v>0.9987183303947369</v>
+      </c>
+      <c r="V20">
+        <v>1.001266873789474</v>
+      </c>
+      <c r="W20">
+        <v>0.9988670269736841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.008907501679288</v>
+      </c>
+      <c r="D21">
+        <v>0.9965751229547051</v>
+      </c>
+      <c r="E21">
+        <v>0.9949148629930721</v>
+      </c>
+      <c r="F21">
+        <v>1.002943705244637</v>
+      </c>
+      <c r="G21">
+        <v>0.9908669918749206</v>
+      </c>
+      <c r="H21">
+        <v>0.9908669918749206</v>
+      </c>
+      <c r="I21">
+        <v>0.9908669918749206</v>
+      </c>
+      <c r="J21">
+        <v>1.013699514431958</v>
+      </c>
+      <c r="K21">
+        <v>0.9965751229547051</v>
+      </c>
+      <c r="L21">
+        <v>1.002739911460916</v>
+      </c>
+      <c r="M21">
+        <v>1.013699514431958</v>
+      </c>
+      <c r="N21">
+        <v>0.9908669918749206</v>
+      </c>
+      <c r="O21">
+        <v>0.9965751229547051</v>
+      </c>
+      <c r="P21">
+        <v>1.005137318693332</v>
+      </c>
+      <c r="Q21">
+        <v>0.999759414099671</v>
+      </c>
+      <c r="R21">
+        <v>1.000380543087195</v>
+      </c>
+      <c r="S21">
+        <v>1.004406114210433</v>
+      </c>
+      <c r="T21">
+        <v>1.000380543087195</v>
+      </c>
+      <c r="U21">
+        <v>1.001021333626555</v>
+      </c>
+      <c r="V21">
+        <v>0.9989904652762283</v>
+      </c>
+      <c r="W21">
+        <v>1.000902841699275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.002377958398027</v>
+      </c>
+      <c r="D22">
+        <v>0.9990856931637707</v>
+      </c>
+      <c r="E22">
+        <v>0.9986424677754205</v>
+      </c>
+      <c r="F22">
+        <v>1.000785853887772</v>
+      </c>
+      <c r="G22">
+        <v>0.9975618342489865</v>
+      </c>
+      <c r="H22">
+        <v>0.9975618342489865</v>
+      </c>
+      <c r="I22">
+        <v>0.9975618342489865</v>
+      </c>
+      <c r="J22">
+        <v>1.003657238162348</v>
+      </c>
+      <c r="K22">
+        <v>0.9990856931637707</v>
+      </c>
+      <c r="L22">
+        <v>1.000731446857422</v>
+      </c>
+      <c r="M22">
+        <v>1.003657238162348</v>
+      </c>
+      <c r="N22">
+        <v>0.9975618342489865</v>
+      </c>
+      <c r="O22">
+        <v>0.9990856931637707</v>
+      </c>
+      <c r="P22">
+        <v>1.001371465663059</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999357735257715</v>
+      </c>
+      <c r="R22">
+        <v>1.000101588525035</v>
+      </c>
+      <c r="S22">
+        <v>1.001176261737964</v>
+      </c>
+      <c r="T22">
+        <v>1.000101588525035</v>
+      </c>
+      <c r="U22">
+        <v>1.000272654865719</v>
+      </c>
+      <c r="V22">
+        <v>0.9997304907423727</v>
+      </c>
+      <c r="W22">
+        <v>1.00024102320719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.002847092345366</v>
+      </c>
+      <c r="D23">
+        <v>0.9989053112400395</v>
+      </c>
+      <c r="E23">
+        <v>0.9983746458611054</v>
+      </c>
+      <c r="F23">
+        <v>1.000940888441988</v>
+      </c>
+      <c r="G23">
+        <v>0.9970808306423465</v>
+      </c>
+      <c r="H23">
+        <v>0.9970808306423465</v>
+      </c>
+      <c r="I23">
+        <v>0.9970808306423465</v>
+      </c>
+      <c r="J23">
+        <v>1.004378756962693</v>
+      </c>
+      <c r="K23">
+        <v>0.9989053112400395</v>
+      </c>
+      <c r="L23">
+        <v>1.000875756168799</v>
+      </c>
+      <c r="M23">
+        <v>1.004378756962693</v>
+      </c>
+      <c r="N23">
+        <v>0.9970808306423465</v>
+      </c>
+      <c r="O23">
+        <v>0.9989053112400395</v>
+      </c>
+      <c r="P23">
+        <v>1.001642034101367</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999230998410136</v>
+      </c>
+      <c r="R23">
+        <v>1.00012163294836</v>
+      </c>
+      <c r="S23">
+        <v>1.001408318881573</v>
+      </c>
+      <c r="T23">
+        <v>1.00012163294836</v>
+      </c>
+      <c r="U23">
+        <v>1.000326446821767</v>
+      </c>
+      <c r="V23">
+        <v>0.9996773235858827</v>
+      </c>
+      <c r="W23">
+        <v>1.000288574112797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000738264898229</v>
+      </c>
+      <c r="D24">
+        <v>0.9997161448516948</v>
+      </c>
+      <c r="E24">
+        <v>0.9995785398723016</v>
+      </c>
+      <c r="F24">
+        <v>1.00024397552549</v>
+      </c>
+      <c r="G24">
+        <v>0.9992430463620008</v>
+      </c>
+      <c r="H24">
+        <v>0.9992430463620008</v>
+      </c>
+      <c r="I24">
+        <v>0.9992430463620008</v>
+      </c>
+      <c r="J24">
+        <v>1.001135432739273</v>
+      </c>
+      <c r="K24">
+        <v>0.9997161448516948</v>
+      </c>
+      <c r="L24">
+        <v>1.000227084232532</v>
+      </c>
+      <c r="M24">
+        <v>1.001135432739273</v>
+      </c>
+      <c r="N24">
+        <v>0.9992430463620008</v>
+      </c>
+      <c r="O24">
+        <v>0.9997161448516948</v>
+      </c>
+      <c r="P24">
+        <v>1.000425788795484</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999800601885922</v>
+      </c>
+      <c r="R24">
+        <v>1.000031541317656</v>
+      </c>
+      <c r="S24">
+        <v>1.000365184372152</v>
+      </c>
+      <c r="T24">
+        <v>1.000031541317656</v>
+      </c>
+      <c r="U24">
+        <v>1.000084649869615</v>
+      </c>
+      <c r="V24">
+        <v>0.9999163291680919</v>
+      </c>
+      <c r="W24">
+        <v>1.000074829166652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9912577489032748</v>
+      </c>
+      <c r="D25">
+        <v>1.003361344036506</v>
+      </c>
+      <c r="E25">
+        <v>1.004990798662719</v>
+      </c>
+      <c r="F25">
+        <v>0.9971109142421676</v>
+      </c>
+      <c r="G25">
+        <v>1.008963571411281</v>
+      </c>
+      <c r="H25">
+        <v>1.008963571411281</v>
+      </c>
+      <c r="I25">
+        <v>1.008963571411281</v>
+      </c>
+      <c r="J25">
+        <v>0.9865546416801377</v>
+      </c>
+      <c r="K25">
+        <v>1.003361344036506</v>
+      </c>
+      <c r="L25">
+        <v>0.997310927968344</v>
+      </c>
+      <c r="M25">
+        <v>0.9865546416801377</v>
+      </c>
+      <c r="N25">
+        <v>1.008963571411281</v>
+      </c>
+      <c r="O25">
+        <v>1.003361344036506</v>
+      </c>
+      <c r="P25">
+        <v>0.9949579928583216</v>
+      </c>
+      <c r="Q25">
+        <v>1.000236129139337</v>
+      </c>
+      <c r="R25">
+        <v>0.9996265190426415</v>
+      </c>
+      <c r="S25">
+        <v>0.9956756333196036</v>
+      </c>
+      <c r="T25">
+        <v>0.9996265190426415</v>
+      </c>
+      <c r="U25">
+        <v>0.9989976178425231</v>
+      </c>
+      <c r="V25">
+        <v>1.000990808556275</v>
+      </c>
+      <c r="W25">
+        <v>0.999113911367617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9976583419220311</v>
+      </c>
+      <c r="D26">
+        <v>1.000900357544309</v>
+      </c>
+      <c r="E26">
+        <v>1.001336806413155</v>
+      </c>
+      <c r="F26">
+        <v>0.9992261492913607</v>
+      </c>
+      <c r="G26">
+        <v>1.002400931228633</v>
+      </c>
+      <c r="H26">
+        <v>1.002400931228633</v>
+      </c>
+      <c r="I26">
+        <v>1.002400931228633</v>
+      </c>
+      <c r="J26">
+        <v>0.9963985948439751</v>
+      </c>
+      <c r="K26">
+        <v>1.000900357544309</v>
+      </c>
+      <c r="L26">
+        <v>0.9992797262495354</v>
+      </c>
+      <c r="M26">
+        <v>0.9963985948439751</v>
+      </c>
+      <c r="N26">
+        <v>1.002400931228633</v>
+      </c>
+      <c r="O26">
+        <v>1.000900357544309</v>
+      </c>
+      <c r="P26">
+        <v>0.998649476194142</v>
+      </c>
+      <c r="Q26">
+        <v>1.000063253417835</v>
+      </c>
+      <c r="R26">
+        <v>0.9998999612056388</v>
+      </c>
+      <c r="S26">
+        <v>0.9988417005598816</v>
+      </c>
+      <c r="T26">
+        <v>0.9998999612056388</v>
+      </c>
+      <c r="U26">
+        <v>0.9997315082270694</v>
+      </c>
+      <c r="V26">
+        <v>1.000265392827382</v>
+      </c>
+      <c r="W26">
+        <v>0.9997626581296635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9993337719523899</v>
+      </c>
+      <c r="D27">
+        <v>1.000256160934951</v>
+      </c>
+      <c r="E27">
+        <v>1.000380344031349</v>
+      </c>
+      <c r="F27">
+        <v>0.99977983307619</v>
+      </c>
+      <c r="G27">
+        <v>1.000683074075313</v>
+      </c>
+      <c r="H27">
+        <v>1.000683074075313</v>
+      </c>
+      <c r="I27">
+        <v>1.000683074075313</v>
+      </c>
+      <c r="J27">
+        <v>0.9989753808069527</v>
+      </c>
+      <c r="K27">
+        <v>1.000256160934951</v>
+      </c>
+      <c r="L27">
+        <v>0.9997950769216672</v>
+      </c>
+      <c r="M27">
+        <v>0.9989753808069527</v>
+      </c>
+      <c r="N27">
+        <v>1.000683074075313</v>
+      </c>
+      <c r="O27">
+        <v>1.000256160934951</v>
+      </c>
+      <c r="P27">
+        <v>0.9996157708709519</v>
+      </c>
+      <c r="Q27">
+        <v>1.000017997005571</v>
+      </c>
+      <c r="R27">
+        <v>0.999971538605739</v>
+      </c>
+      <c r="S27">
+        <v>0.999670458272698</v>
+      </c>
+      <c r="T27">
+        <v>0.9999715386057391</v>
+      </c>
+      <c r="U27">
+        <v>0.9999236122233518</v>
+      </c>
+      <c r="V27">
+        <v>1.000075504593744</v>
+      </c>
+      <c r="W27">
+        <v>0.9999324753417206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9988437151081667</v>
+      </c>
+      <c r="D28">
+        <v>1.00044457814031</v>
+      </c>
+      <c r="E28">
+        <v>1.000660113586864</v>
+      </c>
+      <c r="F28">
+        <v>0.9996178657133266</v>
+      </c>
+      <c r="G28">
+        <v>1.001185560934779</v>
+      </c>
+      <c r="H28">
+        <v>1.001185560934779</v>
+      </c>
+      <c r="I28">
+        <v>1.001185560934779</v>
+      </c>
+      <c r="J28">
+        <v>0.9982216587020751</v>
+      </c>
+      <c r="K28">
+        <v>1.00044457814031</v>
+      </c>
+      <c r="L28">
+        <v>0.999644318592302</v>
+      </c>
+      <c r="M28">
+        <v>0.9982216587020751</v>
+      </c>
+      <c r="N28">
+        <v>1.001185560934779</v>
+      </c>
+      <c r="O28">
+        <v>1.00044457814031</v>
+      </c>
+      <c r="P28">
+        <v>0.9993331184211927</v>
+      </c>
+      <c r="Q28">
+        <v>1.000031221926818</v>
+      </c>
+      <c r="R28">
+        <v>0.9999505992590546</v>
+      </c>
+      <c r="S28">
+        <v>0.9994280341852373</v>
+      </c>
+      <c r="T28">
+        <v>0.9999505992590546</v>
+      </c>
+      <c r="U28">
+        <v>0.9998674158726226</v>
+      </c>
+      <c r="V28">
+        <v>1.000131044885054</v>
+      </c>
+      <c r="W28">
+        <v>0.9998827986147667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000971226235021</v>
+      </c>
+      <c r="D29">
+        <v>0.9996265566151757</v>
+      </c>
+      <c r="E29">
+        <v>0.9994455446021816</v>
+      </c>
+      <c r="F29">
+        <v>1.00032094964043</v>
+      </c>
+      <c r="G29">
+        <v>0.9990041654682281</v>
+      </c>
+      <c r="H29">
+        <v>0.9990041654682281</v>
+      </c>
+      <c r="I29">
+        <v>0.9990041654682281</v>
+      </c>
+      <c r="J29">
+        <v>1.001493735622002</v>
+      </c>
+      <c r="K29">
+        <v>0.9996265566151757</v>
+      </c>
+      <c r="L29">
+        <v>1.00029873307691</v>
+      </c>
+      <c r="M29">
+        <v>1.001493735622002</v>
+      </c>
+      <c r="N29">
+        <v>0.9990041654682281</v>
+      </c>
+      <c r="O29">
+        <v>0.9996265566151757</v>
+      </c>
+      <c r="P29">
+        <v>1.000560146118589</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999737531278028</v>
+      </c>
+      <c r="R29">
+        <v>1.000041485901802</v>
+      </c>
+      <c r="S29">
+        <v>1.000480413959202</v>
+      </c>
+      <c r="T29">
+        <v>1.000041485901802</v>
+      </c>
+      <c r="U29">
+        <v>1.000111351836459</v>
+      </c>
+      <c r="V29">
+        <v>0.9998899145628126</v>
+      </c>
+      <c r="W29">
+        <v>1.000098433484391</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9959573376025371</v>
+        <v>0.9984268265051536</v>
       </c>
       <c r="D4">
-        <v>1.001554381646935</v>
+        <v>1.000604876613467</v>
       </c>
       <c r="E4">
-        <v>1.002307886161784</v>
+        <v>1.000898099160029</v>
       </c>
       <c r="F4">
-        <v>0.9986640049994977</v>
+        <v>0.9994801070681794</v>
       </c>
       <c r="G4">
-        <v>1.004145007382098</v>
+        <v>1.001613000642363</v>
       </c>
       <c r="H4">
-        <v>1.004145007382098</v>
+        <v>1.001613000642363</v>
       </c>
       <c r="I4">
-        <v>1.004145007382098</v>
+        <v>1.001613000642363</v>
       </c>
       <c r="J4">
-        <v>0.9937824897804316</v>
+        <v>0.9975805017029581</v>
       </c>
       <c r="K4">
-        <v>1.001554381646935</v>
+        <v>1.000604876613467</v>
       </c>
       <c r="L4">
-        <v>0.9987564971856369</v>
+        <v>0.9995160998379862</v>
       </c>
       <c r="M4">
-        <v>0.9937824897804316</v>
+        <v>0.9975805017029581</v>
       </c>
       <c r="N4">
-        <v>1.004145007382098</v>
+        <v>1.001613000642363</v>
       </c>
       <c r="O4">
-        <v>1.001554381646935</v>
+        <v>1.000604876613467</v>
       </c>
       <c r="P4">
-        <v>0.9976684357136831</v>
+        <v>0.9990926891582128</v>
       </c>
       <c r="Q4">
-        <v>1.000109193323216</v>
+        <v>1.000042491840823</v>
       </c>
       <c r="R4">
-        <v>0.9998272929364881</v>
+        <v>0.9999327929862628</v>
       </c>
       <c r="S4">
-        <v>0.998000292142288</v>
+        <v>0.999221828461535</v>
       </c>
       <c r="T4">
-        <v>0.9998272929364882</v>
+        <v>0.9999327929862627</v>
       </c>
       <c r="U4">
-        <v>0.9995364709522405</v>
+        <v>0.9998196215067419</v>
       </c>
       <c r="V4">
-        <v>1.000458178238212</v>
+        <v>1.000178297333866</v>
       </c>
       <c r="W4">
-        <v>0.9995902483007318</v>
+        <v>0.9998405485179505</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9979725641930818</v>
+        <v>0.9888219340638643</v>
       </c>
       <c r="D5">
-        <v>1.000779537838619</v>
+        <v>1.004297895656907</v>
       </c>
       <c r="E5">
-        <v>1.001157430561959</v>
+        <v>1.00638137480451</v>
       </c>
       <c r="F5">
-        <v>0.9993299852521608</v>
+        <v>0.9963059408538191</v>
       </c>
       <c r="G5">
-        <v>1.002078764481271</v>
+        <v>1.011461061223646</v>
       </c>
       <c r="H5">
-        <v>1.002078764481271</v>
+        <v>1.011461061223646</v>
       </c>
       <c r="I5">
-        <v>1.002078764481271</v>
+        <v>1.011461061223646</v>
       </c>
       <c r="J5">
-        <v>0.9968818577017274</v>
+        <v>0.9828084162066943</v>
       </c>
       <c r="K5">
-        <v>1.000779537838619</v>
+        <v>1.004297895656907</v>
       </c>
       <c r="L5">
-        <v>0.9993763708933716</v>
+        <v>0.9965616828357537</v>
       </c>
       <c r="M5">
-        <v>0.9968818577017274</v>
+        <v>0.9828084162066943</v>
       </c>
       <c r="N5">
-        <v>1.002078764481271</v>
+        <v>1.011461061223646</v>
       </c>
       <c r="O5">
-        <v>1.000779537838619</v>
+        <v>1.004297895656907</v>
       </c>
       <c r="P5">
-        <v>0.9988306977701731</v>
+        <v>0.9935531559318007</v>
       </c>
       <c r="Q5">
-        <v>1.00005476154539</v>
+        <v>1.000301918255363</v>
       </c>
       <c r="R5">
-        <v>0.9999133866738724</v>
+        <v>0.9995224576957492</v>
       </c>
       <c r="S5">
-        <v>0.9989971269308356</v>
+        <v>0.9944707509058069</v>
       </c>
       <c r="T5">
-        <v>0.9999133866738724</v>
+        <v>0.9995224576957492</v>
       </c>
       <c r="U5">
-        <v>0.9997675363184445</v>
+        <v>0.9987183284852668</v>
       </c>
       <c r="V5">
-        <v>1.00022978195101</v>
+        <v>1.001266875032943</v>
       </c>
       <c r="W5">
-        <v>0.9997945060951012</v>
+        <v>0.9988670251627628</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9936248108916614</v>
+        <v>0.9959573376025371</v>
       </c>
       <c r="D6">
-        <v>1.002451221859198</v>
+        <v>1.001554381646935</v>
       </c>
       <c r="E6">
-        <v>1.003639502389538</v>
+        <v>1.002307886161784</v>
       </c>
       <c r="F6">
-        <v>0.9978931665942066</v>
+        <v>0.9986640049994977</v>
       </c>
       <c r="G6">
-        <v>1.006536606711286</v>
+        <v>1.004145007382098</v>
       </c>
       <c r="H6">
-        <v>1.006536606711286</v>
+        <v>1.004145007382098</v>
       </c>
       <c r="I6">
-        <v>1.006536606711286</v>
+        <v>1.004145007382098</v>
       </c>
       <c r="J6">
-        <v>0.9901951214359264</v>
+        <v>0.9937824897804316</v>
       </c>
       <c r="K6">
-        <v>1.002451221859198</v>
+        <v>1.001554381646935</v>
       </c>
       <c r="L6">
-        <v>0.9980390230441432</v>
+        <v>0.9987564971856369</v>
       </c>
       <c r="M6">
-        <v>0.9901951214359264</v>
+        <v>0.9937824897804316</v>
       </c>
       <c r="N6">
-        <v>1.006536606711286</v>
+        <v>1.004145007382098</v>
       </c>
       <c r="O6">
-        <v>1.002451221859198</v>
+        <v>1.001554381646935</v>
       </c>
       <c r="P6">
-        <v>0.996323171647562</v>
+        <v>0.9976684357136831</v>
       </c>
       <c r="Q6">
-        <v>1.000172194226702</v>
+        <v>1.000109193323216</v>
       </c>
       <c r="R6">
-        <v>0.9997276500021366</v>
+        <v>0.9998272929364881</v>
       </c>
       <c r="S6">
-        <v>0.9968465032964436</v>
+        <v>0.998000292142288</v>
       </c>
       <c r="T6">
-        <v>0.9997276500021366</v>
+        <v>0.9998272929364882</v>
       </c>
       <c r="U6">
-        <v>0.999269029150154</v>
+        <v>0.9995364709522405</v>
       </c>
       <c r="V6">
-        <v>1.00072254466238</v>
+        <v>1.000458178238212</v>
       </c>
       <c r="W6">
-        <v>0.9993538343481446</v>
+        <v>0.9995902483007318</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997617785796874</v>
+        <v>0.9979725641930818</v>
       </c>
       <c r="D7">
-        <v>1.000091596767163</v>
+        <v>1.000779537838619</v>
       </c>
       <c r="E7">
-        <v>1.000135996936881</v>
+        <v>1.001157430561959</v>
       </c>
       <c r="F7">
-        <v>0.9999212728810909</v>
+        <v>0.9993299852521608</v>
       </c>
       <c r="G7">
-        <v>1.000244251350679</v>
+        <v>1.002078764481271</v>
       </c>
       <c r="H7">
-        <v>1.000244251350679</v>
+        <v>1.002078764481271</v>
       </c>
       <c r="I7">
-        <v>1.000244251350679</v>
+        <v>1.002078764481271</v>
       </c>
       <c r="J7">
-        <v>0.9996336241031709</v>
+        <v>0.9968818577017274</v>
       </c>
       <c r="K7">
-        <v>1.000091596767163</v>
+        <v>1.000779537838619</v>
       </c>
       <c r="L7">
-        <v>0.9999267240127453</v>
+        <v>0.9993763708933716</v>
       </c>
       <c r="M7">
-        <v>0.9996336241031709</v>
+        <v>0.9968818577017274</v>
       </c>
       <c r="N7">
-        <v>1.000244251350679</v>
+        <v>1.002078764481271</v>
       </c>
       <c r="O7">
-        <v>1.000091596767163</v>
+        <v>1.000779537838619</v>
       </c>
       <c r="P7">
-        <v>0.9998626104351668</v>
+        <v>0.9988306977701731</v>
       </c>
       <c r="Q7">
-        <v>1.000006434824127</v>
+        <v>1.00005476154539</v>
       </c>
       <c r="R7">
-        <v>0.9999898240736708</v>
+        <v>0.9999133866738724</v>
       </c>
       <c r="S7">
-        <v>0.9998821645838082</v>
+        <v>0.9989971269308356</v>
       </c>
       <c r="T7">
-        <v>0.9999898240736708</v>
+        <v>0.9999133866738724</v>
       </c>
       <c r="U7">
-        <v>0.9999726862755258</v>
+        <v>0.9997675363184445</v>
       </c>
       <c r="V7">
-        <v>1.000026999290556</v>
+        <v>1.00022978195101</v>
       </c>
       <c r="W7">
-        <v>0.9999758551748225</v>
+        <v>0.9997945060951012</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999841155573962</v>
+        <v>0.9936248108916614</v>
       </c>
       <c r="D8">
-        <v>1.000006109571291</v>
+        <v>1.002451221859198</v>
       </c>
       <c r="E8">
-        <v>1.000009069035878</v>
+        <v>1.003639502389538</v>
       </c>
       <c r="F8">
-        <v>0.9999947501442398</v>
+        <v>0.9978931665942066</v>
       </c>
       <c r="G8">
-        <v>1.000016285906907</v>
+        <v>1.006536606711286</v>
       </c>
       <c r="H8">
-        <v>1.000016285906907</v>
+        <v>1.006536606711286</v>
       </c>
       <c r="I8">
-        <v>1.000016285906907</v>
+        <v>1.006536606711286</v>
       </c>
       <c r="J8">
-        <v>0.9999755724252004</v>
+        <v>0.9901951214359264</v>
       </c>
       <c r="K8">
-        <v>1.000006109571291</v>
+        <v>1.002451221859198</v>
       </c>
       <c r="L8">
-        <v>0.9999951135520365</v>
+        <v>0.9980390230441432</v>
       </c>
       <c r="M8">
-        <v>0.9999755724252004</v>
+        <v>0.9901951214359264</v>
       </c>
       <c r="N8">
-        <v>1.000016285906907</v>
+        <v>1.006536606711286</v>
       </c>
       <c r="O8">
-        <v>1.000006109571291</v>
+        <v>1.002451221859198</v>
       </c>
       <c r="P8">
-        <v>0.9999908409982456</v>
+        <v>0.996323171647562</v>
       </c>
       <c r="Q8">
-        <v>1.000000429857765</v>
+        <v>1.000172194226702</v>
       </c>
       <c r="R8">
-        <v>0.9999993226344662</v>
+        <v>0.9997276500021366</v>
       </c>
       <c r="S8">
-        <v>0.9999921440469103</v>
+        <v>0.9968465032964436</v>
       </c>
       <c r="T8">
-        <v>0.9999993226344662</v>
+        <v>0.9997276500021366</v>
       </c>
       <c r="U8">
-        <v>0.9999981795119096</v>
+        <v>0.999269029150154</v>
       </c>
       <c r="V8">
-        <v>1.000001800790909</v>
+        <v>1.00072254466238</v>
       </c>
       <c r="W8">
-        <v>0.9999983907205301</v>
+        <v>0.9993538343481446</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9996493779968117</v>
+        <v>0.9997617785796874</v>
       </c>
       <c r="D9">
-        <v>1.000134814174518</v>
+        <v>1.000091596767163</v>
       </c>
       <c r="E9">
-        <v>1.000200164915291</v>
+        <v>1.000135996936881</v>
       </c>
       <c r="F9">
-        <v>0.9998841283746424</v>
+        <v>0.9999212728810909</v>
       </c>
       <c r="G9">
-        <v>1.000359498003283</v>
+        <v>1.000244251350679</v>
       </c>
       <c r="H9">
-        <v>1.000359498003283</v>
+        <v>1.000244251350679</v>
       </c>
       <c r="I9">
-        <v>1.000359498003283</v>
+        <v>1.000244251350679</v>
       </c>
       <c r="J9">
-        <v>0.9994607565535595</v>
+        <v>0.9996336241031709</v>
       </c>
       <c r="K9">
-        <v>1.000134814174518</v>
+        <v>1.000091596767163</v>
       </c>
       <c r="L9">
-        <v>0.9998921495204363</v>
+        <v>0.9999267240127453</v>
       </c>
       <c r="M9">
-        <v>0.9994607565535595</v>
+        <v>0.9996336241031709</v>
       </c>
       <c r="N9">
-        <v>1.000359498003283</v>
+        <v>1.000244251350679</v>
       </c>
       <c r="O9">
-        <v>1.000134814174518</v>
+        <v>1.000091596767163</v>
       </c>
       <c r="P9">
-        <v>0.999797785364039</v>
+        <v>0.9998626104351668</v>
       </c>
       <c r="Q9">
-        <v>1.00000947127458</v>
+        <v>1.000006434824127</v>
       </c>
       <c r="R9">
-        <v>0.9999850229104537</v>
+        <v>0.9999898240736708</v>
       </c>
       <c r="S9">
-        <v>0.9998265663675734</v>
+        <v>0.9998821645838082</v>
       </c>
       <c r="T9">
-        <v>0.9999850229104537</v>
+        <v>0.9999898240736708</v>
       </c>
       <c r="U9">
-        <v>0.9999597992765008</v>
+        <v>0.9999726862755258</v>
       </c>
       <c r="V9">
-        <v>1.000039739021857</v>
+        <v>1.000026999290556</v>
       </c>
       <c r="W9">
-        <v>0.9999644629641324</v>
+        <v>0.9999758551748225</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9935301192588505</v>
+        <v>0.9999841155573962</v>
       </c>
       <c r="D10">
-        <v>1.002487630152626</v>
+        <v>1.000006109571291</v>
       </c>
       <c r="E10">
-        <v>1.003693560238825</v>
+        <v>1.000009069035878</v>
       </c>
       <c r="F10">
-        <v>0.997861873707111</v>
+        <v>0.9999947501442398</v>
       </c>
       <c r="G10">
-        <v>1.006633695178676</v>
+        <v>1.000016285906907</v>
       </c>
       <c r="H10">
-        <v>1.006633695178676</v>
+        <v>1.000016285906907</v>
       </c>
       <c r="I10">
-        <v>1.006633695178676</v>
+        <v>1.000016285906907</v>
       </c>
       <c r="J10">
-        <v>0.9900494887968512</v>
+        <v>0.9999755724252004</v>
       </c>
       <c r="K10">
-        <v>1.002487630152626</v>
+        <v>1.000006109571291</v>
       </c>
       <c r="L10">
-        <v>0.9980098966932309</v>
+        <v>0.9999951135520365</v>
       </c>
       <c r="M10">
-        <v>0.9900494887968512</v>
+        <v>0.9999755724252004</v>
       </c>
       <c r="N10">
-        <v>1.006633695178676</v>
+        <v>1.000016285906907</v>
       </c>
       <c r="O10">
-        <v>1.002487630152626</v>
+        <v>1.000006109571291</v>
       </c>
       <c r="P10">
-        <v>0.9962685594747387</v>
+        <v>0.9999908409982456</v>
       </c>
       <c r="Q10">
-        <v>1.000174751929868</v>
+        <v>1.000000429857765</v>
       </c>
       <c r="R10">
-        <v>0.9997236047093846</v>
+        <v>0.9999993226344662</v>
       </c>
       <c r="S10">
-        <v>0.9967996642188628</v>
+        <v>0.9999921440469103</v>
       </c>
       <c r="T10">
-        <v>0.9997236047093846</v>
+        <v>0.9999993226344662</v>
       </c>
       <c r="U10">
-        <v>0.9992581719588162</v>
+        <v>0.9999981795119096</v>
       </c>
       <c r="V10">
-        <v>1.000733276602788</v>
+        <v>1.000001800790909</v>
       </c>
       <c r="W10">
-        <v>0.9993442367723497</v>
+        <v>0.9999983907205301</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9959571517713504</v>
+        <v>0.9996493779968117</v>
       </c>
       <c r="D11">
-        <v>1.001554451581279</v>
+        <v>1.000134814174518</v>
       </c>
       <c r="E11">
-        <v>1.002307992589235</v>
+        <v>1.000200164915291</v>
       </c>
       <c r="F11">
-        <v>0.9986639430196479</v>
+        <v>0.9998841283746424</v>
       </c>
       <c r="G11">
-        <v>1.004145199699735</v>
+        <v>1.000359498003283</v>
       </c>
       <c r="H11">
-        <v>1.004145199699735</v>
+        <v>1.000359498003283</v>
       </c>
       <c r="I11">
-        <v>1.004145199699735</v>
+        <v>1.000359498003283</v>
       </c>
       <c r="J11">
-        <v>0.9937822030084729</v>
+        <v>0.9994607565535595</v>
       </c>
       <c r="K11">
-        <v>1.001554451581279</v>
+        <v>1.000134814174518</v>
       </c>
       <c r="L11">
-        <v>0.9987564394535601</v>
+        <v>0.9998921495204363</v>
       </c>
       <c r="M11">
-        <v>0.9937822030084729</v>
+        <v>0.9994607565535595</v>
       </c>
       <c r="N11">
-        <v>1.004145199699735</v>
+        <v>1.000359498003283</v>
       </c>
       <c r="O11">
-        <v>1.001554451581279</v>
+        <v>1.000134814174518</v>
       </c>
       <c r="P11">
-        <v>0.9976683272948759</v>
+        <v>0.999797785364039</v>
       </c>
       <c r="Q11">
-        <v>1.000109197300463</v>
+        <v>1.00000947127458</v>
       </c>
       <c r="R11">
-        <v>0.9998272847631622</v>
+        <v>0.9999850229104537</v>
       </c>
       <c r="S11">
-        <v>0.9980001992031332</v>
+        <v>0.9998265663675734</v>
       </c>
       <c r="T11">
-        <v>0.9998272847631622</v>
+        <v>0.9999850229104537</v>
       </c>
       <c r="U11">
-        <v>0.9995364493272836</v>
+        <v>0.9999597992765008</v>
       </c>
       <c r="V11">
-        <v>1.000458199401774</v>
+        <v>1.000039739021857</v>
       </c>
       <c r="W11">
-        <v>0.9995902290880698</v>
+        <v>0.9999644629641324</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9979319386736822</v>
+        <v>0.9935301192588505</v>
       </c>
       <c r="D12">
-        <v>1.000795157894735</v>
+        <v>1.002487630152626</v>
       </c>
       <c r="E12">
-        <v>1.001180623094735</v>
+        <v>1.003693560238825</v>
       </c>
       <c r="F12">
-        <v>0.999316560294738</v>
+        <v>0.997861873707111</v>
       </c>
       <c r="G12">
-        <v>1.002120418315791</v>
+        <v>1.006633695178676</v>
       </c>
       <c r="H12">
-        <v>1.002120418315791</v>
+        <v>1.006633695178676</v>
       </c>
       <c r="I12">
-        <v>1.002120418315791</v>
+        <v>1.006633695178676</v>
       </c>
       <c r="J12">
-        <v>0.996819377452632</v>
+        <v>0.9900494887968512</v>
       </c>
       <c r="K12">
-        <v>1.000795157894735</v>
+        <v>1.002487630152626</v>
       </c>
       <c r="L12">
-        <v>0.9993638750000002</v>
+        <v>0.9980098966932309</v>
       </c>
       <c r="M12">
-        <v>0.996819377452632</v>
+        <v>0.9900494887968512</v>
       </c>
       <c r="N12">
-        <v>1.002120418315791</v>
+        <v>1.006633695178676</v>
       </c>
       <c r="O12">
-        <v>1.000795157894735</v>
+        <v>1.002487630152626</v>
       </c>
       <c r="P12">
-        <v>0.9988072676736837</v>
+        <v>0.9962685594747387</v>
       </c>
       <c r="Q12">
-        <v>1.000055859094737</v>
+        <v>1.000174751929868</v>
       </c>
       <c r="R12">
-        <v>0.9999116512210526</v>
+        <v>0.9997236047093846</v>
       </c>
       <c r="S12">
-        <v>0.9989770318807017</v>
+        <v>0.9967996642188628</v>
       </c>
       <c r="T12">
-        <v>0.9999116512210526</v>
+        <v>0.9997236047093846</v>
       </c>
       <c r="U12">
-        <v>0.999762878489474</v>
+        <v>0.9992581719588162</v>
       </c>
       <c r="V12">
-        <v>1.000234386454737</v>
+        <v>1.000733276602788</v>
       </c>
       <c r="W12">
-        <v>0.999790388577631</v>
+        <v>0.9993442367723497</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001272453161979</v>
+        <v>0.9959571517713504</v>
       </c>
       <c r="D13">
-        <v>0.9995107518680331</v>
+        <v>1.001554451581279</v>
       </c>
       <c r="E13">
-        <v>0.9992735780217908</v>
+        <v>1.002307992589235</v>
       </c>
       <c r="F13">
-        <v>1.000420512858698</v>
+        <v>0.9986639430196479</v>
       </c>
       <c r="G13">
-        <v>0.9986953297150269</v>
+        <v>1.004145199699735</v>
       </c>
       <c r="H13">
-        <v>0.9986953297150269</v>
+        <v>1.004145199699735</v>
       </c>
       <c r="I13">
-        <v>0.9986953297150269</v>
+        <v>1.004145199699735</v>
       </c>
       <c r="J13">
-        <v>1.001957006806803</v>
+        <v>0.9937822030084729</v>
       </c>
       <c r="K13">
-        <v>0.9995107518680331</v>
+        <v>1.001554451581279</v>
       </c>
       <c r="L13">
-        <v>1.000391400560306</v>
+        <v>0.9987564394535601</v>
       </c>
       <c r="M13">
-        <v>1.001957006806803</v>
+        <v>0.9937822030084729</v>
       </c>
       <c r="N13">
-        <v>0.9986953297150269</v>
+        <v>1.004145199699735</v>
       </c>
       <c r="O13">
-        <v>0.9995107518680331</v>
+        <v>1.001554451581279</v>
       </c>
       <c r="P13">
-        <v>1.000733879337418</v>
+        <v>0.9976683272948759</v>
       </c>
       <c r="Q13">
-        <v>0.9999656323633658</v>
+        <v>1.000109197300463</v>
       </c>
       <c r="R13">
-        <v>1.000054362796621</v>
+        <v>0.9998272847631622</v>
       </c>
       <c r="S13">
-        <v>1.000629423844511</v>
+        <v>0.9980001992031332</v>
       </c>
       <c r="T13">
-        <v>1.000054362796621</v>
+        <v>0.9998272847631622</v>
       </c>
       <c r="U13">
-        <v>1.00014590031214</v>
+        <v>0.9995364493272836</v>
       </c>
       <c r="V13">
-        <v>0.9998557861927179</v>
+        <v>1.000458199401774</v>
       </c>
       <c r="W13">
-        <v>1.000128973107584</v>
+        <v>0.9995902290880698</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.98882193</v>
+        <v>0.9979319386736822</v>
       </c>
       <c r="D14">
-        <v>1.004297899999999</v>
+        <v>1.000795157894735</v>
       </c>
       <c r="E14">
-        <v>1.0063814</v>
+        <v>1.001180623094735</v>
       </c>
       <c r="F14">
-        <v>0.9963059399999995</v>
+        <v>0.999316560294738</v>
       </c>
       <c r="G14">
-        <v>1.011461099999999</v>
+        <v>1.002120418315791</v>
       </c>
       <c r="H14">
-        <v>1.011461099999999</v>
+        <v>1.002120418315791</v>
       </c>
       <c r="I14">
-        <v>1.011461099999999</v>
+        <v>1.002120418315791</v>
       </c>
       <c r="J14">
-        <v>0.9828084099999992</v>
+        <v>0.996819377452632</v>
       </c>
       <c r="K14">
-        <v>1.004297899999999</v>
+        <v>1.000795157894735</v>
       </c>
       <c r="L14">
-        <v>0.9965616799999996</v>
+        <v>0.9993638750000002</v>
       </c>
       <c r="M14">
-        <v>0.9828084099999992</v>
+        <v>0.996819377452632</v>
       </c>
       <c r="N14">
-        <v>1.011461099999999</v>
+        <v>1.002120418315791</v>
       </c>
       <c r="O14">
-        <v>1.004297899999999</v>
+        <v>1.000795157894735</v>
       </c>
       <c r="P14">
-        <v>0.9935531549999991</v>
+        <v>0.9988072676736837</v>
       </c>
       <c r="Q14">
-        <v>1.000301919999999</v>
+        <v>1.000055859094737</v>
       </c>
       <c r="R14">
-        <v>0.9995224699999992</v>
+        <v>0.9999116512210526</v>
       </c>
       <c r="S14">
-        <v>0.9944707499999992</v>
+        <v>0.9989770318807017</v>
       </c>
       <c r="T14">
-        <v>0.9995224699999992</v>
+        <v>0.9999116512210526</v>
       </c>
       <c r="U14">
-        <v>0.9987183374999993</v>
+        <v>0.999762878489474</v>
       </c>
       <c r="V14">
-        <v>1.001266889999999</v>
+        <v>1.000234386454737</v>
       </c>
       <c r="W14">
-        <v>0.9988670324999995</v>
+        <v>0.999790388577631</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.98882265</v>
+        <v>1.001272453161979</v>
       </c>
       <c r="D15">
-        <v>1.0042976</v>
+        <v>0.9995107518680331</v>
       </c>
       <c r="E15">
-        <v>1.006381</v>
+        <v>0.9992735780217908</v>
       </c>
       <c r="F15">
-        <v>0.9963061799999999</v>
+        <v>1.000420512858698</v>
       </c>
       <c r="G15">
-        <v>1.0114603</v>
+        <v>0.9986953297150269</v>
       </c>
       <c r="H15">
-        <v>1.0114603</v>
+        <v>0.9986953297150269</v>
       </c>
       <c r="I15">
-        <v>1.0114603</v>
+        <v>0.9986953297150269</v>
       </c>
       <c r="J15">
-        <v>0.9828095100000001</v>
+        <v>1.001957006806803</v>
       </c>
       <c r="K15">
-        <v>1.0042976</v>
+        <v>0.9995107518680331</v>
       </c>
       <c r="L15">
-        <v>0.9965619</v>
+        <v>1.000391400560306</v>
       </c>
       <c r="M15">
-        <v>0.9828095100000001</v>
+        <v>1.001957006806803</v>
       </c>
       <c r="N15">
-        <v>1.0114603</v>
+        <v>0.9986953297150269</v>
       </c>
       <c r="O15">
-        <v>1.0042976</v>
+        <v>0.9995107518680331</v>
       </c>
       <c r="P15">
-        <v>0.993553555</v>
+        <v>1.000733879337418</v>
       </c>
       <c r="Q15">
-        <v>1.00030189</v>
+        <v>0.9999656323633658</v>
       </c>
       <c r="R15">
-        <v>0.9995224699999999</v>
+        <v>1.000054362796621</v>
       </c>
       <c r="S15">
-        <v>0.9944710966666666</v>
+        <v>1.000629423844511</v>
       </c>
       <c r="T15">
-        <v>0.9995224699999999</v>
+        <v>1.000054362796621</v>
       </c>
       <c r="U15">
-        <v>0.9987183974999999</v>
+        <v>1.00014590031214</v>
       </c>
       <c r="V15">
-        <v>1.001266778</v>
+        <v>0.9998557861927179</v>
       </c>
       <c r="W15">
-        <v>0.9988670924999999</v>
+        <v>1.000128973107584</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.97019181</v>
+        <v>0.98882193</v>
       </c>
       <c r="D16">
-        <v>1.0114611</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="E16">
-        <v>1.017017</v>
+        <v>1.0063814</v>
       </c>
       <c r="F16">
-        <v>0.99014917</v>
+        <v>0.9963059399999995</v>
       </c>
       <c r="G16">
-        <v>1.0305628</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="H16">
-        <v>1.0305628</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="I16">
-        <v>1.0305628</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="J16">
-        <v>0.95415576</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="K16">
-        <v>1.0114611</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="L16">
-        <v>0.9908311499999999</v>
+        <v>0.9965616799999996</v>
       </c>
       <c r="M16">
-        <v>0.95415576</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="N16">
-        <v>1.0305628</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="O16">
-        <v>1.0114611</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="P16">
-        <v>0.98280843</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="Q16">
-        <v>1.000805135</v>
+        <v>1.000301919999999</v>
       </c>
       <c r="R16">
-        <v>0.9987265533333334</v>
+        <v>0.9995224699999992</v>
       </c>
       <c r="S16">
-        <v>0.9852553433333333</v>
+        <v>0.9944707499999992</v>
       </c>
       <c r="T16">
-        <v>0.9987265533333334</v>
+        <v>0.9995224699999992</v>
       </c>
       <c r="U16">
-        <v>0.9965822075</v>
+        <v>0.9987183374999993</v>
       </c>
       <c r="V16">
-        <v>1.003378326</v>
+        <v>1.001266889999999</v>
       </c>
       <c r="W16">
-        <v>0.99697873625</v>
+        <v>0.9988670324999995</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99930177</v>
+        <v>0.98882265</v>
       </c>
       <c r="D17">
-        <v>1.0002685</v>
+        <v>1.0042976</v>
       </c>
       <c r="E17">
-        <v>1.0003986</v>
+        <v>1.006381</v>
       </c>
       <c r="F17">
-        <v>0.9997692500000001</v>
+        <v>0.9963061799999999</v>
       </c>
       <c r="G17">
-        <v>1.0007159</v>
+        <v>1.0114603</v>
       </c>
       <c r="H17">
-        <v>1.0007159</v>
+        <v>1.0114603</v>
       </c>
       <c r="I17">
-        <v>1.0007159</v>
+        <v>1.0114603</v>
       </c>
       <c r="J17">
-        <v>0.99892615</v>
+        <v>0.9828095100000001</v>
       </c>
       <c r="K17">
-        <v>1.0002685</v>
+        <v>1.0042976</v>
       </c>
       <c r="L17">
-        <v>0.99978523</v>
+        <v>0.9965619</v>
       </c>
       <c r="M17">
-        <v>0.99892615</v>
+        <v>0.9828095100000001</v>
       </c>
       <c r="N17">
-        <v>1.0007159</v>
+        <v>1.0114603</v>
       </c>
       <c r="O17">
-        <v>1.0002685</v>
+        <v>1.0042976</v>
       </c>
       <c r="P17">
-        <v>0.999597325</v>
+        <v>0.993553555</v>
       </c>
       <c r="Q17">
-        <v>1.000018875</v>
+        <v>1.00030189</v>
       </c>
       <c r="R17">
-        <v>0.9999701833333333</v>
+        <v>0.9995224699999999</v>
       </c>
       <c r="S17">
-        <v>0.9996546333333334</v>
+        <v>0.9944710966666666</v>
       </c>
       <c r="T17">
-        <v>0.9999701833333333</v>
+        <v>0.9995224699999999</v>
       </c>
       <c r="U17">
-        <v>0.99991995</v>
+        <v>0.9987183974999999</v>
       </c>
       <c r="V17">
-        <v>1.00007914</v>
+        <v>1.001266778</v>
       </c>
       <c r="W17">
-        <v>0.9999292375</v>
+        <v>0.9988670924999999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9957125267123289</v>
+        <v>0.97019181</v>
       </c>
       <c r="D18">
-        <v>1.001648512328767</v>
+        <v>1.0114611</v>
       </c>
       <c r="E18">
-        <v>1.002447643835616</v>
+        <v>1.017017</v>
       </c>
       <c r="F18">
-        <v>0.9985831019178081</v>
+        <v>0.99014917</v>
       </c>
       <c r="G18">
-        <v>1.00439602</v>
+        <v>1.0305628</v>
       </c>
       <c r="H18">
-        <v>1.00439602</v>
+        <v>1.0305628</v>
       </c>
       <c r="I18">
-        <v>1.00439602</v>
+        <v>1.0305628</v>
       </c>
       <c r="J18">
-        <v>0.9934059826027396</v>
+        <v>0.95415576</v>
       </c>
       <c r="K18">
-        <v>1.001648512328767</v>
+        <v>1.0114611</v>
       </c>
       <c r="L18">
-        <v>0.9986811901369869</v>
+        <v>0.9908311499999999</v>
       </c>
       <c r="M18">
-        <v>0.9934059826027396</v>
+        <v>0.95415576</v>
       </c>
       <c r="N18">
-        <v>1.00439602</v>
+        <v>1.0305628</v>
       </c>
       <c r="O18">
-        <v>1.001648512328767</v>
+        <v>1.0114611</v>
       </c>
       <c r="P18">
-        <v>0.9975272474657533</v>
+        <v>0.98280843</v>
       </c>
       <c r="Q18">
-        <v>1.000115807123288</v>
+        <v>1.000805135</v>
       </c>
       <c r="R18">
-        <v>0.9998168383105023</v>
+        <v>0.9987265533333334</v>
       </c>
       <c r="S18">
-        <v>0.9978791989497715</v>
+        <v>0.9852553433333333</v>
       </c>
       <c r="T18">
-        <v>0.9998168383105023</v>
+        <v>0.9987265533333334</v>
       </c>
       <c r="U18">
-        <v>0.9995084042123287</v>
+        <v>0.9965822075</v>
       </c>
       <c r="V18">
-        <v>1.000485927369863</v>
+        <v>1.003378326</v>
       </c>
       <c r="W18">
-        <v>0.9995654362328767</v>
+        <v>0.99697873625</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9949505052631576</v>
+        <v>0.99930177</v>
       </c>
       <c r="D19">
-        <v>1.001941502105263</v>
+        <v>1.0002685</v>
       </c>
       <c r="E19">
-        <v>1.002882672105263</v>
+        <v>1.0003986</v>
       </c>
       <c r="F19">
-        <v>0.9983312736842104</v>
+        <v>0.9997692500000001</v>
       </c>
       <c r="G19">
-        <v>1.005177319473684</v>
+        <v>1.0007159</v>
       </c>
       <c r="H19">
-        <v>1.005177319473684</v>
+        <v>1.0007159</v>
       </c>
       <c r="I19">
-        <v>1.005177319473684</v>
+        <v>1.0007159</v>
       </c>
       <c r="J19">
-        <v>0.9922340194736842</v>
+        <v>0.99892615</v>
       </c>
       <c r="K19">
-        <v>1.001941502105263</v>
+        <v>1.0002685</v>
       </c>
       <c r="L19">
-        <v>0.9984468078947368</v>
+        <v>0.99978523</v>
       </c>
       <c r="M19">
-        <v>0.9922340194736842</v>
+        <v>0.99892615</v>
       </c>
       <c r="N19">
-        <v>1.005177319473684</v>
+        <v>1.0007159</v>
       </c>
       <c r="O19">
-        <v>1.001941502105263</v>
+        <v>1.0002685</v>
       </c>
       <c r="P19">
-        <v>0.9970877607894737</v>
+        <v>0.999597325</v>
       </c>
       <c r="Q19">
-        <v>1.000136387894737</v>
+        <v>1.000018875</v>
       </c>
       <c r="R19">
-        <v>0.9997842803508771</v>
+        <v>0.9999701833333333</v>
       </c>
       <c r="S19">
-        <v>0.9975022650877192</v>
+        <v>0.9996546333333334</v>
       </c>
       <c r="T19">
-        <v>0.9997842803508771</v>
+        <v>0.9999701833333333</v>
       </c>
       <c r="U19">
-        <v>0.9994210286842103</v>
+        <v>0.99991995</v>
       </c>
       <c r="V19">
-        <v>1.000572286842105</v>
+        <v>1.00007914</v>
       </c>
       <c r="W19">
-        <v>0.9994882002631578</v>
+        <v>0.9999292375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9888219489473685</v>
+        <v>0.9957125267123289</v>
       </c>
       <c r="D20">
-        <v>1.004297889473684</v>
+        <v>1.001648512328767</v>
       </c>
       <c r="E20">
-        <v>1.006381368421053</v>
+        <v>1.002447643835616</v>
       </c>
       <c r="F20">
-        <v>0.9963059457894737</v>
+        <v>0.9985831019178081</v>
       </c>
       <c r="G20">
-        <v>1.011461047368421</v>
+        <v>1.00439602</v>
       </c>
       <c r="H20">
-        <v>1.011461047368421</v>
+        <v>1.00439602</v>
       </c>
       <c r="I20">
-        <v>1.011461047368421</v>
+        <v>1.00439602</v>
       </c>
       <c r="J20">
-        <v>0.9828084389473684</v>
+        <v>0.9934059826027396</v>
       </c>
       <c r="K20">
-        <v>1.004297889473684</v>
+        <v>1.001648512328767</v>
       </c>
       <c r="L20">
-        <v>0.9965616873684211</v>
+        <v>0.9986811901369869</v>
       </c>
       <c r="M20">
-        <v>0.9828084389473684</v>
+        <v>0.9934059826027396</v>
       </c>
       <c r="N20">
-        <v>1.011461047368421</v>
+        <v>1.00439602</v>
       </c>
       <c r="O20">
-        <v>1.004297889473684</v>
+        <v>1.001648512328767</v>
       </c>
       <c r="P20">
-        <v>0.9935531642105261</v>
+        <v>0.9975272474657533</v>
       </c>
       <c r="Q20">
-        <v>1.000301917631579</v>
+        <v>1.000115807123288</v>
       </c>
       <c r="R20">
-        <v>0.9995224585964912</v>
+        <v>0.9998168383105023</v>
       </c>
       <c r="S20">
-        <v>0.9944707580701753</v>
+        <v>0.9978791989497715</v>
       </c>
       <c r="T20">
-        <v>0.9995224585964912</v>
+        <v>0.9998168383105023</v>
       </c>
       <c r="U20">
-        <v>0.9987183303947369</v>
+        <v>0.9995084042123287</v>
       </c>
       <c r="V20">
-        <v>1.001266873789474</v>
+        <v>1.000485927369863</v>
       </c>
       <c r="W20">
-        <v>0.9988670269736841</v>
+        <v>0.9995654362328767</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.008907501679288</v>
+        <v>0.9949505052631576</v>
       </c>
       <c r="D21">
-        <v>0.9965751229547051</v>
+        <v>1.001941502105263</v>
       </c>
       <c r="E21">
-        <v>0.9949148629930721</v>
+        <v>1.002882672105263</v>
       </c>
       <c r="F21">
-        <v>1.002943705244637</v>
+        <v>0.9983312736842104</v>
       </c>
       <c r="G21">
-        <v>0.9908669918749206</v>
+        <v>1.005177319473684</v>
       </c>
       <c r="H21">
-        <v>0.9908669918749206</v>
+        <v>1.005177319473684</v>
       </c>
       <c r="I21">
-        <v>0.9908669918749206</v>
+        <v>1.005177319473684</v>
       </c>
       <c r="J21">
-        <v>1.013699514431958</v>
+        <v>0.9922340194736842</v>
       </c>
       <c r="K21">
-        <v>0.9965751229547051</v>
+        <v>1.001941502105263</v>
       </c>
       <c r="L21">
-        <v>1.002739911460916</v>
+        <v>0.9984468078947368</v>
       </c>
       <c r="M21">
-        <v>1.013699514431958</v>
+        <v>0.9922340194736842</v>
       </c>
       <c r="N21">
-        <v>0.9908669918749206</v>
+        <v>1.005177319473684</v>
       </c>
       <c r="O21">
-        <v>0.9965751229547051</v>
+        <v>1.001941502105263</v>
       </c>
       <c r="P21">
-        <v>1.005137318693332</v>
+        <v>0.9970877607894737</v>
       </c>
       <c r="Q21">
-        <v>0.999759414099671</v>
+        <v>1.000136387894737</v>
       </c>
       <c r="R21">
-        <v>1.000380543087195</v>
+        <v>0.9997842803508771</v>
       </c>
       <c r="S21">
-        <v>1.004406114210433</v>
+        <v>0.9975022650877192</v>
       </c>
       <c r="T21">
-        <v>1.000380543087195</v>
+        <v>0.9997842803508771</v>
       </c>
       <c r="U21">
-        <v>1.001021333626555</v>
+        <v>0.9994210286842103</v>
       </c>
       <c r="V21">
-        <v>0.9989904652762283</v>
+        <v>1.000572286842105</v>
       </c>
       <c r="W21">
-        <v>1.000902841699275</v>
+        <v>0.9994882002631578</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.002377958398027</v>
+        <v>0.9888219489473685</v>
       </c>
       <c r="D22">
-        <v>0.9990856931637707</v>
+        <v>1.004297889473684</v>
       </c>
       <c r="E22">
-        <v>0.9986424677754205</v>
+        <v>1.006381368421053</v>
       </c>
       <c r="F22">
-        <v>1.000785853887772</v>
+        <v>0.9963059457894737</v>
       </c>
       <c r="G22">
-        <v>0.9975618342489865</v>
+        <v>1.011461047368421</v>
       </c>
       <c r="H22">
-        <v>0.9975618342489865</v>
+        <v>1.011461047368421</v>
       </c>
       <c r="I22">
-        <v>0.9975618342489865</v>
+        <v>1.011461047368421</v>
       </c>
       <c r="J22">
-        <v>1.003657238162348</v>
+        <v>0.9828084389473684</v>
       </c>
       <c r="K22">
-        <v>0.9990856931637707</v>
+        <v>1.004297889473684</v>
       </c>
       <c r="L22">
-        <v>1.000731446857422</v>
+        <v>0.9965616873684211</v>
       </c>
       <c r="M22">
-        <v>1.003657238162348</v>
+        <v>0.9828084389473684</v>
       </c>
       <c r="N22">
-        <v>0.9975618342489865</v>
+        <v>1.011461047368421</v>
       </c>
       <c r="O22">
-        <v>0.9990856931637707</v>
+        <v>1.004297889473684</v>
       </c>
       <c r="P22">
-        <v>1.001371465663059</v>
+        <v>0.9935531642105261</v>
       </c>
       <c r="Q22">
-        <v>0.9999357735257715</v>
+        <v>1.000301917631579</v>
       </c>
       <c r="R22">
-        <v>1.000101588525035</v>
+        <v>0.9995224585964912</v>
       </c>
       <c r="S22">
-        <v>1.001176261737964</v>
+        <v>0.9944707580701753</v>
       </c>
       <c r="T22">
-        <v>1.000101588525035</v>
+        <v>0.9995224585964912</v>
       </c>
       <c r="U22">
-        <v>1.000272654865719</v>
+        <v>0.9987183303947369</v>
       </c>
       <c r="V22">
-        <v>0.9997304907423727</v>
+        <v>1.001266873789474</v>
       </c>
       <c r="W22">
-        <v>1.00024102320719</v>
+        <v>0.9988670269736841</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.002847092345366</v>
+        <v>1.008907501679288</v>
       </c>
       <c r="D23">
-        <v>0.9989053112400395</v>
+        <v>0.9965751229547051</v>
       </c>
       <c r="E23">
-        <v>0.9983746458611054</v>
+        <v>0.9949148629930721</v>
       </c>
       <c r="F23">
-        <v>1.000940888441988</v>
+        <v>1.002943705244637</v>
       </c>
       <c r="G23">
-        <v>0.9970808306423465</v>
+        <v>0.9908669918749206</v>
       </c>
       <c r="H23">
-        <v>0.9970808306423465</v>
+        <v>0.9908669918749206</v>
       </c>
       <c r="I23">
-        <v>0.9970808306423465</v>
+        <v>0.9908669918749206</v>
       </c>
       <c r="J23">
-        <v>1.004378756962693</v>
+        <v>1.013699514431958</v>
       </c>
       <c r="K23">
-        <v>0.9989053112400395</v>
+        <v>0.9965751229547051</v>
       </c>
       <c r="L23">
-        <v>1.000875756168799</v>
+        <v>1.002739911460916</v>
       </c>
       <c r="M23">
-        <v>1.004378756962693</v>
+        <v>1.013699514431958</v>
       </c>
       <c r="N23">
-        <v>0.9970808306423465</v>
+        <v>0.9908669918749206</v>
       </c>
       <c r="O23">
-        <v>0.9989053112400395</v>
+        <v>0.9965751229547051</v>
       </c>
       <c r="P23">
-        <v>1.001642034101367</v>
+        <v>1.005137318693332</v>
       </c>
       <c r="Q23">
-        <v>0.9999230998410136</v>
+        <v>0.999759414099671</v>
       </c>
       <c r="R23">
-        <v>1.00012163294836</v>
+        <v>1.000380543087195</v>
       </c>
       <c r="S23">
-        <v>1.001408318881573</v>
+        <v>1.004406114210433</v>
       </c>
       <c r="T23">
-        <v>1.00012163294836</v>
+        <v>1.000380543087195</v>
       </c>
       <c r="U23">
-        <v>1.000326446821767</v>
+        <v>1.001021333626555</v>
       </c>
       <c r="V23">
-        <v>0.9996773235858827</v>
+        <v>0.9989904652762283</v>
       </c>
       <c r="W23">
-        <v>1.000288574112797</v>
+        <v>1.000902841699275</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000738264898229</v>
+        <v>1.002377958398027</v>
       </c>
       <c r="D24">
-        <v>0.9997161448516948</v>
+        <v>0.9990856931637707</v>
       </c>
       <c r="E24">
-        <v>0.9995785398723016</v>
+        <v>0.9986424677754205</v>
       </c>
       <c r="F24">
-        <v>1.00024397552549</v>
+        <v>1.000785853887772</v>
       </c>
       <c r="G24">
-        <v>0.9992430463620008</v>
+        <v>0.9975618342489865</v>
       </c>
       <c r="H24">
-        <v>0.9992430463620008</v>
+        <v>0.9975618342489865</v>
       </c>
       <c r="I24">
-        <v>0.9992430463620008</v>
+        <v>0.9975618342489865</v>
       </c>
       <c r="J24">
-        <v>1.001135432739273</v>
+        <v>1.003657238162348</v>
       </c>
       <c r="K24">
-        <v>0.9997161448516948</v>
+        <v>0.9990856931637707</v>
       </c>
       <c r="L24">
-        <v>1.000227084232532</v>
+        <v>1.000731446857422</v>
       </c>
       <c r="M24">
-        <v>1.001135432739273</v>
+        <v>1.003657238162348</v>
       </c>
       <c r="N24">
-        <v>0.9992430463620008</v>
+        <v>0.9975618342489865</v>
       </c>
       <c r="O24">
-        <v>0.9997161448516948</v>
+        <v>0.9990856931637707</v>
       </c>
       <c r="P24">
-        <v>1.000425788795484</v>
+        <v>1.001371465663059</v>
       </c>
       <c r="Q24">
-        <v>0.9999800601885922</v>
+        <v>0.9999357735257715</v>
       </c>
       <c r="R24">
-        <v>1.000031541317656</v>
+        <v>1.000101588525035</v>
       </c>
       <c r="S24">
-        <v>1.000365184372152</v>
+        <v>1.001176261737964</v>
       </c>
       <c r="T24">
-        <v>1.000031541317656</v>
+        <v>1.000101588525035</v>
       </c>
       <c r="U24">
-        <v>1.000084649869615</v>
+        <v>1.000272654865719</v>
       </c>
       <c r="V24">
-        <v>0.9999163291680919</v>
+        <v>0.9997304907423727</v>
       </c>
       <c r="W24">
-        <v>1.000074829166652</v>
+        <v>1.00024102320719</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9912577489032748</v>
+        <v>1.002847092345366</v>
       </c>
       <c r="D25">
-        <v>1.003361344036506</v>
+        <v>0.9989053112400395</v>
       </c>
       <c r="E25">
-        <v>1.004990798662719</v>
+        <v>0.9983746458611054</v>
       </c>
       <c r="F25">
-        <v>0.9971109142421676</v>
+        <v>1.000940888441988</v>
       </c>
       <c r="G25">
-        <v>1.008963571411281</v>
+        <v>0.9970808306423465</v>
       </c>
       <c r="H25">
-        <v>1.008963571411281</v>
+        <v>0.9970808306423465</v>
       </c>
       <c r="I25">
-        <v>1.008963571411281</v>
+        <v>0.9970808306423465</v>
       </c>
       <c r="J25">
-        <v>0.9865546416801377</v>
+        <v>1.004378756962693</v>
       </c>
       <c r="K25">
-        <v>1.003361344036506</v>
+        <v>0.9989053112400395</v>
       </c>
       <c r="L25">
-        <v>0.997310927968344</v>
+        <v>1.000875756168799</v>
       </c>
       <c r="M25">
-        <v>0.9865546416801377</v>
+        <v>1.004378756962693</v>
       </c>
       <c r="N25">
-        <v>1.008963571411281</v>
+        <v>0.9970808306423465</v>
       </c>
       <c r="O25">
-        <v>1.003361344036506</v>
+        <v>0.9989053112400395</v>
       </c>
       <c r="P25">
-        <v>0.9949579928583216</v>
+        <v>1.001642034101367</v>
       </c>
       <c r="Q25">
-        <v>1.000236129139337</v>
+        <v>0.9999230998410136</v>
       </c>
       <c r="R25">
-        <v>0.9996265190426415</v>
+        <v>1.00012163294836</v>
       </c>
       <c r="S25">
-        <v>0.9956756333196036</v>
+        <v>1.001408318881573</v>
       </c>
       <c r="T25">
-        <v>0.9996265190426415</v>
+        <v>1.00012163294836</v>
       </c>
       <c r="U25">
-        <v>0.9989976178425231</v>
+        <v>1.000326446821767</v>
       </c>
       <c r="V25">
-        <v>1.000990808556275</v>
+        <v>0.9996773235858827</v>
       </c>
       <c r="W25">
-        <v>0.999113911367617</v>
+        <v>1.000288574112797</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9976583419220311</v>
+        <v>1.000738264898229</v>
       </c>
       <c r="D26">
-        <v>1.000900357544309</v>
+        <v>0.9997161448516948</v>
       </c>
       <c r="E26">
-        <v>1.001336806413155</v>
+        <v>0.9995785398723016</v>
       </c>
       <c r="F26">
-        <v>0.9992261492913607</v>
+        <v>1.00024397552549</v>
       </c>
       <c r="G26">
-        <v>1.002400931228633</v>
+        <v>0.9992430463620008</v>
       </c>
       <c r="H26">
-        <v>1.002400931228633</v>
+        <v>0.9992430463620008</v>
       </c>
       <c r="I26">
-        <v>1.002400931228633</v>
+        <v>0.9992430463620008</v>
       </c>
       <c r="J26">
-        <v>0.9963985948439751</v>
+        <v>1.001135432739273</v>
       </c>
       <c r="K26">
-        <v>1.000900357544309</v>
+        <v>0.9997161448516948</v>
       </c>
       <c r="L26">
-        <v>0.9992797262495354</v>
+        <v>1.000227084232532</v>
       </c>
       <c r="M26">
-        <v>0.9963985948439751</v>
+        <v>1.001135432739273</v>
       </c>
       <c r="N26">
-        <v>1.002400931228633</v>
+        <v>0.9992430463620008</v>
       </c>
       <c r="O26">
-        <v>1.000900357544309</v>
+        <v>0.9997161448516948</v>
       </c>
       <c r="P26">
-        <v>0.998649476194142</v>
+        <v>1.000425788795484</v>
       </c>
       <c r="Q26">
-        <v>1.000063253417835</v>
+        <v>0.9999800601885922</v>
       </c>
       <c r="R26">
-        <v>0.9998999612056388</v>
+        <v>1.000031541317656</v>
       </c>
       <c r="S26">
-        <v>0.9988417005598816</v>
+        <v>1.000365184372152</v>
       </c>
       <c r="T26">
-        <v>0.9998999612056388</v>
+        <v>1.000031541317656</v>
       </c>
       <c r="U26">
-        <v>0.9997315082270694</v>
+        <v>1.000084649869615</v>
       </c>
       <c r="V26">
-        <v>1.000265392827382</v>
+        <v>0.9999163291680919</v>
       </c>
       <c r="W26">
-        <v>0.9997626581296635</v>
+        <v>1.000074829166652</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9993337719523899</v>
+        <v>0.9912577489032748</v>
       </c>
       <c r="D27">
-        <v>1.000256160934951</v>
+        <v>1.003361344036506</v>
       </c>
       <c r="E27">
-        <v>1.000380344031349</v>
+        <v>1.004990798662719</v>
       </c>
       <c r="F27">
-        <v>0.99977983307619</v>
+        <v>0.9971109142421676</v>
       </c>
       <c r="G27">
-        <v>1.000683074075313</v>
+        <v>1.008963571411281</v>
       </c>
       <c r="H27">
-        <v>1.000683074075313</v>
+        <v>1.008963571411281</v>
       </c>
       <c r="I27">
-        <v>1.000683074075313</v>
+        <v>1.008963571411281</v>
       </c>
       <c r="J27">
-        <v>0.9989753808069527</v>
+        <v>0.9865546416801377</v>
       </c>
       <c r="K27">
-        <v>1.000256160934951</v>
+        <v>1.003361344036506</v>
       </c>
       <c r="L27">
-        <v>0.9997950769216672</v>
+        <v>0.997310927968344</v>
       </c>
       <c r="M27">
-        <v>0.9989753808069527</v>
+        <v>0.9865546416801377</v>
       </c>
       <c r="N27">
-        <v>1.000683074075313</v>
+        <v>1.008963571411281</v>
       </c>
       <c r="O27">
-        <v>1.000256160934951</v>
+        <v>1.003361344036506</v>
       </c>
       <c r="P27">
-        <v>0.9996157708709519</v>
+        <v>0.9949579928583216</v>
       </c>
       <c r="Q27">
-        <v>1.000017997005571</v>
+        <v>1.000236129139337</v>
       </c>
       <c r="R27">
-        <v>0.999971538605739</v>
+        <v>0.9996265190426415</v>
       </c>
       <c r="S27">
-        <v>0.999670458272698</v>
+        <v>0.9956756333196036</v>
       </c>
       <c r="T27">
-        <v>0.9999715386057391</v>
+        <v>0.9996265190426415</v>
       </c>
       <c r="U27">
-        <v>0.9999236122233518</v>
+        <v>0.9989976178425231</v>
       </c>
       <c r="V27">
-        <v>1.000075504593744</v>
+        <v>1.000990808556275</v>
       </c>
       <c r="W27">
-        <v>0.9999324753417206</v>
+        <v>0.999113911367617</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9988437151081667</v>
+        <v>0.9976583419220311</v>
       </c>
       <c r="D28">
-        <v>1.00044457814031</v>
+        <v>1.000900357544309</v>
       </c>
       <c r="E28">
-        <v>1.000660113586864</v>
+        <v>1.001336806413155</v>
       </c>
       <c r="F28">
-        <v>0.9996178657133266</v>
+        <v>0.9992261492913607</v>
       </c>
       <c r="G28">
-        <v>1.001185560934779</v>
+        <v>1.002400931228633</v>
       </c>
       <c r="H28">
-        <v>1.001185560934779</v>
+        <v>1.002400931228633</v>
       </c>
       <c r="I28">
-        <v>1.001185560934779</v>
+        <v>1.002400931228633</v>
       </c>
       <c r="J28">
-        <v>0.9982216587020751</v>
+        <v>0.9963985948439751</v>
       </c>
       <c r="K28">
-        <v>1.00044457814031</v>
+        <v>1.000900357544309</v>
       </c>
       <c r="L28">
-        <v>0.999644318592302</v>
+        <v>0.9992797262495354</v>
       </c>
       <c r="M28">
-        <v>0.9982216587020751</v>
+        <v>0.9963985948439751</v>
       </c>
       <c r="N28">
-        <v>1.001185560934779</v>
+        <v>1.002400931228633</v>
       </c>
       <c r="O28">
-        <v>1.00044457814031</v>
+        <v>1.000900357544309</v>
       </c>
       <c r="P28">
-        <v>0.9993331184211927</v>
+        <v>0.998649476194142</v>
       </c>
       <c r="Q28">
-        <v>1.000031221926818</v>
+        <v>1.000063253417835</v>
       </c>
       <c r="R28">
-        <v>0.9999505992590546</v>
+        <v>0.9998999612056388</v>
       </c>
       <c r="S28">
-        <v>0.9994280341852373</v>
+        <v>0.9988417005598816</v>
       </c>
       <c r="T28">
-        <v>0.9999505992590546</v>
+        <v>0.9998999612056388</v>
       </c>
       <c r="U28">
-        <v>0.9998674158726226</v>
+        <v>0.9997315082270694</v>
       </c>
       <c r="V28">
-        <v>1.000131044885054</v>
+        <v>1.000265392827382</v>
       </c>
       <c r="W28">
-        <v>0.9998827986147667</v>
+        <v>0.9997626581296635</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9993337719523899</v>
+      </c>
+      <c r="D29">
+        <v>1.000256160934951</v>
+      </c>
+      <c r="E29">
+        <v>1.000380344031349</v>
+      </c>
+      <c r="F29">
+        <v>0.99977983307619</v>
+      </c>
+      <c r="G29">
+        <v>1.000683074075313</v>
+      </c>
+      <c r="H29">
+        <v>1.000683074075313</v>
+      </c>
+      <c r="I29">
+        <v>1.000683074075313</v>
+      </c>
+      <c r="J29">
+        <v>0.9989753808069527</v>
+      </c>
+      <c r="K29">
+        <v>1.000256160934951</v>
+      </c>
+      <c r="L29">
+        <v>0.9997950769216672</v>
+      </c>
+      <c r="M29">
+        <v>0.9989753808069527</v>
+      </c>
+      <c r="N29">
+        <v>1.000683074075313</v>
+      </c>
+      <c r="O29">
+        <v>1.000256160934951</v>
+      </c>
+      <c r="P29">
+        <v>0.9996157708709519</v>
+      </c>
+      <c r="Q29">
+        <v>1.000017997005571</v>
+      </c>
+      <c r="R29">
+        <v>0.999971538605739</v>
+      </c>
+      <c r="S29">
+        <v>0.999670458272698</v>
+      </c>
+      <c r="T29">
+        <v>0.9999715386057391</v>
+      </c>
+      <c r="U29">
+        <v>0.9999236122233518</v>
+      </c>
+      <c r="V29">
+        <v>1.000075504593744</v>
+      </c>
+      <c r="W29">
+        <v>0.9999324753417206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9988437151081667</v>
+      </c>
+      <c r="D30">
+        <v>1.00044457814031</v>
+      </c>
+      <c r="E30">
+        <v>1.000660113586864</v>
+      </c>
+      <c r="F30">
+        <v>0.9996178657133266</v>
+      </c>
+      <c r="G30">
+        <v>1.001185560934779</v>
+      </c>
+      <c r="H30">
+        <v>1.001185560934779</v>
+      </c>
+      <c r="I30">
+        <v>1.001185560934779</v>
+      </c>
+      <c r="J30">
+        <v>0.9982216587020751</v>
+      </c>
+      <c r="K30">
+        <v>1.00044457814031</v>
+      </c>
+      <c r="L30">
+        <v>0.999644318592302</v>
+      </c>
+      <c r="M30">
+        <v>0.9982216587020751</v>
+      </c>
+      <c r="N30">
+        <v>1.001185560934779</v>
+      </c>
+      <c r="O30">
+        <v>1.00044457814031</v>
+      </c>
+      <c r="P30">
+        <v>0.9993331184211927</v>
+      </c>
+      <c r="Q30">
+        <v>1.000031221926818</v>
+      </c>
+      <c r="R30">
+        <v>0.9999505992590546</v>
+      </c>
+      <c r="S30">
+        <v>0.9994280341852373</v>
+      </c>
+      <c r="T30">
+        <v>0.9999505992590546</v>
+      </c>
+      <c r="U30">
+        <v>0.9998674158726226</v>
+      </c>
+      <c r="V30">
+        <v>1.000131044885054</v>
+      </c>
+      <c r="W30">
+        <v>0.9998827986147667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.000971226235021</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9996265566151757</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9994455446021816</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.00032094964043</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9990041654682281</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9990041654682281</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9990041654682281</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.001493735622002</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9996265566151757</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.00029873307691</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.001493735622002</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9990041654682281</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9996265566151757</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000560146118589</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9999737531278028</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000041485901802</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000480413959202</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000041485901802</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000111351836459</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9998899145628126</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000098433484391</v>
       </c>
     </row>
